--- a/results/combined_query.xlsx
+++ b/results/combined_query.xlsx
@@ -432,6 +432,21 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="46" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -591,7 +606,6 @@
           <t>GJ 394</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -740,7 +754,6 @@
           <t>GJ 66 A</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -787,7 +800,6 @@
           <t>GJ 66 B</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -926,7 +938,6 @@
       <c r="I10" t="n">
         <v>4153.60498046875</v>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>GJ 9331, GJ 397.1</t>
@@ -1187,7 +1198,6 @@
           <t>GJ 1181 A</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -1377,7 +1387,6 @@
       <c r="I19" t="n">
         <v>4049.166259765625</v>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>GJ 562</t>
@@ -1633,7 +1642,6 @@
           <t>HD 135599</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>HIP 74702</t>
@@ -1981,7 +1989,6 @@
       <c r="I31" t="n">
         <v>3968.5</v>
       </c>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>GJ 1075</t>
@@ -2436,7 +2443,6 @@
       <c r="I40" t="n">
         <v>4100</v>
       </c>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>GJ 400 A</t>
@@ -2493,7 +2499,6 @@
           <t>GJ 566 B</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2540,7 +2545,6 @@
           <t>GJ 566 A</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2638,7 +2642,6 @@
           <t>GJ 737 A</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2736,7 +2739,6 @@
           <t>GJ 292 B</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -3242,7 +3244,6 @@
           <t>GJ 216 B</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -3539,7 +3540,6 @@
           <t>HD  35112</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>HIP 25119</t>
@@ -4152,7 +4152,6 @@
           <t>GJ 127 B</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -4296,7 +4295,6 @@
           <t>HD 192263</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>HIP 99711</t>
@@ -4343,7 +4341,6 @@
           <t>HD  36705, HD  36705A</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>HIP 25647</t>
@@ -4701,7 +4698,6 @@
           <t>GJ 9642 B, GJ 743.1 B, GJ 743.1</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -4748,7 +4744,6 @@
           <t>GJ 9642 A, GJ 743.1 A</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -4836,7 +4831,6 @@
       <c r="I88" t="n">
         <v>3973.337158203125</v>
       </c>
-      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>GJ 583</t>
@@ -5036,7 +5030,6 @@
       <c r="I92" t="n">
         <v>3997.302978515625</v>
       </c>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>GJ 397 A, GJ 397</t>
@@ -5134,13 +5127,11 @@
       <c r="I94" t="n">
         <v>4951.93701171875</v>
       </c>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>GJ 271 B</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
           <t>Star</t>
@@ -5381,7 +5372,6 @@
       <c r="I99" t="n">
         <v>3953.0791015625</v>
       </c>
-      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>GJ 3481</t>
@@ -5790,7 +5780,6 @@
           <t>HD 136923</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>HIP 75277</t>
@@ -6087,7 +6076,6 @@
       <c r="I113" t="n">
         <v>3601.6806640625</v>
       </c>
-      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>GJ 572</t>
@@ -6491,7 +6479,6 @@
       <c r="I121" t="n">
         <v>4814.08203125</v>
       </c>
-      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>GJ 9233, GJ 273.1</t>
@@ -6599,7 +6586,6 @@
           <t>GJ 278 D, GJ 278 C</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
           <t>SB*</t>
@@ -6636,13 +6622,11 @@
       <c r="I124" t="n">
         <v>3873</v>
       </c>
-      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>GJ 319 A</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -6893,7 +6877,6 @@
           <t>GJ 32 A</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -6940,7 +6923,6 @@
           <t>GJ 32 B</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -7038,7 +7020,6 @@
           <t>GJ 575 A</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -7085,7 +7066,6 @@
           <t>GJ 575 B</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
           <t>SB*</t>
@@ -7479,7 +7459,6 @@
       <c r="I141" t="n">
         <v>4075.2900390625</v>
       </c>
-      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>GJ 913</t>
@@ -7740,7 +7719,6 @@
           <t>GJ 1177 A</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -7787,7 +7765,6 @@
           <t>GJ 1177 B</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -8650,7 +8627,6 @@
           <t>GJ 1294 A</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -8998,7 +8974,6 @@
           <t>HD 150689</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>HIP 81935</t>
@@ -9300,7 +9275,6 @@
           <t>HD  87883</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>HIP 49699</t>
@@ -9393,7 +9367,6 @@
       <c r="I179" t="n">
         <v>3909.50244140625</v>
       </c>
-      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>GJ 281</t>
@@ -9542,7 +9515,6 @@
       <c r="I182" t="n">
         <v>3877.171875</v>
       </c>
-      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>GJ 156</t>
@@ -9594,7 +9566,6 @@
           <t>HD  35650</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>HIP 25283</t>
@@ -9687,7 +9658,6 @@
       <c r="I185" t="n">
         <v>3754.77587890625</v>
       </c>
-      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>GJ 9592, GJ 678.1 A</t>
@@ -10050,7 +10020,6 @@
           <t>GJ 282 B</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -10505,7 +10474,6 @@
           <t>GJ 646 A</t>
         </is>
       </c>
-      <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -10802,7 +10770,6 @@
           <t>HD  23356</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>HIP 17420</t>
@@ -11211,7 +11178,6 @@
           <t>GJ 4 A</t>
         </is>
       </c>
-      <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr">
         <is>
           <t>SB*</t>
@@ -11411,7 +11377,6 @@
           <t>GJ 348 B</t>
         </is>
       </c>
-      <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -11448,7 +11413,6 @@
       <c r="I220" t="n">
         <v>3875.679931640625</v>
       </c>
-      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>GJ 14</t>
@@ -11500,7 +11464,6 @@
           <t>HD 130004</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>HIP 72146</t>
@@ -11649,8 +11612,6 @@
           <t>HD 152705</t>
         </is>
       </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -11738,7 +11699,6 @@
       <c r="I226" t="n">
         <v>3739.438232421875</v>
       </c>
-      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>GJ 519</t>
@@ -11846,7 +11806,6 @@
           <t>GJ 738 A</t>
         </is>
       </c>
-      <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -12199,7 +12158,6 @@
           <t>GJ 702 B</t>
         </is>
       </c>
-      <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -12246,7 +12204,6 @@
           <t>GJ 351 B</t>
         </is>
       </c>
-      <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -12344,7 +12301,6 @@
           <t>GJ 34 B</t>
         </is>
       </c>
-      <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -12534,8 +12490,6 @@
       <c r="I242" t="n">
         <v>5143.4501953125</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>HIP 110778</t>
@@ -12587,7 +12541,6 @@
           <t>GJ 509 A</t>
         </is>
       </c>
-      <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -13185,7 +13138,6 @@
       <c r="I255" t="n">
         <v>4076.1396484375</v>
       </c>
-      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>GJ 546</t>
@@ -13395,7 +13347,6 @@
           <t>GJ 734 A</t>
         </is>
       </c>
-      <c r="L259" t="inlineStr"/>
       <c r="M259" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -13590,7 +13541,6 @@
           <t>HD 170573</t>
         </is>
       </c>
-      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>HIP 90945</t>
@@ -13744,7 +13694,6 @@
           <t>GJ 425 A</t>
         </is>
       </c>
-      <c r="L266" t="inlineStr"/>
       <c r="M266" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -13893,7 +13842,6 @@
           <t>GJ 663 A</t>
         </is>
       </c>
-      <c r="L269" t="inlineStr"/>
       <c r="M269" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -13935,7 +13883,6 @@
           <t>HD 113194</t>
         </is>
       </c>
-      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>HIP 63618</t>
@@ -13982,7 +13929,6 @@
           <t>HD 139763</t>
         </is>
       </c>
-      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>HIP 76779</t>
@@ -14289,7 +14235,6 @@
           <t>GJ 678 A</t>
         </is>
       </c>
-      <c r="L277" t="inlineStr"/>
       <c r="M277" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -14336,7 +14281,6 @@
           <t>GJ 678 B</t>
         </is>
       </c>
-      <c r="L278" t="inlineStr"/>
       <c r="M278" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -14944,7 +14888,6 @@
           <t>GJ 528 B</t>
         </is>
       </c>
-      <c r="L290" t="inlineStr"/>
       <c r="M290" t="inlineStr">
         <is>
           <t>Eruptive*</t>
@@ -15088,7 +15031,6 @@
           <t>HD 157347</t>
         </is>
       </c>
-      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>HIP 85042</t>
@@ -15130,7 +15072,6 @@
       <c r="I294" t="n">
         <v>4006.0322265625</v>
       </c>
-      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>GJ 676 A</t>
@@ -15289,7 +15230,6 @@
           <t>GJ 428 B</t>
         </is>
       </c>
-      <c r="L297" t="inlineStr"/>
       <c r="M297" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -15484,7 +15424,6 @@
           <t>HD 156985</t>
         </is>
       </c>
-      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>HIP 84616</t>
@@ -15730,7 +15669,6 @@
       <c r="I306" t="n">
         <v>4121.4501953125</v>
       </c>
-      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>GJ 619</t>
@@ -15833,7 +15771,6 @@
           <t>HD 152606</t>
         </is>
       </c>
-      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>HIP 82834</t>
@@ -16283,13 +16220,11 @@
       <c r="I317" t="n">
         <v>4006.371826171875</v>
       </c>
-      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>GJ 499 A</t>
         </is>
       </c>
-      <c r="L317" t="inlineStr"/>
       <c r="M317" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -17397,13 +17332,11 @@
       <c r="I339" t="n">
         <v>4045.389892578125</v>
       </c>
-      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>GJ 240 A</t>
         </is>
       </c>
-      <c r="L339" t="inlineStr"/>
       <c r="M339" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -17542,7 +17475,6 @@
       <c r="I342" t="n">
         <v>3731.829833984375</v>
       </c>
-      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>GJ 96</t>
@@ -17650,7 +17582,6 @@
           <t>GJ 627 A</t>
         </is>
       </c>
-      <c r="L344" t="inlineStr"/>
       <c r="M344" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -17697,7 +17628,6 @@
           <t>GJ 627 B</t>
         </is>
       </c>
-      <c r="L345" t="inlineStr"/>
       <c r="M345" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -17887,13 +17817,11 @@
       <c r="I349" t="n">
         <v>4487.10009765625</v>
       </c>
-      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>GJ 560 B</t>
         </is>
       </c>
-      <c r="L349" t="inlineStr"/>
       <c r="M349" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -18080,7 +18008,6 @@
       <c r="H353" t="n">
         <v>133.7194055667135</v>
       </c>
-      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr">
         <is>
           <t>HD   2151</t>
@@ -18129,13 +18056,11 @@
       <c r="H354" t="n">
         <v>51.39988628348321</v>
       </c>
-      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
           <t>HD  67523</t>
         </is>
       </c>
-      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>HIP 39757</t>
@@ -18174,7 +18099,6 @@
       <c r="H355" t="n">
         <v>80.48541193436336</v>
       </c>
-      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
           <t>HD 141891</t>
@@ -18223,7 +18147,6 @@
       <c r="H356" t="n">
         <v>85.94055985093036</v>
       </c>
-      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
           <t>HD 207098</t>
@@ -18272,7 +18195,6 @@
       <c r="H357" t="n">
         <v>52.44130794438597</v>
       </c>
-      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
           <t>HD 168723</t>
@@ -18321,7 +18243,6 @@
       <c r="H358" t="n">
         <v>73.82839808283359</v>
       </c>
-      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr">
         <is>
           <t>HD  82328</t>
@@ -18424,13 +18345,11 @@
       <c r="I360" t="n">
         <v>7498.32861328125</v>
       </c>
-      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>GJ 331.0, GJ 331 A</t>
         </is>
       </c>
-      <c r="L360" t="inlineStr"/>
       <c r="M360" t="inlineStr">
         <is>
           <t>SB*</t>
@@ -18464,7 +18383,6 @@
       <c r="H361" t="n">
         <v>60.99295526213351</v>
       </c>
-      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
           <t>HD 128898</t>
@@ -18513,7 +18431,6 @@
       <c r="H362" t="n">
         <v>119.9248084837007</v>
       </c>
-      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr">
         <is>
           <t>HD 161797, HD 161797A</t>
@@ -18562,7 +18479,6 @@
       <c r="H363" t="n">
         <v>54.18943837090239</v>
       </c>
-      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr">
         <is>
           <t>HD  48737</t>
@@ -18611,7 +18527,6 @@
       <c r="H364" t="n">
         <v>110.0253907859769</v>
       </c>
-      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr">
         <is>
           <t>HD  23249</t>
@@ -18660,7 +18575,6 @@
       <c r="H365" t="n">
         <v>273.8097451185997</v>
       </c>
-      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
           <t>HD  10700</t>
@@ -18862,7 +18776,6 @@
       <c r="H369" t="n">
         <v>53.7692037948601</v>
       </c>
-      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr">
         <is>
           <t>HD  56986</t>
@@ -19013,7 +18926,6 @@
       <c r="H372" t="n">
         <v>56.85081150608127</v>
       </c>
-      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
           <t>HD  11937</t>
@@ -19113,7 +19025,6 @@
       <c r="H374" t="n">
         <v>73.52487469097186</v>
       </c>
-      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr">
         <is>
           <t>HD 188512</t>
@@ -19264,7 +19175,6 @@
       <c r="H377" t="n">
         <v>52.18150644577868</v>
       </c>
-      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr">
         <is>
           <t>HD 129502</t>
@@ -19568,7 +19478,6 @@
       <c r="H383" t="n">
         <v>53.36175020467222</v>
       </c>
-      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr">
         <is>
           <t>HD  76943, HD  76943B</t>
@@ -19732,7 +19641,6 @@
           <t>GJ 702 A</t>
         </is>
       </c>
-      <c r="L386" t="inlineStr"/>
       <c r="M386" t="inlineStr">
         <is>
           <t>SB*</t>
@@ -19817,7 +19725,6 @@
       <c r="H388" t="n">
         <v>68.33702615446357</v>
       </c>
-      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
           <t>HD 197692</t>
@@ -19917,7 +19824,6 @@
       <c r="H390" t="n">
         <v>60.91607733263437</v>
       </c>
-      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
           <t>HD 215648</t>
@@ -20272,7 +20178,6 @@
       <c r="H397" t="n">
         <v>54.22863060384525</v>
       </c>
-      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
           <t>HD  27442A, HD  27442</t>
@@ -20372,7 +20277,6 @@
       <c r="H399" t="n">
         <v>51.90738085981107</v>
       </c>
-      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr">
         <is>
           <t>HD 119756</t>
@@ -20421,7 +20325,6 @@
       <c r="H400" t="n">
         <v>199.6080124181338</v>
       </c>
-      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
           <t>HD  26965</t>
@@ -20572,7 +20475,6 @@
       <c r="H403" t="n">
         <v>57.08202698230254</v>
       </c>
-      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr">
         <is>
           <t>HD 156897</t>
@@ -20672,7 +20574,6 @@
       <c r="H405" t="n">
         <v>63.46786677026886</v>
       </c>
-      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
           <t>HD 128167</t>
@@ -20925,7 +20826,6 @@
       <c r="H410" t="n">
         <v>91.6503559470644</v>
       </c>
-      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
           <t>HD  13974</t>
@@ -21127,7 +21027,6 @@
       <c r="H414" t="n">
         <v>55.25105809943382</v>
       </c>
-      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
           <t>HD 117176</t>
@@ -21342,7 +21241,6 @@
           <t>GJ 663 B</t>
         </is>
       </c>
-      <c r="L418" t="inlineStr"/>
       <c r="M418" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -21440,7 +21338,6 @@
           <t>GJ 292 A</t>
         </is>
       </c>
-      <c r="L420" t="inlineStr"/>
       <c r="M420" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -21525,7 +21422,6 @@
       <c r="H422" t="n">
         <v>130.2880697692703</v>
       </c>
-      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr">
         <is>
           <t>HD   6582</t>
@@ -21625,13 +21521,11 @@
       <c r="H424" t="n">
         <v>50.9663435616347</v>
       </c>
-      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
           <t>HD  73752</t>
         </is>
       </c>
-      <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
           <t>HIP 42430</t>
@@ -21683,7 +21577,6 @@
           <t>GJ 738 A</t>
         </is>
       </c>
-      <c r="L425" t="inlineStr"/>
       <c r="M425" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -21921,7 +21814,6 @@
       <c r="H430" t="n">
         <v>81.17903537377352</v>
       </c>
-      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
           <t>HD 224930</t>
@@ -22072,7 +21964,6 @@
       <c r="H433" t="n">
         <v>251.9124222107058</v>
       </c>
-      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr">
         <is>
           <t>HD 202560</t>
@@ -22172,7 +22063,6 @@
       <c r="H435" t="n">
         <v>168.7185611882588</v>
       </c>
-      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
           <t>HD   4614B</t>
@@ -22183,7 +22073,6 @@
           <t>GJ 34 B</t>
         </is>
       </c>
-      <c r="L435" t="inlineStr"/>
       <c r="M435" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -22319,7 +22208,6 @@
       <c r="H438" t="n">
         <v>88.67366322546205</v>
       </c>
-      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr">
         <is>
           <t>HD  85512</t>
@@ -22381,7 +22269,6 @@
           <t>GJ 528 A</t>
         </is>
       </c>
-      <c r="L439" t="inlineStr"/>
       <c r="M439" t="inlineStr">
         <is>
           <t>Eruptive*</t>
@@ -22415,7 +22302,6 @@
       <c r="H440" t="n">
         <v>77.34986706396188</v>
       </c>
-      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
           <t>HD  36003</t>
@@ -22464,7 +22350,6 @@
       <c r="H441" t="n">
         <v>55.06176661082814</v>
       </c>
-      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
           <t>HD  99492</t>
@@ -22513,7 +22398,6 @@
       <c r="H442" t="n">
         <v>78.22675647892444</v>
       </c>
-      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
           <t>HD 101581</t>
@@ -22613,7 +22497,6 @@
       <c r="H444" t="n">
         <v>70.8793049316243</v>
       </c>
-      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
           <t>HD 110315</t>
@@ -22713,7 +22596,6 @@
       <c r="H446" t="n">
         <v>55.93381446820585</v>
       </c>
-      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
           <t>HD  79555</t>
@@ -22813,7 +22695,6 @@
       <c r="H448" t="n">
         <v>66.46255615107758</v>
       </c>
-      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr">
         <is>
           <t>HD 200779</t>
@@ -22964,7 +22845,6 @@
       <c r="H451" t="n">
         <v>54.15647728067208</v>
       </c>
-      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
           <t>HD  65486</t>
@@ -23013,7 +22893,6 @@
       <c r="H452" t="n">
         <v>54.03805624291157</v>
       </c>
-      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr">
         <is>
           <t>HD  40887C</t>
@@ -23024,7 +22903,6 @@
           <t>GJ 9196 C, GJ 225.2 E, GJ 225.2 C</t>
         </is>
       </c>
-      <c r="L452" t="inlineStr"/>
       <c r="M452" t="inlineStr">
         <is>
           <t>**</t>
@@ -23109,7 +22987,6 @@
       <c r="H454" t="n">
         <v>86.82060614940866</v>
       </c>
-      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
           <t>HD     38B</t>
@@ -23120,7 +22997,6 @@
           <t>GJ 4 B</t>
         </is>
       </c>
-      <c r="L454" t="inlineStr"/>
       <c r="M454" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -23154,7 +23030,6 @@
       <c r="H455" t="n">
         <v>57.08662660750707</v>
       </c>
-      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr">
         <is>
           <t>HD 148467</t>
@@ -23203,14 +23078,11 @@
       <c r="H456" t="n">
         <v>54.02733018732643</v>
       </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>GJ 9196 B, GJ 9196 A, GJ 225.2 B, GJ 225.2 A</t>
         </is>
       </c>
-      <c r="L456" t="inlineStr"/>
       <c r="M456" t="inlineStr">
         <is>
           <t>**</t>
@@ -23244,7 +23116,6 @@
       <c r="H457" t="n">
         <v>51.87483578869705</v>
       </c>
-      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr">
         <is>
           <t>HD  97233</t>
@@ -23293,7 +23164,6 @@
       <c r="H458" t="n">
         <v>59.77793988122362</v>
       </c>
-      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr">
         <is>
           <t>HD 229590</t>
@@ -23444,8 +23314,6 @@
       <c r="H461" t="n">
         <v>68.97624534092085</v>
       </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>GJ 334</t>
@@ -23502,7 +23370,6 @@
           <t>GJ 1120 B</t>
         </is>
       </c>
-      <c r="L462" t="inlineStr"/>
       <c r="M462" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -23536,8 +23403,6 @@
       <c r="H463" t="n">
         <v>72.89317383769793</v>
       </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>GJ 471</t>

--- a/results/combined_query.xlsx
+++ b/results/combined_query.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O229"/>
+  <dimension ref="A1:Q229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,11 +443,13 @@
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
-    <col width="33" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="23" customWidth="1" min="14" max="14"/>
+    <col width="33" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,30 +500,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Stellar Mass</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Luminosity</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Radius</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>HZ_limit [AU]</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mass</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>HD Number</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>GJ Number</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>HIP Number</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Object Type</t>
         </is>
@@ -558,22 +570,28 @@
         <v>4902.26513671875</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7375820308507361</v>
+        <v>0.7728912234306335</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7728912234306335</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0.3113968670368195</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7736012935638428</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5721758608710567</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>HD  10361</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>GJ 66 A</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -610,22 +628,28 @@
         <v>5044.240234375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7753998379907946</v>
+        <v>0.8484249711036682</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8484249711036682</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>0.3325381875038147</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7550486922264099</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5870980280739269</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>HD  10360</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>GJ 66 B</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -662,27 +686,33 @@
         <v>4542.21875</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6432362588330681</v>
+        <v>0.7477733492851257</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7477733492851257</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0.2356643229722977</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7839070558547974</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5056348773613398</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>HD 174080</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>GJ 727</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>HIP 92283</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -719,27 +749,33 @@
         <v>5773.3974609375</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9735205043684477</v>
+        <v>0.9937224984169006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9937224984169006</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>1.041857600212097</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.020186901092529</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.995960347986544</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>HD 165185</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>GJ 702.1</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>HIP 88694</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -776,27 +812,33 @@
         <v>6011.64892578125</v>
       </c>
       <c r="J6" t="n">
-        <v>1.039675936166653</v>
+        <v>1.07492733001709</v>
       </c>
       <c r="K6" t="n">
-        <v>1.07492733001709</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>1.576708555221558</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.157568454742432</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.206819059440148</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>HD  10647</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>GJ 3109</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>HIP 7978</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -833,27 +875,33 @@
         <v>5855.533203125</v>
       </c>
       <c r="J7" t="n">
-        <v>0.996232912060249</v>
+        <v>1.025861501693726</v>
       </c>
       <c r="K7" t="n">
-        <v>1.025861501693726</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>1.535464286804199</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.204053163528442</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.202827991031819</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>HD  39091</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>GJ 9189</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>HIP 26394</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -890,22 +938,28 @@
         <v>4049.166259765625</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5192881307121621</v>
+        <v>0.6487706303596497</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6487706303596497</v>
-      </c>
-      <c r="M8" t="inlineStr">
+        <v>0.1124817058444023</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6808800101280212</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3548736890674569</v>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>GJ 562</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>HIP 72237</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -942,27 +996,33 @@
         <v>6456.20458984375</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1660244038655</v>
+        <v>1.284034967422485</v>
       </c>
       <c r="K9" t="n">
-        <v>1.284034967422485</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>3.46063232421875</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.487077832221985</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.738547169630266</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>HD 134083</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>GJ 578</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>HIP 73996</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -999,27 +1059,33 @@
         <v>5481.9853515625</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8936148004762958</v>
+        <v>0.8909311294555664</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8909311294555664</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>0.7223982214927673</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9422658085823059</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8443424466388257</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>HD 102438</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>GJ 446</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>HIP 57507</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1056,22 +1122,28 @@
         <v>5166.0869140625</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8080769781457238</v>
+        <v>0.8663318753242493</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8663318753242493</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>0.4027978479862213</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.7922072410583496</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6419904456286731</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>HD 135599</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>HIP 74702</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -1108,27 +1180,33 @@
         <v>4897.2509765625</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7362519543134231</v>
+        <v>0.7978719472885132</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7978719472885132</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>0.3431615233421326</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8137521743774414</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6007955509418719</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>HD 189733, HD 189733A</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>GJ 4130</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>HIP 98505</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -1165,27 +1243,33 @@
         <v>6112.73828125</v>
       </c>
       <c r="J13" t="n">
-        <v>1.068025508914257</v>
+        <v>1.121958136558533</v>
       </c>
       <c r="K13" t="n">
-        <v>1.121958136558533</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>1.831276178359985</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.206538915634155</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.292238339404454</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>HD   4813</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>GJ 37</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>HIP 3909</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1222,27 +1306,33 @@
         <v>6030.94677734375</v>
       </c>
       <c r="J14" t="n">
-        <v>1.045073558460995</v>
+        <v>1.112859606742859</v>
       </c>
       <c r="K14" t="n">
-        <v>1.112859606742859</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>2.048261642456055</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.310870766639709</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.373802368816579</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>HD  84117</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>GJ 364.0, GJ 364</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>HIP 47592</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1279,27 +1369,33 @@
         <v>5872.43408203125</v>
       </c>
       <c r="J15" t="n">
-        <v>1.000918052000441</v>
+        <v>1.024470686912537</v>
       </c>
       <c r="K15" t="n">
-        <v>1.024470686912537</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>1.247146725654602</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.078866720199585</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.082870875413916</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>HD 130948, HD 130948A</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>GJ 564 A, GJ 564</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>HIP 72567</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -1336,27 +1432,33 @@
         <v>5192.06787109375</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8150687524600094</v>
+        <v>0.8178085088729858</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8178085088729858</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>0.4990285634994507</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8730607032775879</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.713562307085702</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>HD  53706</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>GJ 9223 B, GJ 264.1 B</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>HIP 34069</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1393,27 +1495,33 @@
         <v>5907.33349609375</v>
       </c>
       <c r="J17" t="n">
-        <v>1.010605840776899</v>
+        <v>1.086822867393494</v>
       </c>
       <c r="K17" t="n">
-        <v>1.086822867393494</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>2.830225467681885</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.674349904060364</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.627664978503662</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>HD  84737</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>GJ 368</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>HIP 48113</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1450,22 +1558,28 @@
         <v>5386.07861328125</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8675274465550287</v>
+        <v>0.9037054181098938</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9037054181098938</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>0.5541511178016663</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.8552996516227722</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7437168677340459</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>HD 131156A</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>GJ 566 A</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1502,27 +1616,33 @@
         <v>5656.337890625</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9413022091510781</v>
+        <v>0.942652702331543</v>
       </c>
       <c r="K19" t="n">
-        <v>0.942652702331543</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>0.9594628214836121</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.020010828971863</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9627823952113181</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>HD  76151</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>GJ 327</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>HIP 43726</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1559,27 +1679,33 @@
         <v>5763.5869140625</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9708137155859407</v>
+        <v>0.9863498210906982</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9863498210906982</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>1.610941290855408</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.273023962974548</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.239212380310908</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>HD  95128</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>GJ 407</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>HIP 53721</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1616,27 +1742,33 @@
         <v>5877.3779296875</v>
       </c>
       <c r="J21" t="n">
-        <v>1.002289330919634</v>
+        <v>1.026593208312988</v>
       </c>
       <c r="K21" t="n">
-        <v>1.026593208312988</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>1.254299879074097</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.080152988433838</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08563100711815</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>HD  78366</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>GJ 334.2</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>HIP 44897</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1673,27 +1805,33 @@
         <v>5723.8505859375</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9598628777135806</v>
+        <v>0.9714177250862122</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9714177250862122</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>1.012942671775818</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.023439407348633</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.985100930021556</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>HD 147513</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>GJ 9559, GJ 620.1 A</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>HIP 80337</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1730,27 +1868,33 @@
         <v>4901.7724609375</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7374513240514123</v>
+        <v>0.7671073079109192</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7671073079109192</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>0.3168478310108185</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.7804938554763794</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5771757962026102</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>HD 205390</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>GJ 833</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>HIP 106696</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1787,22 +1931,28 @@
         <v>4794.67236328125</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7091323763993183</v>
+        <v>0.8001447319984436</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8001447319984436</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>0.2996745407581329</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.7933292984962463</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5641440913846114</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>HD  38392</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>GJ 216 B</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -1839,27 +1989,33 @@
         <v>5579.611328125</v>
       </c>
       <c r="J25" t="n">
-        <v>0.920274126339156</v>
+        <v>0.9173334240913391</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9173334240913391</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>0.8502410650253296</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9868084788322449</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9106175844249375</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>HD 140538A, HD 140538</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>GJ 9527 A, GJ 9527, GJ 596.1</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>HIP 77052</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1896,27 +2052,33 @@
         <v>5300</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8441998357876085</v>
+        <v>0.8683677315711975</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8683677315711975</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>0.4705230593681335</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8290800452232361</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6887151826458496</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>HD  82443</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>GJ 9301 A, GJ 354.1 A, GJ 354.1</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>HIP 46843</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -1953,27 +2115,33 @@
         <v>5149.0927734375</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8035081189282751</v>
+        <v>0.8612580299377441</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8612580299377441</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>0.395486056804657</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.7902707457542419</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.6367223594541345</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>HD 116442</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>GJ 3781</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>HIP 65352</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2010,27 +2178,33 @@
         <v>4815.10498046875</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7145200500255405</v>
+        <v>0.7581689357757568</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7581689357757568</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>0.2875678837299347</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.7706615924835205</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5521140093869961</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>HD   5133</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>GJ 42.0, GJ 42</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>HIP 4148</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2067,27 +2241,33 @@
         <v>5185.3427734375</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8132581677110041</v>
+        <v>0.7998977303504944</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7998977303504944</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>0.3954252898693085</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.8145649433135986</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.635420746637157</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>HD 200968, HD 200968A</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>GJ 819 A</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>HIP 104239</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2124,27 +2304,33 @@
         <v>6044.92822265625</v>
       </c>
       <c r="J30" t="n">
-        <v>1.048988266022912</v>
+        <v>1.121850848197937</v>
       </c>
       <c r="K30" t="n">
-        <v>1.121850848197937</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>1.279635787010193</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.031344771385193</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.084893728978704</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>HD 125276</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>GJ 9476 A, GJ 542.1 A</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>HIP 69965</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2181,27 +2367,33 @@
         <v>5852.9267578125</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9955107364569</v>
+        <v>1.01095724105835</v>
       </c>
       <c r="K31" t="n">
-        <v>1.01095724105835</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>1.273106455802917</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.09736168384552</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.095438010189986</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>HD 190406</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>GJ 779</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>HIP 98819</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2238,27 +2430,33 @@
         <v>4905.689453125</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7384906071403999</v>
+        <v>0.8158699870109558</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8158699870109558</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>0.2803777158260345</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.7331227660179138</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5428405658901299</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>HD 217580</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>GJ 886</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>HIP 113718</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -2295,27 +2493,33 @@
         <v>5048.0380859375</v>
       </c>
       <c r="J33" t="n">
-        <v>0.776415418712721</v>
+        <v>0.8051782250404358</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8051782250404358</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>0.4165323078632355</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.843781590461731</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.6569448747840578</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>HD  23484</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>GJ 152</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>HIP 17439</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2352,27 +2556,33 @@
         <v>6319.24072265625</v>
       </c>
       <c r="J34" t="n">
-        <v>1.126591067145343</v>
+        <v>1.249621748924255</v>
       </c>
       <c r="K34" t="n">
-        <v>1.249621748924255</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>3.183506011962891</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.488642454147339</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.681686424468559</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>HD 120136</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>GJ 527 A, GJ 527</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>HIP 67275</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>RotV*</t>
         </is>
@@ -2409,27 +2619,33 @@
         <v>5714.29345703125</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9572320263347713</v>
+        <v>0.9671276807785034</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9671276807785034</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>1.527917861938477</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.261417269706726</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.210592061726183</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>HD  63077</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>GJ 288 A</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>HIP 37853</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2466,27 +2682,33 @@
         <v>5182.53125</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8125013884179021</v>
+        <v>0.8287235498428345</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8287235498428345</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>0.4597902595996857</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.8410874009132385</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.6852922382880139</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>HD 156274</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>GJ 666 A, GJ 666</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>HIP 84720</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2523,27 +2745,33 @@
         <v>4978.23486328125</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7577814008757</v>
+        <v>0.815798282623291</v>
       </c>
       <c r="K37" t="n">
-        <v>0.815798282623291</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>0.401447057723999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.8517675995826721</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6472364904330621</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>HD 192310</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>GJ 785</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>HIP 99825</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2580,27 +2808,33 @@
         <v>5300.3193359375</v>
       </c>
       <c r="J38" t="n">
-        <v>0.84428622389508</v>
+        <v>0.8360517621040344</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8360517621040344</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>0.5749337077140808</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.8991650938987732</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7612901202966128</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>HD  53143</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>GJ 260</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>HIP 33690</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2637,22 +2871,28 @@
         <v>3973.337158203125</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5009459376943831</v>
+        <v>0.6473017334938049</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6473017334938049</v>
-      </c>
-      <c r="M39" t="inlineStr">
+        <v>0.1138321161270142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.7120388746261597</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.3576581313676896</v>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>GJ 583</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>HIP 75201</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2689,27 +2929,33 @@
         <v>4666.703125</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6755656194159049</v>
+        <v>0.7448537349700928</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7448537349700928</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>0.2616010010242462</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.782414436340332</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.5300569940878928</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>HD 128165</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>GJ 556</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>HIP 71181</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2746,27 +2992,33 @@
         <v>4945.57958984375</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7490880918177296</v>
+        <v>0.8102591633796692</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8102591633796692</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>0.3077710270881653</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.755670964717865</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5676335364078119</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>HD 190404</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>GJ 778</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>HIP 98792</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2803,27 +3055,33 @@
         <v>3501.576416015625</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3924261308230206</v>
+        <v>0.577451765537262</v>
       </c>
       <c r="K42" t="n">
-        <v>0.577451765537262</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>0.0668027251958847</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.7026669979095459</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.2763652715430185</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>HD 209290</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>GJ 846</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>HIP 108782</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2860,27 +3118,33 @@
         <v>4986.0927734375</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7598756269138326</v>
+        <v>0.8275960087776184</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8275960087776184</v>
-      </c>
-      <c r="L43" t="inlineStr">
+        <v>0.3185525834560394</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.7564634084701538</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5763257810029581</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>HD 144628</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>GJ 613.0, GJ 613</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>HIP 79190</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2917,22 +3181,28 @@
         <v>3953.0791015625</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4960837822939008</v>
+        <v>0.6360238790512085</v>
       </c>
       <c r="K44" t="n">
-        <v>0.6360238790512085</v>
-      </c>
-      <c r="M44" t="inlineStr">
+        <v>0.1027137190103531</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6831396818161011</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.3399021597235783</v>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>GJ 3481</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>HIP 39826</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -2969,27 +3239,33 @@
         <v>4036.313720703125</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5161637574572947</v>
+        <v>0.6749641895294189</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6749641895294189</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>0.1357319355010986</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.7526888847351074</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3899548952986136</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>HD 221503</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>GJ 898</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>HIP 116215</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3026,27 +3302,33 @@
         <v>4859.28955078125</v>
       </c>
       <c r="J46" t="n">
-        <v>0.726195257035975</v>
+        <v>0.7615059018135071</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7615059018135071</v>
-      </c>
-      <c r="L46" t="inlineStr">
+        <v>0.3003031015396118</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.7731918096542358</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5630454294608969</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>HD   4628</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>GJ 33</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>HIP 3765</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3083,22 +3365,28 @@
         <v>5403.5</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8722586865489643</v>
+        <v>0.8449833393096924</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8449833393096924</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>0.4982837736606598</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.8552918434143066</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.704513047812323</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>HD 136923</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>HIP 75277</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3135,27 +3423,33 @@
         <v>4507.94970703125</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6343985365144126</v>
+        <v>0.7418277859687805</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7418277859687805</v>
-      </c>
-      <c r="L48" t="inlineStr">
+        <v>0.2141750752925873</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.7586798667907715</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.4826632012617254</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>HD  52919</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>GJ 1094</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>HIP 33955</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3192,27 +3486,33 @@
         <v>5472.486328125</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8910264869672118</v>
+        <v>0.8771740198135376</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8771740198135376</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>0.7500820755958557</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.9635329842567444</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8608575927352313</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>HD 194640</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>GJ 790</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>HIP 100925</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3249,27 +3549,33 @@
         <v>3655.815185546875</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4267575554599622</v>
+        <v>0.5964747071266174</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5964747071266174</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>0.07370609790086746</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6844504475593567</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2896143924754906</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>HD  23453</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>GJ 154</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>HIP 17609</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -3306,27 +3612,33 @@
         <v>5303.8095703125</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8452304918911117</v>
+        <v>0.8473617434501648</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8473617434501648</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>0.6376664638519287</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9459607601165771</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.801589050317244</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>HD 122742</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>GJ 538</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>HIP 68682</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -3363,27 +3675,33 @@
         <v>4669.3193359375</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6762486463047644</v>
+        <v>0.7452524304389954</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7452524304389954</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>0.2516967952251434</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.7666177749633789</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.5198688259037798</v>
+      </c>
+      <c r="N52" t="inlineStr">
         <is>
           <t>HD  82106</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>GJ 349</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>HIP 46580</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3420,27 +3738,33 @@
         <v>4910.1162109375</v>
       </c>
       <c r="J53" t="n">
-        <v>0.739665435069766</v>
+        <v>0.7915802597999573</v>
       </c>
       <c r="K53" t="n">
-        <v>0.7915802597999573</v>
-      </c>
-      <c r="L53" t="inlineStr">
+        <v>0.3497446179389954</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.8172106742858887</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6061540054243069</v>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>HD  94765</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>GJ 3633</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>HIP 53486</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -3477,27 +3801,33 @@
         <v>4560.30322265625</v>
       </c>
       <c r="J54" t="n">
-        <v>0.647911341448456</v>
+        <v>0.7392322421073914</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7392322421073914</v>
-      </c>
-      <c r="L54" t="inlineStr">
+        <v>0.2248930931091309</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.7631266117095947</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.4935962784069324</v>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>HD 209100</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>GJ 845 A, GJ 845</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>HIP 108870</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3534,22 +3864,28 @@
         <v>4814.08203125</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7142501446080038</v>
+        <v>0.7618128061294556</v>
       </c>
       <c r="K55" t="n">
-        <v>0.7618128061294556</v>
-      </c>
-      <c r="M55" t="inlineStr">
+        <v>0.2891556322574615</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.7729818224906921</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5536621937937586</v>
+      </c>
+      <c r="O55" t="inlineStr">
         <is>
           <t>GJ 9233, GJ 273.1</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>HIP 36357</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -3586,27 +3922,33 @@
         <v>6006.49951171875</v>
       </c>
       <c r="J56" t="n">
-        <v>1.038236729595905</v>
+        <v>1.077322363853455</v>
       </c>
       <c r="K56" t="n">
-        <v>1.077322363853455</v>
-      </c>
-      <c r="L56" t="inlineStr">
+        <v>1.741390943527222</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.218589782714844</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.268695250912808</v>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>HD  17051</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>GJ 108</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>HIP 12653</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3643,27 +3985,33 @@
         <v>5510.12353515625</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9012877896282165</v>
+        <v>0.8779153823852539</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8779153823852539</v>
-      </c>
-      <c r="L57" t="inlineStr">
+        <v>0.8789317011833191</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.028767466545105</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.92976684898637</v>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>HD 104304</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>GJ 454</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>HIP 58576</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3700,27 +4048,33 @@
         <v>5419.56201171875</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8766237076758366</v>
+        <v>0.9254339337348938</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9254339337348938</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>0.5897319316864014</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.8638186454772949</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.7657161913707778</v>
+      </c>
+      <c r="N58" t="inlineStr">
         <is>
           <t>HD 154345</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>GJ 651</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>HIP 83389</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3757,27 +4111,33 @@
         <v>5957.25732421875</v>
       </c>
       <c r="J59" t="n">
-        <v>1.024496507623904</v>
+        <v>1.059476852416992</v>
       </c>
       <c r="K59" t="n">
-        <v>1.059476852416992</v>
-      </c>
-      <c r="L59" t="inlineStr">
+        <v>1.376362442970276</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.101296782493591</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.131461669796906</v>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>HD 147584</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>GJ 624</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>HIP 80686</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -3814,27 +4174,33 @@
         <v>4876.5400390625</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7307623392694086</v>
+        <v>0.7660174965858459</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7660174965858459</v>
-      </c>
-      <c r="L60" t="inlineStr">
+        <v>0.3024266362190247</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.7704703211784363</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.5645706083812978</v>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>HD 115404A, HD 115404</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>GJ 505 A</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>HIP 64797</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3871,27 +4237,33 @@
         <v>5680.3359375</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9478934371763286</v>
+        <v>0.9464660882949829</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9464660882949829</v>
-      </c>
-      <c r="L61" t="inlineStr">
+        <v>1.043079495429993</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.054622173309326</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.002364912048391</v>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>HD 190771</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>GJ 9685, GJ 1249</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>HIP 98921</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3928,27 +4300,33 @@
         <v>5620.91015625</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9315842119064938</v>
+        <v>0.9188189506530762</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9188189506530762</v>
-      </c>
-      <c r="L62" t="inlineStr">
+        <v>1.054644823074341</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.082916498184204</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.011620500655654</v>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>HD 136352</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>GJ 582</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>HIP 75181</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3985,27 +4363,33 @@
         <v>5851.93701171875</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9952365298610171</v>
+        <v>1.024964570999146</v>
       </c>
       <c r="K63" t="n">
-        <v>1.024964570999146</v>
-      </c>
-      <c r="L63" t="inlineStr">
+        <v>1.148806214332581</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.042779445648193</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.040653352017929</v>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t>HD 206860</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>GJ 9751, GJ 836.7</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>HIP 107350</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -4042,27 +4426,33 @@
         <v>4818.72509765625</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7154753649510879</v>
+        <v>0.7937678098678589</v>
       </c>
       <c r="K64" t="n">
-        <v>0.7937678098678589</v>
-      </c>
-      <c r="L64" t="inlineStr">
+        <v>0.3369495570659637</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.8328620195388794</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.5975420937658502</v>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>HD 200560, HD 200560A</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>GJ 9717 A, GJ 816.1 A</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>HIP 103859</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -4099,27 +4489,33 @@
         <v>5002.33203125</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7642063965414149</v>
+        <v>0.798069953918457</v>
       </c>
       <c r="K65" t="n">
-        <v>0.798069953918457</v>
-      </c>
-      <c r="L65" t="inlineStr">
+        <v>0.4080899655818939</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.8505346775054932</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.651777364541207</v>
+      </c>
+      <c r="N65" t="inlineStr">
         <is>
           <t>HD  17925</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>GJ 117</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>HIP 13402</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -4156,27 +4552,33 @@
         <v>4899.6337890625</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7368839792371736</v>
+        <v>0.7693394422531128</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7693394422531128</v>
-      </c>
-      <c r="L66" t="inlineStr">
+        <v>0.3231841921806335</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.7889480590820312</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.5829785885942006</v>
+      </c>
+      <c r="N66" t="inlineStr">
         <is>
           <t>HD  30876</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>GJ 3317</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>HIP 22451</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4213,27 +4615,33 @@
         <v>4548.95166015625</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6449759140956788</v>
+        <v>0.7329116463661194</v>
       </c>
       <c r="K67" t="n">
-        <v>0.7329116463661194</v>
-      </c>
-      <c r="L67" t="inlineStr">
+        <v>0.2350498288869858</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.7805384993553162</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5048431869294563</v>
+      </c>
+      <c r="N67" t="inlineStr">
         <is>
           <t>HD  31560</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>GJ 2037</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>HIP 22907</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4270,22 +4678,28 @@
         <v>3826.126953125</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4659990390457468</v>
+        <v>0.6484059691429138</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6484059691429138</v>
-      </c>
-      <c r="L68" t="inlineStr">
+        <v>0.1075957864522934</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.7464951872825623</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.3488346184876286</v>
+      </c>
+      <c r="N68" t="inlineStr">
         <is>
           <t>HD 120036B</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>GJ 1177 B</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4322,27 +4736,33 @@
         <v>5468.59716796875</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8899670470098534</v>
+        <v>0.9512451887130737</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9512451887130737</v>
-      </c>
-      <c r="L69" t="inlineStr">
+        <v>0.5625982880592346</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.8356360793113708</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7457219727458343</v>
+      </c>
+      <c r="N69" t="inlineStr">
         <is>
           <t>HD 152391</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>GJ 641</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>HIP 82588</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4379,27 +4799,33 @@
         <v>4572.6220703125</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6511002740301798</v>
+        <v>0.7390746474266052</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7390746474266052</v>
-      </c>
-      <c r="L70" t="inlineStr">
+        <v>0.2220632135868073</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.7508496046066284</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.4902428279052143</v>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>HD  50281A, HD  50281</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>GJ 250 A</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>HIP 32984</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4436,27 +4862,33 @@
         <v>5930.7802734375</v>
       </c>
       <c r="J71" t="n">
-        <v>1.017124773432059</v>
+        <v>1.064713716506958</v>
       </c>
       <c r="K71" t="n">
-        <v>1.064713716506958</v>
-      </c>
-      <c r="L71" t="inlineStr">
+        <v>2.176653146743774</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.397444248199463</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.425282178664896</v>
+      </c>
+      <c r="N71" t="inlineStr">
         <is>
           <t>HD 115383</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>GJ 504</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>HIP 64792</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4493,27 +4925,33 @@
         <v>5590.91357421875</v>
       </c>
       <c r="J72" t="n">
-        <v>0.923367413850574</v>
+        <v>0.9699613451957703</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9699613451957703</v>
-      </c>
-      <c r="L72" t="inlineStr">
+        <v>1.893630504608154</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.466662645339966</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.358039129677351</v>
+      </c>
+      <c r="N72" t="inlineStr">
         <is>
           <t>HD 160691</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>GJ 691.0, GJ 691</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>HIP 86796</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4550,27 +4988,33 @@
         <v>3828.11669921875</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4664652678242168</v>
+        <v>0.6354238390922546</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6354238390922546</v>
-      </c>
-      <c r="L73" t="inlineStr">
+        <v>0.1007471531629562</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.7218945026397705</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.337536733730046</v>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>HD 217357</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>GJ 884</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>HIP 113576</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4607,27 +5051,33 @@
         <v>5367.16748046875</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8623954109611519</v>
+        <v>0.8476845622062683</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8476845622062683</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>0.6461469531059265</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.929655134677887</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.8039656045923307</v>
+      </c>
+      <c r="N74" t="inlineStr">
         <is>
           <t>HD   1237A, HD   1237</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>GJ 3021 A, GJ 3021</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>HIP 1292</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4664,27 +5114,33 @@
         <v>3560.908935546875</v>
       </c>
       <c r="J75" t="n">
-        <v>0.4054906574594056</v>
+        <v>0.5864518880844116</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5864518880844116</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>0.06956437975168228</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.692834734916687</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.2817787596252916</v>
+      </c>
+      <c r="N75" t="inlineStr">
         <is>
           <t>HD 176029</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>GJ 740</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>HIP 93101</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4721,27 +5177,33 @@
         <v>5455.029296875</v>
       </c>
       <c r="J76" t="n">
-        <v>0.8862723463010568</v>
+        <v>0.8660471439361572</v>
       </c>
       <c r="K76" t="n">
-        <v>0.8660471439361572</v>
-      </c>
-      <c r="L76" t="inlineStr">
+        <v>0.7891569137573242</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.9945215582847595</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8839147549436672</v>
+      </c>
+      <c r="N76" t="inlineStr">
         <is>
           <t>HD  82885</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>GJ 356 A</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>HIP 47080</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -4778,27 +5240,33 @@
         <v>5867</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9994112060004833</v>
+        <v>0.9656808972358704</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9656808972358704</v>
-      </c>
-      <c r="L77" t="inlineStr">
+        <v>0.9657677412033081</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.008117437362671</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.9532439609050276</v>
+      </c>
+      <c r="N77" t="inlineStr">
         <is>
           <t>HD  30495</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>GJ 177</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>HIP 22263</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -4835,27 +5303,33 @@
         <v>6195.4248046875</v>
       </c>
       <c r="J78" t="n">
-        <v>1.091361963331266</v>
+        <v>1.182631850242615</v>
       </c>
       <c r="K78" t="n">
-        <v>1.182631850242615</v>
-      </c>
-      <c r="L78" t="inlineStr">
+        <v>2.511733055114746</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.375652074813843</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.505459409320906</v>
+      </c>
+      <c r="N78" t="inlineStr">
         <is>
           <t>HD  69897</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>GJ 303</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>HIP 40843</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4892,27 +5366,33 @@
         <v>4570.5166015625</v>
       </c>
       <c r="J79" t="n">
-        <v>0.6505549926680649</v>
+        <v>0.7237683534622192</v>
       </c>
       <c r="K79" t="n">
-        <v>0.7237683534622192</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>0.2034180462360382</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.7193398475646973</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.4692495327587636</v>
+      </c>
+      <c r="N79" t="inlineStr">
         <is>
           <t>HD 188474</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>GJ 1246</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>HIP 98130</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4949,27 +5429,33 @@
         <v>5583.92919921875</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9214557035268692</v>
+        <v>0.9208506941795349</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9208506941795349</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>0.8472161889076233</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.983473539352417</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.9087563450217047</v>
+      </c>
+      <c r="N80" t="inlineStr">
         <is>
           <t>HD 126053</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>GJ 547</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>HIP 70319</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5006,27 +5492,33 @@
         <v>4398.775390625</v>
       </c>
       <c r="J81" t="n">
-        <v>0.6064401521139</v>
+        <v>0.6957222819328308</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6957222819328308</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>0.1498997062444687</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.6665953993797302</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.4053969177036246</v>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>HD     55</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>GJ 3</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>HIP 436</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5063,27 +5555,33 @@
         <v>4893.27099609375</v>
       </c>
       <c r="J82" t="n">
-        <v>0.735196492448506</v>
+        <v>0.7763200998306274</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7763200998306274</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>0.3035344779491425</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.7665683031082153</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5651511051805197</v>
+      </c>
+      <c r="N82" t="inlineStr">
         <is>
           <t>HD 130307</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>GJ 3867</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>HIP 72312</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -5120,27 +5618,33 @@
         <v>5630.64794921875</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9342538693472918</v>
+        <v>0.9695570468902588</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9695570468902588</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>0.784449577331543</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.9307870268821716</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8719394956070652</v>
+      </c>
+      <c r="N83" t="inlineStr">
         <is>
           <t>HD  20766</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>GJ 136</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>HIP 15330</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5177,27 +5681,33 @@
         <v>3917.27197265625</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4875301823383316</v>
+        <v>0.6109453439712524</v>
       </c>
       <c r="K84" t="n">
-        <v>0.6109453439712524</v>
-      </c>
-      <c r="L84" t="inlineStr">
+        <v>0.08590003103017807</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.6361759305000305</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.3110902458348693</v>
+      </c>
+      <c r="N84" t="inlineStr">
         <is>
           <t>HD 196877</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>GJ 798.0, GJ 798</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>HIP 102186</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5234,27 +5744,33 @@
         <v>5759.9775390625</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9698181821398825</v>
+        <v>0.9758573174476624</v>
       </c>
       <c r="K85" t="n">
-        <v>0.9758573174476624</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>1.359028935432434</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.170603513717651</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.138462607221296</v>
+      </c>
+      <c r="N85" t="inlineStr">
         <is>
           <t>HD  86728</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>GJ 376 A, GJ 376</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>HIP 49081</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5291,27 +5807,33 @@
         <v>5539.85107421875</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9094037104833571</v>
+        <v>0.9126808643341064</v>
       </c>
       <c r="K86" t="n">
-        <v>0.9126808643341064</v>
-      </c>
-      <c r="L86" t="inlineStr">
+        <v>0.7721790075302124</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.9540483355522156</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8699117846218861</v>
+      </c>
+      <c r="N86" t="inlineStr">
         <is>
           <t>HD 111395</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>GJ 486.1</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>HIP 62523</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -5348,22 +5870,28 @@
         <v>3877.171875</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4780138885641816</v>
+        <v>0.6560998558998108</v>
       </c>
       <c r="K87" t="n">
-        <v>0.6560998558998108</v>
-      </c>
-      <c r="M87" t="inlineStr">
+        <v>0.1237254440784454</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.7798703908920288</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.3736763353507406</v>
+      </c>
+      <c r="O87" t="inlineStr">
         <is>
           <t>GJ 156</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>HIP 18280</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5400,22 +5928,28 @@
         <v>4265.9111328125</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5728592439914709</v>
+        <v>0.6704689860343933</v>
       </c>
       <c r="K88" t="n">
-        <v>0.6704689860343933</v>
-      </c>
-      <c r="L88" t="inlineStr">
+        <v>0.1217036172747612</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.6386978030204773</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.3668865049789747</v>
+      </c>
+      <c r="N88" t="inlineStr">
         <is>
           <t>HD  35650</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>HIP 25283</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>RotV*</t>
         </is>
@@ -5452,27 +5986,33 @@
         <v>5525.083984375</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9053709159131575</v>
+        <v>0.9353604316711426</v>
       </c>
       <c r="K89" t="n">
-        <v>0.9353604316711426</v>
-      </c>
-      <c r="L89" t="inlineStr">
+        <v>0.6905009150505066</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.9071779251098633</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.823353957563741</v>
+      </c>
+      <c r="N89" t="inlineStr">
         <is>
           <t>HD  43162</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>GJ 3389</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>HIP 29568</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>Low-Mass*</t>
         </is>
@@ -5509,22 +6049,28 @@
         <v>3754.77587890625</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4493966424083907</v>
+        <v>0.5476111769676208</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5476111769676208</v>
-      </c>
-      <c r="M90" t="inlineStr">
+        <v>0.05286543443799019</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.5433851480484009</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.2448518357469422</v>
+      </c>
+      <c r="O90" t="inlineStr">
         <is>
           <t>GJ 9592, GJ 678.1 A</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="P90" t="inlineStr">
         <is>
           <t>HIP 85665</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5561,27 +6107,33 @@
         <v>3906.253173828125</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4849085892362057</v>
+        <v>0.6504907608032227</v>
       </c>
       <c r="K91" t="n">
-        <v>0.6504907608032227</v>
-      </c>
-      <c r="L91" t="inlineStr">
+        <v>0.1172263771295547</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.7471815347671509</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.363502540364228</v>
+      </c>
+      <c r="N91" t="inlineStr">
         <is>
           <t>HD 234078</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>GJ 532</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>HIP 67691</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5618,27 +6170,33 @@
         <v>4399.552734375</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6066381092079003</v>
+        <v>0.6827476024627686</v>
       </c>
       <c r="K92" t="n">
-        <v>0.6827476024627686</v>
-      </c>
-      <c r="L92" t="inlineStr">
+        <v>0.1537448167800903</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.6748756170272827</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4105523595956092</v>
+      </c>
+      <c r="N92" t="inlineStr">
         <is>
           <t>HD 219764</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>GJ 1283</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t>HIP 115123</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5675,27 +6233,33 @@
         <v>5361.130859375</v>
       </c>
       <c r="J93" t="n">
-        <v>0.8607580459119714</v>
+        <v>0.8681789040565491</v>
       </c>
       <c r="K93" t="n">
-        <v>0.8681789040565491</v>
-      </c>
-      <c r="L93" t="inlineStr">
+        <v>0.5940210223197937</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.8935460448265076</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7711251348650833</v>
+      </c>
+      <c r="N93" t="inlineStr">
         <is>
           <t>HD  69830</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>GJ 302</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>HIP 40693</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5732,27 +6296,33 @@
         <v>6182.60546875</v>
       </c>
       <c r="J94" t="n">
-        <v>1.087734608199785</v>
+        <v>1.228531837463379</v>
       </c>
       <c r="K94" t="n">
-        <v>1.228531837463379</v>
-      </c>
-      <c r="L94" t="inlineStr">
+        <v>3.054755926132202</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.523345708847046</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.661589786604982</v>
+      </c>
+      <c r="N94" t="inlineStr">
         <is>
           <t>HD 142860</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>GJ 603</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>HIP 78072</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5789,22 +6359,28 @@
         <v>3874.290771484375</v>
       </c>
       <c r="J95" t="n">
-        <v>0.477332765451022</v>
+        <v>0.6391977667808533</v>
       </c>
       <c r="K95" t="n">
-        <v>0.6391977667808533</v>
-      </c>
-      <c r="L95" t="inlineStr">
+        <v>0.1070997714996338</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.726391077041626</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.3476856539511022</v>
+      </c>
+      <c r="N95" t="inlineStr">
         <is>
           <t>HD  61606B</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>GJ 282 B</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="Q95" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5841,27 +6417,33 @@
         <v>6353.5322265625</v>
       </c>
       <c r="J96" t="n">
-        <v>1.136415088061892</v>
+        <v>1.315885066986084</v>
       </c>
       <c r="K96" t="n">
-        <v>1.315885066986084</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>4.049165725708008</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.660637617111206</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.892539575116346</v>
+      </c>
+      <c r="N96" t="inlineStr">
         <is>
           <t>HD  81997</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>GJ 348 A</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>HIP 46509</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -5898,27 +6480,33 @@
         <v>4884.119140625</v>
       </c>
       <c r="J97" t="n">
-        <v>0.73277044668238</v>
+        <v>0.7847796082496643</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7847796082496643</v>
-      </c>
-      <c r="L97" t="inlineStr">
+        <v>0.292246013879776</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.7550275921821594</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.5547859088459195</v>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>HD 220339</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>GJ 9824, GJ 894.5</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>HIP 115445</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5955,27 +6543,33 @@
         <v>6158.5341796875</v>
       </c>
       <c r="J98" t="n">
-        <v>1.080932890636799</v>
+        <v>1.14555549621582</v>
       </c>
       <c r="K98" t="n">
-        <v>1.14555549621582</v>
-      </c>
-      <c r="L98" t="inlineStr">
+        <v>2.046326637268066</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.25653064250946</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.362031573643957</v>
+      </c>
+      <c r="N98" t="inlineStr">
         <is>
           <t>HD  25457</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>GJ 159</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>HIP 18859</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
         <is>
           <t>TTauri*</t>
         </is>
@@ -6012,27 +6606,33 @@
         <v>3611.961181640625</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4168751365823411</v>
+        <v>0.6248056888580322</v>
       </c>
       <c r="K99" t="n">
-        <v>0.6248056888580322</v>
-      </c>
-      <c r="L99" t="inlineStr">
+        <v>0.09174777567386627</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.7714046835899353</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.32335031916434</v>
+      </c>
+      <c r="N99" t="inlineStr">
         <is>
           <t>HD  16157</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>GJ 103</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>HIP 11964</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6069,27 +6669,33 @@
         <v>5777.55419921875</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9746677528397467</v>
+        <v>0.9849059581756592</v>
       </c>
       <c r="K100" t="n">
-        <v>0.9849059581756592</v>
-      </c>
-      <c r="L100" t="inlineStr">
+        <v>1.516215682029724</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.228979587554932</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.201170644513681</v>
+      </c>
+      <c r="N100" t="inlineStr">
         <is>
           <t>HD  55575</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>GJ 1095</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>HIP 35136</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="Q100" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6126,27 +6732,33 @@
         <v>5950</v>
       </c>
       <c r="J101" t="n">
-        <v>1.02247482048117</v>
+        <v>1.009429216384888</v>
       </c>
       <c r="K101" t="n">
-        <v>1.009429216384888</v>
-      </c>
-      <c r="L101" t="inlineStr">
+        <v>1.769918084144592</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.311752438545227</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.283662784812412</v>
+      </c>
+      <c r="N101" t="inlineStr">
         <is>
           <t>HD 165499</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>GJ 9616, GJ 705.1</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>HIP 89042</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="Q101" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6183,27 +6795,33 @@
         <v>4851.40771484375</v>
       </c>
       <c r="J102" t="n">
-        <v>0.7241101678159159</v>
+        <v>0.7809653282165527</v>
       </c>
       <c r="K102" t="n">
-        <v>0.7809653282165527</v>
-      </c>
-      <c r="L102" t="inlineStr">
+        <v>0.3203310072422028</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.8012419939041138</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.5817337535565734</v>
+      </c>
+      <c r="N102" t="inlineStr">
         <is>
           <t>HD  74576</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>GJ 320</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="P102" t="inlineStr">
         <is>
           <t>HIP 42808</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
+      <c r="Q102" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6240,27 +6858,33 @@
         <v>5176.943359375</v>
       </c>
       <c r="J103" t="n">
-        <v>0.8109975767763309</v>
+        <v>0.8139665722846985</v>
       </c>
       <c r="K103" t="n">
-        <v>0.8139665722846985</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>0.4717261493206024</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.8537982702255249</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.6943419138994849</v>
+      </c>
+      <c r="N103" t="inlineStr">
         <is>
           <t>HD  37394</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>GJ 211</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>HIP 26779</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="Q103" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6297,22 +6921,28 @@
         <v>4823.173828125</v>
       </c>
       <c r="J104" t="n">
-        <v>0.7166496540082139</v>
+        <v>0.7652207016944885</v>
       </c>
       <c r="K104" t="n">
-        <v>0.7652207016944885</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>0.3053004741668701</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.7911849021911621</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.5686702166583887</v>
+      </c>
+      <c r="N104" t="inlineStr">
         <is>
           <t>HD  23356</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
+      <c r="P104" t="inlineStr">
         <is>
           <t>HIP 17420</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="Q104" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6349,27 +6979,33 @@
         <v>4759.7451171875</v>
       </c>
       <c r="J105" t="n">
-        <v>0.699940066173856</v>
+        <v>0.7698585391044617</v>
       </c>
       <c r="K105" t="n">
-        <v>0.7698585391044617</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>0.2430458962917328</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.7249824404716492</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.5088541061472982</v>
+      </c>
+      <c r="N105" t="inlineStr">
         <is>
           <t>HD   2025</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>GJ 18.0, GJ 18</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="P105" t="inlineStr">
         <is>
           <t>HIP 1936</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="Q105" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6406,27 +7042,33 @@
         <v>5004.880859375</v>
       </c>
       <c r="J106" t="n">
-        <v>0.764886472647331</v>
+        <v>0.7848258018493652</v>
       </c>
       <c r="K106" t="n">
-        <v>0.7848258018493652</v>
-      </c>
-      <c r="L106" t="inlineStr">
+        <v>0.36659836769104</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.8053073883056641</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.6176755823767829</v>
+      </c>
+      <c r="N106" t="inlineStr">
         <is>
           <t>HD 109200</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>GJ 472</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="P106" t="inlineStr">
         <is>
           <t>HIP 61291</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="Q106" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6463,27 +7105,33 @@
         <v>3869.18115234375</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4761256649076252</v>
+        <v>0.6645650267601013</v>
       </c>
       <c r="K107" t="n">
-        <v>0.6645650267601013</v>
-      </c>
-      <c r="L107" t="inlineStr">
+        <v>0.1323452442884445</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.8095040321350098</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.3865389938319128</v>
+      </c>
+      <c r="N107" t="inlineStr">
         <is>
           <t>HD  97101</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>GJ 414 A</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr">
+      <c r="P107" t="inlineStr">
         <is>
           <t>HIP 54646</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr">
+      <c r="Q107" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6520,27 +7168,33 @@
         <v>6455.56298828125</v>
       </c>
       <c r="J108" t="n">
-        <v>1.165838410890793</v>
+        <v>1.263893246650696</v>
       </c>
       <c r="K108" t="n">
-        <v>1.263893246650696</v>
-      </c>
-      <c r="L108" t="inlineStr">
+        <v>3.114909172058105</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.410952568054199</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.649485433113024</v>
+      </c>
+      <c r="N108" t="inlineStr">
         <is>
           <t>HD  43386</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>GJ 9207</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr">
+      <c r="P108" t="inlineStr">
         <is>
           <t>HIP 29800</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
+      <c r="Q108" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6577,22 +7231,28 @@
         <v>5197.39501953125</v>
       </c>
       <c r="J109" t="n">
-        <v>0.8165033557196054</v>
+        <v>0.8039765357971191</v>
       </c>
       <c r="K109" t="n">
-        <v>0.8039765357971191</v>
-      </c>
-      <c r="L109" t="inlineStr">
+        <v>0.434792697429657</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.8711339831352234</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.6658606028003545</v>
+      </c>
+      <c r="N109" t="inlineStr">
         <is>
           <t>HD  81997B</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>GJ 348 B</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
+      <c r="Q109" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6629,22 +7289,28 @@
         <v>3875.679931640625</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4776611335443953</v>
+        <v>0.6509712934494019</v>
       </c>
       <c r="K110" t="n">
-        <v>0.6509712934494019</v>
-      </c>
-      <c r="M110" t="inlineStr">
+        <v>0.1142766997218132</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.74996018409729</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.3591357328881782</v>
+      </c>
+      <c r="O110" t="inlineStr">
         <is>
           <t>GJ 14</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr">
+      <c r="P110" t="inlineStr">
         <is>
           <t>HIP 1368</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr">
+      <c r="Q110" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6681,22 +7347,28 @@
         <v>5028.89990234375</v>
       </c>
       <c r="J111" t="n">
-        <v>0.7712996965814076</v>
+        <v>0.7611455321311951</v>
       </c>
       <c r="K111" t="n">
-        <v>0.7611455321311951</v>
-      </c>
-      <c r="L111" t="inlineStr">
+        <v>0.2730047404766083</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.7512717247009277</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.5323753625945274</v>
+      </c>
+      <c r="N111" t="inlineStr">
         <is>
           <t>HD 130004</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr">
+      <c r="P111" t="inlineStr">
         <is>
           <t>HIP 72146</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="Q111" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6733,27 +7405,33 @@
         <v>4311.11572265625</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5842261834609058</v>
+        <v>0.6710611581802368</v>
       </c>
       <c r="K112" t="n">
-        <v>0.6710611581802368</v>
-      </c>
-      <c r="L112" t="inlineStr">
+        <v>0.1378070563077927</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.6654322743415833</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.3898459800930613</v>
+      </c>
+      <c r="N112" t="inlineStr">
         <is>
           <t>HD 154363</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>GJ 653</t>
         </is>
       </c>
-      <c r="N112" t="inlineStr">
+      <c r="P112" t="inlineStr">
         <is>
           <t>HIP 83591</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr">
+      <c r="Q112" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6790,17 +7468,23 @@
         <v>4334.82861328125</v>
       </c>
       <c r="J113" t="n">
-        <v>0.5902134685252555</v>
+        <v>0.6768389940261841</v>
       </c>
       <c r="K113" t="n">
-        <v>0.6768389940261841</v>
-      </c>
-      <c r="L113" t="inlineStr">
+        <v>0.1459556221961975</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.6773503422737122</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.4008956502470227</v>
+      </c>
+      <c r="N113" t="inlineStr">
         <is>
           <t>HD 152705</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr">
+      <c r="Q113" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6837,27 +7521,33 @@
         <v>5141.36181640625</v>
       </c>
       <c r="J114" t="n">
-        <v>0.8014308405911267</v>
+        <v>0.8262414336204529</v>
       </c>
       <c r="K114" t="n">
-        <v>0.8262414336204529</v>
-      </c>
-      <c r="L114" t="inlineStr">
+        <v>0.4266615808010101</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.8232706189155579</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.6616177699598432</v>
+      </c>
+      <c r="N114" t="inlineStr">
         <is>
           <t>HD 222335</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="O114" t="inlineStr">
         <is>
           <t>GJ 9833, GJ 902.1</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
+      <c r="P114" t="inlineStr">
         <is>
           <t>HIP 116763</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="Q114" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6894,22 +7584,28 @@
         <v>3739.438232421875</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4458578710064182</v>
+        <v>0.5746476054191589</v>
       </c>
       <c r="K115" t="n">
-        <v>0.5746476054191589</v>
-      </c>
-      <c r="M115" t="inlineStr">
+        <v>0.06467748433351517</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.6060306429862976</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.2709043299058037</v>
+      </c>
+      <c r="O115" t="inlineStr">
         <is>
           <t>GJ 519</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr">
+      <c r="P115" t="inlineStr">
         <is>
           <t>HIP 66459</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="Q115" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6946,27 +7642,33 @@
         <v>5405.125</v>
       </c>
       <c r="J116" t="n">
-        <v>0.872700168600182</v>
+        <v>0.8791604042053223</v>
       </c>
       <c r="K116" t="n">
-        <v>0.8791604042053223</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>0.6305158138275146</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.9054404497146606</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.7924233139780941</v>
+      </c>
+      <c r="N116" t="inlineStr">
         <is>
           <t>HD    166</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="O116" t="inlineStr">
         <is>
           <t>GJ 5</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr">
+      <c r="P116" t="inlineStr">
         <is>
           <t>HIP 544</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="Q116" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -7003,27 +7705,33 @@
         <v>5636.935546875</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9359782290199772</v>
+        <v>0.9699419736862183</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9699419736862183</v>
-      </c>
-      <c r="L117" t="inlineStr">
+        <v>0.7957682013511658</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.93532794713974</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.8778667018176319</v>
+      </c>
+      <c r="N117" t="inlineStr">
         <is>
           <t>HD  42807</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>GJ 230</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr">
+      <c r="P117" t="inlineStr">
         <is>
           <t>HIP 29525</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="Q117" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -7060,27 +7768,33 @@
         <v>5540.0791015625</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9094660023184997</v>
+        <v>0.9000962972640991</v>
       </c>
       <c r="K118" t="n">
-        <v>0.9000962972640991</v>
-      </c>
-      <c r="L118" t="inlineStr">
+        <v>0.8108887076377869</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.9774929881095886</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.8914373791737192</v>
+      </c>
+      <c r="N118" t="inlineStr">
         <is>
           <t>HD 140901</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="O118" t="inlineStr">
         <is>
           <t>GJ 599 A</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr">
+      <c r="P118" t="inlineStr">
         <is>
           <t>HIP 77358</t>
         </is>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7117,27 +7831,33 @@
         <v>4580.88330078125</v>
       </c>
       <c r="J119" t="n">
-        <v>0.6532407707549694</v>
+        <v>0.7528312206268311</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7528312206268311</v>
-      </c>
-      <c r="L119" t="inlineStr">
+        <v>0.2141500115394592</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.734702467918396</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.4812708459997871</v>
+      </c>
+      <c r="N119" t="inlineStr">
         <is>
           <t>HD  47752</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="O119" t="inlineStr">
         <is>
           <t>GJ 241</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr">
+      <c r="P119" t="inlineStr">
         <is>
           <t>HIP 32010</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr">
+      <c r="Q119" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7174,27 +7894,33 @@
         <v>5375.9287109375</v>
       </c>
       <c r="J120" t="n">
-        <v>0.8647725118024521</v>
+        <v>0.9028145670890808</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9028145670890808</v>
-      </c>
-      <c r="L120" t="inlineStr">
+        <v>0.5440536141395569</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.8504101037979126</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.7373461230625575</v>
+      </c>
+      <c r="N120" t="inlineStr">
         <is>
           <t>HD   9540</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="O120" t="inlineStr">
         <is>
           <t>GJ 59 A, GJ 59</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="P120" t="inlineStr">
         <is>
           <t>HIP 7235</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="Q120" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7231,27 +7957,33 @@
         <v>5311.3388671875</v>
       </c>
       <c r="J121" t="n">
-        <v>0.8472679785235679</v>
+        <v>0.858481228351593</v>
       </c>
       <c r="K121" t="n">
-        <v>0.858481228351593</v>
-      </c>
-      <c r="L121" t="inlineStr">
+        <v>0.5506013035774231</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.876447856426239</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.7445383394866517</v>
+      </c>
+      <c r="N121" t="inlineStr">
         <is>
           <t>HD  36435</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="O121" t="inlineStr">
         <is>
           <t>GJ 9180, GJ 204.1</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr">
+      <c r="P121" t="inlineStr">
         <is>
           <t>HIP 25544</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr">
+      <c r="Q121" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7288,27 +8020,33 @@
         <v>4759.7763671875</v>
       </c>
       <c r="J122" t="n">
-        <v>0.6999482807227838</v>
+        <v>0.779484748840332</v>
       </c>
       <c r="K122" t="n">
-        <v>0.779484748840332</v>
-      </c>
-      <c r="L122" t="inlineStr">
+        <v>0.303650438785553</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.8103532195091248</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.5687684369110932</v>
+      </c>
+      <c r="N122" t="inlineStr">
         <is>
           <t>HD 128311</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>GJ 3860</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
+      <c r="P122" t="inlineStr">
         <is>
           <t>HIP 71395</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
+      <c r="Q122" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -7345,27 +8083,33 @@
         <v>4576.8837890625</v>
       </c>
       <c r="J123" t="n">
-        <v>0.6522042977962527</v>
+        <v>0.7242029905319214</v>
       </c>
       <c r="K123" t="n">
-        <v>0.7242029905319214</v>
-      </c>
-      <c r="L123" t="inlineStr">
+        <v>0.2193269431591034</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.7447954416275024</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.4871307611595985</v>
+      </c>
+      <c r="N123" t="inlineStr">
         <is>
           <t>HD  82342</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>GJ 1126</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
+      <c r="P123" t="inlineStr">
         <is>
           <t>HIP 46626</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr">
+      <c r="Q123" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7402,22 +8146,28 @@
         <v>3905.4169921875</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4847098502936061</v>
+        <v>0.6421307921409607</v>
       </c>
       <c r="K124" t="n">
-        <v>0.6421307921409607</v>
-      </c>
-      <c r="L124" t="inlineStr">
+        <v>0.107005387544632</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.7143532633781433</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.3473005903212033</v>
+      </c>
+      <c r="N124" t="inlineStr">
         <is>
           <t>HD 116495A</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>GJ 509 A</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
+      <c r="Q124" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7454,27 +8204,33 @@
         <v>4465.0986328125</v>
       </c>
       <c r="J125" t="n">
-        <v>0.6233881461608447</v>
+        <v>0.7074069380760193</v>
       </c>
       <c r="K125" t="n">
-        <v>0.7074069380760193</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>0.187602236866951</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.7238188982009888</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.4524505383531872</v>
+      </c>
+      <c r="N125" t="inlineStr">
         <is>
           <t>HD  24916, HD  24916A</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>GJ 157 A</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
+      <c r="P125" t="inlineStr">
         <is>
           <t>HIP 18512</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr">
+      <c r="Q125" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -7511,27 +8267,33 @@
         <v>4791.33349609375</v>
       </c>
       <c r="J126" t="n">
-        <v>0.7082526857123198</v>
+        <v>0.7559018731117249</v>
       </c>
       <c r="K126" t="n">
-        <v>0.7559018731117249</v>
-      </c>
-      <c r="L126" t="inlineStr">
+        <v>0.2892640829086304</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.7805299162864685</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.5543427369462348</v>
+      </c>
+      <c r="N126" t="inlineStr">
         <is>
           <t>HD  35854</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="O126" t="inlineStr">
         <is>
           <t>GJ 1079</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
+      <c r="P126" t="inlineStr">
         <is>
           <t>HIP 25421</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr">
+      <c r="Q126" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7568,27 +8330,33 @@
         <v>4979.20751953125</v>
       </c>
       <c r="J127" t="n">
-        <v>0.7580405767103271</v>
+        <v>0.7994473576545715</v>
       </c>
       <c r="K127" t="n">
-        <v>0.7994473576545715</v>
-      </c>
-      <c r="L127" t="inlineStr">
+        <v>0.3337226212024689</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.7763184309005737</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.5900930498755719</v>
+      </c>
+      <c r="N127" t="inlineStr">
         <is>
           <t>HD 170657</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="O127" t="inlineStr">
         <is>
           <t>GJ 716</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
+      <c r="P127" t="inlineStr">
         <is>
           <t>HIP 90790</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr">
+      <c r="Q127" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7625,27 +8393,33 @@
         <v>5678.427734375</v>
       </c>
       <c r="J128" t="n">
-        <v>0.9473690830356934</v>
+        <v>0.9464266300201416</v>
       </c>
       <c r="K128" t="n">
-        <v>0.9464266300201416</v>
-      </c>
-      <c r="L128" t="inlineStr">
+        <v>1.106411576271057</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.086800456047058</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.032469030619013</v>
+      </c>
+      <c r="N128" t="inlineStr">
         <is>
           <t>HD 146233</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
+      <c r="O128" t="inlineStr">
         <is>
           <t>GJ 616</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
+      <c r="P128" t="inlineStr">
         <is>
           <t>HIP 79672</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr">
+      <c r="Q128" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7682,27 +8456,33 @@
         <v>5187.56640625</v>
       </c>
       <c r="J129" t="n">
-        <v>0.8138567717200232</v>
+        <v>0.8214001655578613</v>
       </c>
       <c r="K129" t="n">
-        <v>0.8214001655578613</v>
-      </c>
-      <c r="L129" t="inlineStr">
+        <v>0.4724082052707672</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.8509048223495483</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.6944404918701557</v>
+      </c>
+      <c r="N129" t="inlineStr">
         <is>
           <t>HD  41593</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="O129" t="inlineStr">
         <is>
           <t>GJ 227</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr">
+      <c r="P129" t="inlineStr">
         <is>
           <t>HIP 28954</t>
         </is>
       </c>
-      <c r="O129" t="inlineStr">
+      <c r="Q129" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7739,27 +8519,33 @@
         <v>5841.451171875</v>
       </c>
       <c r="J130" t="n">
-        <v>0.9923323065406011</v>
+        <v>1.028079748153687</v>
       </c>
       <c r="K130" t="n">
-        <v>1.028079748153687</v>
-      </c>
-      <c r="L130" t="inlineStr">
+        <v>1.091245770454407</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1.019992709159851</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.014921826742804</v>
+      </c>
+      <c r="N130" t="inlineStr">
         <is>
           <t>HD 110897</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
+      <c r="O130" t="inlineStr">
         <is>
           <t>GJ 484</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr">
+      <c r="P130" t="inlineStr">
         <is>
           <t>HIP 62207</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="Q130" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7796,27 +8582,33 @@
         <v>5225.1025390625</v>
       </c>
       <c r="J131" t="n">
-        <v>0.8239704499194507</v>
+        <v>0.8674441576004028</v>
       </c>
       <c r="K131" t="n">
-        <v>0.8674441576004028</v>
-      </c>
-      <c r="L131" t="inlineStr">
+        <v>0.362448513507843</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.7606188654899597</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.6070169803766138</v>
+      </c>
+      <c r="N131" t="inlineStr">
         <is>
           <t>HD 100623</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
+      <c r="O131" t="inlineStr">
         <is>
           <t>GJ 432 A</t>
         </is>
       </c>
-      <c r="N131" t="inlineStr">
+      <c r="P131" t="inlineStr">
         <is>
           <t>HIP 56452</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="Q131" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7853,27 +8645,33 @@
         <v>4336.9189453125</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5907420501983635</v>
+        <v>0.6726620197296143</v>
       </c>
       <c r="K132" t="n">
-        <v>0.6726620197296143</v>
-      </c>
-      <c r="L132" t="inlineStr">
+        <v>0.1404419541358948</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.669498085975647</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.3932234268112245</v>
+      </c>
+      <c r="N132" t="inlineStr">
         <is>
           <t>HD  25004</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
+      <c r="O132" t="inlineStr">
         <is>
           <t>GJ 1066</t>
         </is>
       </c>
-      <c r="N132" t="inlineStr">
+      <c r="P132" t="inlineStr">
         <is>
           <t>HIP 18450</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="Q132" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7910,27 +8708,33 @@
         <v>5686.7822265625</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9496651353609914</v>
+        <v>0.9505698680877686</v>
       </c>
       <c r="K133" t="n">
-        <v>0.9505698680877686</v>
-      </c>
-      <c r="L133" t="inlineStr">
+        <v>1.023410081863403</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1.042178988456726</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.9924709913666417</v>
+      </c>
+      <c r="N133" t="inlineStr">
         <is>
           <t>HD 142267</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
+      <c r="O133" t="inlineStr">
         <is>
           <t>GJ 3924</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr">
+      <c r="P133" t="inlineStr">
         <is>
           <t>HIP 77801</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr">
+      <c r="Q133" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -7967,27 +8771,33 @@
         <v>4655.4111328125</v>
       </c>
       <c r="J134" t="n">
-        <v>0.6726191850725097</v>
+        <v>0.7682517766952515</v>
       </c>
       <c r="K134" t="n">
-        <v>0.7682517766952515</v>
-      </c>
-      <c r="L134" t="inlineStr">
+        <v>0.249051496386528</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.7671632766723633</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.5174321665542455</v>
+      </c>
+      <c r="N134" t="inlineStr">
         <is>
           <t>HD 130992</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
+      <c r="O134" t="inlineStr">
         <is>
           <t>GJ 565</t>
         </is>
       </c>
-      <c r="N134" t="inlineStr">
+      <c r="P134" t="inlineStr">
         <is>
           <t>HIP 72688</t>
         </is>
       </c>
-      <c r="O134" t="inlineStr">
+      <c r="Q134" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8024,27 +8834,33 @@
         <v>4381.2255859375</v>
       </c>
       <c r="J135" t="n">
-        <v>0.6019753780006571</v>
+        <v>0.6819101572036743</v>
       </c>
       <c r="K135" t="n">
-        <v>0.6819101572036743</v>
-      </c>
-      <c r="L135" t="inlineStr">
+        <v>0.152802363038063</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.6784788966178894</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.4095512065527175</v>
+      </c>
+      <c r="N135" t="inlineStr">
         <is>
           <t>HD 156026</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
+      <c r="O135" t="inlineStr">
         <is>
           <t>GJ 664.0, GJ 664</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr">
+      <c r="P135" t="inlineStr">
         <is>
           <t>HIP 84478</t>
         </is>
       </c>
-      <c r="O135" t="inlineStr">
+      <c r="Q135" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -8081,22 +8897,28 @@
         <v>4991.23583984375</v>
       </c>
       <c r="J136" t="n">
-        <v>0.7612467978477094</v>
+        <v>0.8094933032989502</v>
       </c>
       <c r="K136" t="n">
-        <v>0.8094933032989502</v>
-      </c>
-      <c r="L136" t="inlineStr">
+        <v>0.3343425989151001</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.773272693157196</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.5902837537938951</v>
+      </c>
+      <c r="N136" t="inlineStr">
         <is>
           <t>HD 155886</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
+      <c r="O136" t="inlineStr">
         <is>
           <t>GJ 663 A</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr">
+      <c r="Q136" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8133,22 +8955,28 @@
         <v>4101.45458984375</v>
       </c>
       <c r="J137" t="n">
-        <v>0.5320621743319364</v>
+        <v>0.6586083769798279</v>
       </c>
       <c r="K137" t="n">
-        <v>0.6586083769798279</v>
-      </c>
-      <c r="L137" t="inlineStr">
+        <v>0.1235216408967972</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.6961553692817688</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.3713759475176701</v>
+      </c>
+      <c r="N137" t="inlineStr">
         <is>
           <t>HD 139763</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr">
+      <c r="P137" t="inlineStr">
         <is>
           <t>HIP 76779</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr">
+      <c r="Q137" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8185,27 +9013,33 @@
         <v>5538.9296875</v>
       </c>
       <c r="J138" t="n">
-        <v>0.9091520147028417</v>
+        <v>0.8899210095405579</v>
       </c>
       <c r="K138" t="n">
-        <v>0.8899210095405579</v>
-      </c>
-      <c r="L138" t="inlineStr">
+        <v>0.8712109923362732</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1.013588547706604</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.92406421288188</v>
+      </c>
+      <c r="N138" t="inlineStr">
         <is>
           <t>HD 102365</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="O138" t="inlineStr">
         <is>
           <t>GJ 442 A</t>
         </is>
       </c>
-      <c r="N138" t="inlineStr">
+      <c r="P138" t="inlineStr">
         <is>
           <t>HIP 57443</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr">
+      <c r="Q138" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8242,27 +9076,33 @@
         <v>5655.869140625</v>
       </c>
       <c r="J139" t="n">
-        <v>0.9411735322373083</v>
+        <v>1.037501573562622</v>
       </c>
       <c r="K139" t="n">
-        <v>1.037501573562622</v>
-      </c>
-      <c r="L139" t="inlineStr">
+        <v>2.450599670410156</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1.630358695983887</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.538731563058628</v>
+      </c>
+      <c r="N139" t="inlineStr">
         <is>
           <t>HD  32923</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
+      <c r="O139" t="inlineStr">
         <is>
           <t>GJ 188.0, GJ 188</t>
         </is>
       </c>
-      <c r="N139" t="inlineStr">
+      <c r="P139" t="inlineStr">
         <is>
           <t>HIP 23835</t>
         </is>
       </c>
-      <c r="O139" t="inlineStr">
+      <c r="Q139" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -8299,27 +9139,33 @@
         <v>5922</v>
       </c>
       <c r="J140" t="n">
-        <v>1.01468259603476</v>
+        <v>0.9956122040748596</v>
       </c>
       <c r="K140" t="n">
-        <v>0.9956122040748596</v>
-      </c>
-      <c r="L140" t="inlineStr">
+        <v>1.214828014373779</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1.085544347763062</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.065384763014069</v>
+      </c>
+      <c r="N140" t="inlineStr">
         <is>
           <t>HD 207129</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
+      <c r="O140" t="inlineStr">
         <is>
           <t>GJ 838</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr">
+      <c r="P140" t="inlineStr">
         <is>
           <t>HIP 107649</t>
         </is>
       </c>
-      <c r="O140" t="inlineStr">
+      <c r="Q140" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8356,27 +9202,33 @@
         <v>4546.19287109375</v>
       </c>
       <c r="J141" t="n">
-        <v>0.6442629668830264</v>
+        <v>0.7230852246284485</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7230852246284485</v>
-      </c>
-      <c r="L141" t="inlineStr">
+        <v>0.1851952970027924</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.6936838030815125</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.448165177399362</v>
+      </c>
+      <c r="N141" t="inlineStr">
         <is>
           <t>HD  35171</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
+      <c r="O141" t="inlineStr">
         <is>
           <t>GJ 201</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr">
+      <c r="P141" t="inlineStr">
         <is>
           <t>HIP 25220</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
+      <c r="Q141" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8413,27 +9265,33 @@
         <v>5394.31689453125</v>
       </c>
       <c r="J142" t="n">
-        <v>0.8697643543771953</v>
+        <v>0.8721115589141846</v>
       </c>
       <c r="K142" t="n">
-        <v>0.8721115589141846</v>
-      </c>
-      <c r="L142" t="inlineStr">
+        <v>0.6305987238883972</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.9092277884483337</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.7929775893542567</v>
+      </c>
+      <c r="N142" t="inlineStr">
         <is>
           <t>HD 101501</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>GJ 434</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
+      <c r="P142" t="inlineStr">
         <is>
           <t>HIP 56997</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8470,27 +9328,33 @@
         <v>6490.5</v>
       </c>
       <c r="J143" t="n">
-        <v>1.17598495820773</v>
+        <v>1.542897343635559</v>
       </c>
       <c r="K143" t="n">
-        <v>1.542897343635559</v>
-      </c>
-      <c r="L143" t="inlineStr">
+        <v>8.189033508300781</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2.315469980239868</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2.668808789207842</v>
+      </c>
+      <c r="N143" t="inlineStr">
         <is>
           <t>HD  68456</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
+      <c r="O143" t="inlineStr">
         <is>
           <t>GJ 9254, GJ 297.1</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr">
+      <c r="P143" t="inlineStr">
         <is>
           <t>HIP 39903</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
+      <c r="Q143" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -8527,27 +9391,33 @@
         <v>4372.12890625</v>
       </c>
       <c r="J144" t="n">
-        <v>0.5996644984105997</v>
+        <v>0.6929655075073242</v>
       </c>
       <c r="K144" t="n">
-        <v>0.6929655075073242</v>
-      </c>
-      <c r="L144" t="inlineStr">
+        <v>0.143118679523468</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.659397304058075</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.3964845415364991</v>
+      </c>
+      <c r="N144" t="inlineStr">
         <is>
           <t>HD 111261</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
+      <c r="O144" t="inlineStr">
         <is>
           <t>GJ 1164 A</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr">
+      <c r="P144" t="inlineStr">
         <is>
           <t>HIP 62472</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr">
+      <c r="Q144" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8584,27 +9454,33 @@
         <v>4235.400390625</v>
       </c>
       <c r="J145" t="n">
-        <v>0.5652229458935651</v>
+        <v>0.6654590368270874</v>
       </c>
       <c r="K145" t="n">
-        <v>0.6654590368270874</v>
-      </c>
-      <c r="L145" t="inlineStr">
+        <v>0.1331762373447418</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.6776435971260071</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.3841491589305061</v>
+      </c>
+      <c r="N145" t="inlineStr">
         <is>
           <t>HD 166348</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
+      <c r="O145" t="inlineStr">
         <is>
           <t>GJ 707</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
+      <c r="P145" t="inlineStr">
         <is>
           <t>HIP 89211</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr">
+      <c r="Q145" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8641,22 +9517,28 @@
         <v>5713</v>
       </c>
       <c r="J146" t="n">
-        <v>0.9568760555513165</v>
+        <v>0.8948212862014771</v>
       </c>
       <c r="K146" t="n">
-        <v>0.8948212862014771</v>
-      </c>
-      <c r="L146" t="inlineStr">
+        <v>1.030330419540405</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1.09350061416626</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.994194089490777</v>
+      </c>
+      <c r="N146" t="inlineStr">
         <is>
           <t>HD 157347</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr">
+      <c r="P146" t="inlineStr">
         <is>
           <t>HIP 85042</t>
         </is>
       </c>
-      <c r="O146" t="inlineStr">
+      <c r="Q146" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8693,22 +9575,28 @@
         <v>3844.5712890625</v>
       </c>
       <c r="J147" t="n">
-        <v>0.470327454866966</v>
+        <v>0.6284772753715515</v>
       </c>
       <c r="K147" t="n">
-        <v>0.6284772753715515</v>
-      </c>
-      <c r="L147" t="inlineStr">
+        <v>0.09494007378816605</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.6951326131820679</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.3275555433605735</v>
+      </c>
+      <c r="N147" t="inlineStr">
         <is>
           <t>HD  99279B</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>GJ 428 B</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr">
+      <c r="Q147" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8745,27 +9633,33 @@
         <v>3588.5205078125</v>
       </c>
       <c r="J148" t="n">
-        <v>0.4116317270135316</v>
+        <v>0.5671036243438721</v>
       </c>
       <c r="K148" t="n">
-        <v>0.5671036243438721</v>
-      </c>
-      <c r="L148" t="inlineStr">
+        <v>0.06162146478891373</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.6419081687927246</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.2650938556744512</v>
+      </c>
+      <c r="N148" t="inlineStr">
         <is>
           <t>HD 191849</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>GJ 784</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr">
+      <c r="P148" t="inlineStr">
         <is>
           <t>HIP 99701</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
+      <c r="Q148" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8802,27 +9696,33 @@
         <v>5092.744140625</v>
       </c>
       <c r="J149" t="n">
-        <v>0.7883847479607438</v>
+        <v>0.8127993941307068</v>
       </c>
       <c r="K149" t="n">
-        <v>0.8127993941307068</v>
-      </c>
-      <c r="L149" t="inlineStr">
+        <v>0.4628649055957794</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.873950719833374</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.690903355723043</v>
+      </c>
+      <c r="N149" t="inlineStr">
         <is>
           <t>HD  10476</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
+      <c r="O149" t="inlineStr">
         <is>
           <t>GJ 68.0, GJ 68</t>
         </is>
       </c>
-      <c r="N149" t="inlineStr">
+      <c r="P149" t="inlineStr">
         <is>
           <t>HIP 7981</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
+      <c r="Q149" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8859,27 +9759,33 @@
         <v>5001.6396484375</v>
       </c>
       <c r="J150" t="n">
-        <v>0.7640216714744062</v>
+        <v>0.8346534967422485</v>
       </c>
       <c r="K150" t="n">
-        <v>0.8346534967422485</v>
-      </c>
-      <c r="L150" t="inlineStr">
+        <v>0.4519504010677338</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.8954572081565857</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.6859333904534651</v>
+      </c>
+      <c r="N150" t="inlineStr">
         <is>
           <t>HD  52698</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
+      <c r="O150" t="inlineStr">
         <is>
           <t>GJ 259</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr">
+      <c r="P150" t="inlineStr">
         <is>
           <t>HIP 33817</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr">
+      <c r="Q150" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8916,27 +9822,33 @@
         <v>5975.6455078125</v>
       </c>
       <c r="J151" t="n">
-        <v>1.029622743674996</v>
+        <v>1.079639554023743</v>
       </c>
       <c r="K151" t="n">
-        <v>1.079639554023743</v>
-      </c>
-      <c r="L151" t="inlineStr">
+        <v>1.823572158813477</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1.259985208511353</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.300845229532487</v>
+      </c>
+      <c r="N151" t="inlineStr">
         <is>
           <t>HD  48682, HD  48682A</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
+      <c r="O151" t="inlineStr">
         <is>
           <t>GJ 245</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr">
+      <c r="P151" t="inlineStr">
         <is>
           <t>HIP 32480</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr">
+      <c r="Q151" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8973,27 +9885,33 @@
         <v>4545.7685546875</v>
       </c>
       <c r="J152" t="n">
-        <v>0.6441533276706544</v>
+        <v>0.7439993619918823</v>
       </c>
       <c r="K152" t="n">
-        <v>0.7439993619918823</v>
-      </c>
-      <c r="L152" t="inlineStr">
+        <v>0.2297816276550293</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.7728793621063232</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.4992153630924731</v>
+      </c>
+      <c r="N152" t="inlineStr">
         <is>
           <t>HD 124642</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
+      <c r="O152" t="inlineStr">
         <is>
           <t>GJ 3833</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr">
+      <c r="P152" t="inlineStr">
         <is>
           <t>HIP 69526</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr">
+      <c r="Q152" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9030,27 +9948,33 @@
         <v>5750.99169921875</v>
       </c>
       <c r="J153" t="n">
-        <v>0.9673404490442334</v>
+        <v>0.9829214215278625</v>
       </c>
       <c r="K153" t="n">
-        <v>0.9829214215278625</v>
-      </c>
-      <c r="L153" t="inlineStr">
+        <v>1.033801317214966</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1.024202108383179</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.9935004861810047</v>
+      </c>
+      <c r="N153" t="inlineStr">
         <is>
           <t>HD  25680</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
+      <c r="O153" t="inlineStr">
         <is>
           <t>GJ 160</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr">
+      <c r="P153" t="inlineStr">
         <is>
           <t>HIP 19076</t>
         </is>
       </c>
-      <c r="O153" t="inlineStr">
+      <c r="Q153" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -9087,27 +10011,33 @@
         <v>6281.17138671875</v>
       </c>
       <c r="J154" t="n">
-        <v>1.115720143617286</v>
+        <v>1.232632517814636</v>
       </c>
       <c r="K154" t="n">
-        <v>1.232632517814636</v>
-      </c>
-      <c r="L154" t="inlineStr">
+        <v>3.017009496688843</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1.466977834701538</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1.641035598739742</v>
+      </c>
+      <c r="N154" t="inlineStr">
         <is>
           <t>HD 210302</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
+      <c r="O154" t="inlineStr">
         <is>
           <t>GJ 9770, GJ 849.1</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr">
+      <c r="P154" t="inlineStr">
         <is>
           <t>HIP 109422</t>
         </is>
       </c>
-      <c r="O154" t="inlineStr">
+      <c r="Q154" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9144,27 +10074,33 @@
         <v>5886.45849609375</v>
       </c>
       <c r="J155" t="n">
-        <v>1.004808946584197</v>
+        <v>1.028008818626404</v>
       </c>
       <c r="K155" t="n">
-        <v>1.028008818626404</v>
-      </c>
-      <c r="L155" t="inlineStr">
+        <v>1.293548107147217</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1.093514919281006</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.101849528034464</v>
+      </c>
+      <c r="N155" t="inlineStr">
         <is>
           <t>HD  65907, HD  65907A</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
+      <c r="O155" t="inlineStr">
         <is>
           <t>GJ 294 A</t>
         </is>
       </c>
-      <c r="N155" t="inlineStr">
+      <c r="P155" t="inlineStr">
         <is>
           <t>HIP 38908</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr">
+      <c r="Q155" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9201,17 +10137,23 @@
         <v>4006.371826171875</v>
       </c>
       <c r="J156" t="n">
-        <v>0.5089093852174444</v>
+        <v>0.6415486335754395</v>
       </c>
       <c r="K156" t="n">
-        <v>0.6415486335754395</v>
-      </c>
-      <c r="M156" t="inlineStr">
+        <v>0.10798329859972</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.6824297308921814</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.3480742737248141</v>
+      </c>
+      <c r="O156" t="inlineStr">
         <is>
           <t>GJ 499 A</t>
         </is>
       </c>
-      <c r="O156" t="inlineStr">
+      <c r="Q156" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9248,27 +10190,33 @@
         <v>5708.916015625</v>
       </c>
       <c r="J157" t="n">
-        <v>0.9557522431020374</v>
+        <v>0.9898955821990967</v>
       </c>
       <c r="K157" t="n">
-        <v>0.9898955821990967</v>
-      </c>
-      <c r="L157" t="inlineStr">
+        <v>1.874461889266968</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1.39950430393219</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1.341318770160441</v>
+      </c>
+      <c r="N157" t="inlineStr">
         <is>
           <t>HD 143761</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
+      <c r="O157" t="inlineStr">
         <is>
           <t>GJ 9537, GJ 606.2</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr">
+      <c r="P157" t="inlineStr">
         <is>
           <t>HIP 78459</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr">
+      <c r="Q157" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9305,27 +10253,33 @@
         <v>4736.8271484375</v>
       </c>
       <c r="J158" t="n">
-        <v>0.6939206345929868</v>
+        <v>0.7842408418655396</v>
       </c>
       <c r="K158" t="n">
-        <v>0.7842408418655396</v>
-      </c>
-      <c r="L158" t="inlineStr">
+        <v>0.2702801823616028</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.7719487547874451</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.5371523821802898</v>
+      </c>
+      <c r="N158" t="inlineStr">
         <is>
           <t>HD 153557, HD 153557A</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
+      <c r="O158" t="inlineStr">
         <is>
           <t>GJ 649.1 A, GJ 649.1</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr">
+      <c r="P158" t="inlineStr">
         <is>
           <t>HIP 83020</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr">
+      <c r="Q158" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -9362,27 +10316,33 @@
         <v>4738.49658203125</v>
       </c>
       <c r="J159" t="n">
-        <v>0.694358779248494</v>
+        <v>0.7491788864135742</v>
       </c>
       <c r="K159" t="n">
-        <v>0.7491788864135742</v>
-      </c>
-      <c r="L159" t="inlineStr">
+        <v>0.2455167472362518</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.7352140545845032</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.5119163790024733</v>
+      </c>
+      <c r="N159" t="inlineStr">
         <is>
           <t>HD 153525</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr">
+      <c r="O159" t="inlineStr">
         <is>
           <t>GJ 649.1 C</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr">
+      <c r="P159" t="inlineStr">
         <is>
           <t>HIP 83006</t>
         </is>
       </c>
-      <c r="O159" t="inlineStr">
+      <c r="Q159" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -9419,27 +10379,33 @@
         <v>3987.56494140625</v>
       </c>
       <c r="J160" t="n">
-        <v>0.5043704951267544</v>
+        <v>0.6622315645217896</v>
       </c>
       <c r="K160" t="n">
-        <v>0.6622315645217896</v>
-      </c>
-      <c r="L160" t="inlineStr">
+        <v>0.1229352727532387</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.7342212796211243</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.3715592404725799</v>
+      </c>
+      <c r="N160" t="inlineStr">
         <is>
           <t>HD 191391</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr">
+      <c r="O160" t="inlineStr">
         <is>
           <t>GJ 782</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
+      <c r="P160" t="inlineStr">
         <is>
           <t>HIP 99385</t>
         </is>
       </c>
-      <c r="O160" t="inlineStr">
+      <c r="Q160" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9476,27 +10442,33 @@
         <v>5748.6181640625</v>
       </c>
       <c r="J161" t="n">
-        <v>0.9666861495633126</v>
+        <v>1.121078610420227</v>
       </c>
       <c r="K161" t="n">
-        <v>1.121078610420227</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>3.238964557647705</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1.814490079879761</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1.758803597618889</v>
+      </c>
+      <c r="N161" t="inlineStr">
         <is>
           <t>HD 142373</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr">
+      <c r="O161" t="inlineStr">
         <is>
           <t>GJ 602</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr">
+      <c r="P161" t="inlineStr">
         <is>
           <t>HIP 77760</t>
         </is>
       </c>
-      <c r="O161" t="inlineStr">
+      <c r="Q161" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9533,27 +10505,33 @@
         <v>6019.51513671875</v>
       </c>
       <c r="J162" t="n">
-        <v>1.041875339251043</v>
+        <v>1.126057386398315</v>
       </c>
       <c r="K162" t="n">
-        <v>1.126057386398315</v>
-      </c>
-      <c r="L162" t="inlineStr">
+        <v>2.836319208145142</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1.548423051834106</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1.617804230468108</v>
+      </c>
+      <c r="N162" t="inlineStr">
         <is>
           <t>HD 187691</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
+      <c r="O162" t="inlineStr">
         <is>
           <t>GJ 9671 A, GJ 768.1 A</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr">
+      <c r="P162" t="inlineStr">
         <is>
           <t>HIP 97675</t>
         </is>
       </c>
-      <c r="O162" t="inlineStr">
+      <c r="Q162" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9590,27 +10568,33 @@
         <v>5631.34033203125</v>
       </c>
       <c r="J163" t="n">
-        <v>0.9344437311386877</v>
+        <v>0.9239809513092041</v>
       </c>
       <c r="K163" t="n">
-        <v>0.9239809513092041</v>
-      </c>
-      <c r="L163" t="inlineStr">
+        <v>1.047884225845337</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1.075455188751221</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.007724769169883</v>
+      </c>
+      <c r="N163" t="inlineStr">
         <is>
           <t>HD 189567</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
+      <c r="O163" t="inlineStr">
         <is>
           <t>GJ 776</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr">
+      <c r="P163" t="inlineStr">
         <is>
           <t>HIP 98959</t>
         </is>
       </c>
-      <c r="O163" t="inlineStr">
+      <c r="Q163" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9647,27 +10631,33 @@
         <v>4130.81005859375</v>
       </c>
       <c r="J164" t="n">
-        <v>0.5392769977949724</v>
+        <v>0.6626129746437073</v>
       </c>
       <c r="K164" t="n">
-        <v>0.6626129746437073</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>0.1275685727596283</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.6973951458930969</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.3771107996215445</v>
+      </c>
+      <c r="N164" t="inlineStr">
         <is>
           <t>HD  20280</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr">
+      <c r="O164" t="inlineStr">
         <is>
           <t>GJ 131</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr">
+      <c r="P164" t="inlineStr">
         <is>
           <t>HIP 15095</t>
         </is>
       </c>
-      <c r="O164" t="inlineStr">
+      <c r="Q164" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9704,27 +10694,33 @@
         <v>6065.77783203125</v>
       </c>
       <c r="J165" t="n">
-        <v>1.054832541082761</v>
+        <v>1.095647215843201</v>
       </c>
       <c r="K165" t="n">
-        <v>1.095647215843201</v>
-      </c>
-      <c r="L165" t="inlineStr">
+        <v>1.815900087356567</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1.220193386077881</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.29066095355725</v>
+      </c>
+      <c r="N165" t="inlineStr">
         <is>
           <t>HD  35296</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
+      <c r="O165" t="inlineStr">
         <is>
           <t>GJ 202</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
+      <c r="P165" t="inlineStr">
         <is>
           <t>HIP 25278</t>
         </is>
       </c>
-      <c r="O165" t="inlineStr">
+      <c r="Q165" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -9761,27 +10757,33 @@
         <v>5630.060546875</v>
       </c>
       <c r="J166" t="n">
-        <v>0.9340927991708438</v>
+        <v>0.9294560551643372</v>
       </c>
       <c r="K166" t="n">
-        <v>0.9294560551643372</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>1.334693193435669</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1.2142174243927</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1.137392324340086</v>
+      </c>
+      <c r="N166" t="inlineStr">
         <is>
           <t>HD 157214</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
+      <c r="O166" t="inlineStr">
         <is>
           <t>GJ 672</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr">
+      <c r="P166" t="inlineStr">
         <is>
           <t>HIP 84862</t>
         </is>
       </c>
-      <c r="O166" t="inlineStr">
+      <c r="Q166" t="inlineStr">
         <is>
           <t>RGB*</t>
         </is>
@@ -9818,27 +10820,33 @@
         <v>5819.5</v>
       </c>
       <c r="J167" t="n">
-        <v>0.9862575518716946</v>
+        <v>0.9945963025093079</v>
       </c>
       <c r="K167" t="n">
-        <v>0.9945963025093079</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>1.280999779701233</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1.11332905292511</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1.10115689113116</v>
+      </c>
+      <c r="N167" t="inlineStr">
         <is>
           <t>HD  50692</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
+      <c r="O167" t="inlineStr">
         <is>
           <t>GJ 252</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr">
+      <c r="P167" t="inlineStr">
         <is>
           <t>HIP 33277</t>
         </is>
       </c>
-      <c r="O167" t="inlineStr">
+      <c r="Q167" t="inlineStr">
         <is>
           <t>Star</t>
         </is>
@@ -9875,27 +10883,33 @@
         <v>6274.99853515625</v>
       </c>
       <c r="J168" t="n">
-        <v>1.113960838468938</v>
+        <v>1.221406698226929</v>
       </c>
       <c r="K168" t="n">
-        <v>1.221406698226929</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>2.888048648834229</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1.437876105308533</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.606203600107296</v>
+      </c>
+      <c r="N168" t="inlineStr">
         <is>
           <t>HD 160915</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
+      <c r="O168" t="inlineStr">
         <is>
           <t>GJ 692</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr">
+      <c r="P168" t="inlineStr">
         <is>
           <t>HIP 86736</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr">
+      <c r="Q168" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9932,22 +10946,28 @@
         <v>3731.829833984375</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4441064515626991</v>
+        <v>0.5750225186347961</v>
       </c>
       <c r="K169" t="n">
-        <v>0.5750225186347961</v>
-      </c>
-      <c r="M169" t="inlineStr">
+        <v>0.06640145182609558</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.614186704158783</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.2745287811827843</v>
+      </c>
+      <c r="O169" t="inlineStr">
         <is>
           <t>GJ 96</t>
         </is>
       </c>
-      <c r="N169" t="inlineStr">
+      <c r="P169" t="inlineStr">
         <is>
           <t>HIP 11048</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr">
+      <c r="Q169" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9984,22 +11004,28 @@
         <v>5004.56201171875</v>
       </c>
       <c r="J170" t="n">
-        <v>0.7648013929557771</v>
+        <v>0.8309369683265686</v>
       </c>
       <c r="K170" t="n">
-        <v>0.8309369683265686</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>0.3271627128124237</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.7609192132949829</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.5835177850913412</v>
+      </c>
+      <c r="N170" t="inlineStr">
         <is>
           <t>HD 148653A</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr">
+      <c r="O170" t="inlineStr">
         <is>
           <t>GJ 627 A</t>
         </is>
       </c>
-      <c r="O170" t="inlineStr">
+      <c r="Q170" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10036,22 +11062,28 @@
         <v>4965.853515625</v>
       </c>
       <c r="J171" t="n">
-        <v>0.7544834509224037</v>
+        <v>0.8087957501411438</v>
       </c>
       <c r="K171" t="n">
-        <v>0.8087957501411438</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>0.2782862782478333</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.7127173542976379</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.5392168841682041</v>
+      </c>
+      <c r="N171" t="inlineStr">
         <is>
           <t>HD 148653B</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr">
+      <c r="O171" t="inlineStr">
         <is>
           <t>GJ 627 B</t>
         </is>
       </c>
-      <c r="O171" t="inlineStr">
+      <c r="Q171" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10088,27 +11120,33 @@
         <v>4463.10888671875</v>
       </c>
       <c r="J172" t="n">
-        <v>0.6228780160287065</v>
+        <v>0.7254488468170166</v>
       </c>
       <c r="K172" t="n">
-        <v>0.7254488468170166</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>0.1989193558692932</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.7459800243377686</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.4659316765008095</v>
+      </c>
+      <c r="N172" t="inlineStr">
         <is>
           <t>HD 216803</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr">
+      <c r="O172" t="inlineStr">
         <is>
           <t>GJ 879</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr">
+      <c r="P172" t="inlineStr">
         <is>
           <t>HIP 113283</t>
         </is>
       </c>
-      <c r="O172" t="inlineStr">
+      <c r="Q172" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -10145,27 +11183,33 @@
         <v>5647.2470703125</v>
       </c>
       <c r="J173" t="n">
-        <v>0.9388071457104683</v>
+        <v>0.9664596915245056</v>
       </c>
       <c r="K173" t="n">
-        <v>0.9664596915245056</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>0.8291489481925964</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.9512629508972168</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.895518914032519</v>
+      </c>
+      <c r="N173" t="inlineStr">
         <is>
           <t>HD  38858</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr">
+      <c r="O173" t="inlineStr">
         <is>
           <t>GJ 1085</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr">
+      <c r="P173" t="inlineStr">
         <is>
           <t>HIP 27435</t>
         </is>
       </c>
-      <c r="O173" t="inlineStr">
+      <c r="Q173" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10202,27 +11246,33 @@
         <v>6154.10986328125</v>
       </c>
       <c r="J174" t="n">
-        <v>1.079684053627904</v>
+        <v>1.208073019981384</v>
       </c>
       <c r="K174" t="n">
-        <v>1.208073019981384</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>2.854192018508911</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1.485901117324829</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1.609027503262311</v>
+      </c>
+      <c r="N174" t="inlineStr">
         <is>
           <t>HD  30652</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr">
+      <c r="O174" t="inlineStr">
         <is>
           <t>GJ 178</t>
         </is>
       </c>
-      <c r="N174" t="inlineStr">
+      <c r="P174" t="inlineStr">
         <is>
           <t>HIP 22449</t>
         </is>
       </c>
-      <c r="O174" t="inlineStr">
+      <c r="Q174" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10259,17 +11309,23 @@
         <v>7498.32861328125</v>
       </c>
       <c r="J175" t="n">
-        <v>1.494707919523945</v>
+        <v>1.658677220344543</v>
       </c>
       <c r="K175" t="n">
-        <v>1.658677220344543</v>
-      </c>
-      <c r="M175" t="inlineStr">
+        <v>9.63154125213623</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1.83889639377594</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2.75632845237826</v>
+      </c>
+      <c r="O175" t="inlineStr">
         <is>
           <t>GJ 331.0, GJ 331 A</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr">
+      <c r="Q175" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -10306,27 +11362,33 @@
         <v>5726.009765625</v>
       </c>
       <c r="J176" t="n">
-        <v>0.9604574067528986</v>
+        <v>0.9600480794906616</v>
       </c>
       <c r="K176" t="n">
-        <v>0.9600480794906616</v>
-      </c>
-      <c r="L176" t="inlineStr">
+        <v>1.266243457794189</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1.14342212677002</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.101255842293404</v>
+      </c>
+      <c r="N176" t="inlineStr">
         <is>
           <t>HD   4614, HD   4614A</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr">
+      <c r="O176" t="inlineStr">
         <is>
           <t>GJ 34 A</t>
         </is>
       </c>
-      <c r="N176" t="inlineStr">
+      <c r="P176" t="inlineStr">
         <is>
           <t>HIP 3821</t>
         </is>
       </c>
-      <c r="O176" t="inlineStr">
+      <c r="Q176" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10363,27 +11425,33 @@
         <v>6740.17919921875</v>
       </c>
       <c r="J177" t="n">
-        <v>1.249752465254396</v>
+        <v>1.384102463722229</v>
       </c>
       <c r="K177" t="n">
-        <v>1.384102463722229</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>4.551782608032227</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1.564594268798828</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1.960774041476414</v>
+      </c>
+      <c r="N177" t="inlineStr">
         <is>
           <t>HD 110379J, HD 110379</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr">
+      <c r="O177" t="inlineStr">
         <is>
           <t>GJ 482.0, GJ 482 A</t>
         </is>
       </c>
-      <c r="N177" t="inlineStr">
+      <c r="P177" t="inlineStr">
         <is>
           <t>HIP 61941</t>
         </is>
       </c>
-      <c r="O177" t="inlineStr">
+      <c r="Q177" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10420,27 +11488,33 @@
         <v>5002.04345703125</v>
       </c>
       <c r="J178" t="n">
-        <v>0.7641294052244588</v>
+        <v>0.811199426651001</v>
       </c>
       <c r="K178" t="n">
-        <v>0.811199426651001</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>0.3397067785263062</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.7761164307594299</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.594675128123477</v>
+      </c>
+      <c r="N178" t="inlineStr">
         <is>
           <t>HD  22049</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr">
+      <c r="O178" t="inlineStr">
         <is>
           <t>GJ 144.0, GJ 144</t>
         </is>
       </c>
-      <c r="N178" t="inlineStr">
+      <c r="P178" t="inlineStr">
         <is>
           <t>HIP 16537</t>
         </is>
       </c>
-      <c r="O178" t="inlineStr">
+      <c r="Q178" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -10477,27 +11551,33 @@
         <v>6000.88330078125</v>
       </c>
       <c r="J179" t="n">
-        <v>1.036667574232848</v>
+        <v>1.174166917800903</v>
       </c>
       <c r="K179" t="n">
-        <v>1.174166917800903</v>
-      </c>
-      <c r="L179" t="inlineStr">
+        <v>3.589373588562012</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1.752543449401855</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1.822108191467446</v>
+      </c>
+      <c r="N179" t="inlineStr">
         <is>
           <t>HD 102870</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr">
+      <c r="O179" t="inlineStr">
         <is>
           <t>GJ 449</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr">
+      <c r="P179" t="inlineStr">
         <is>
           <t>HIP 57757</t>
         </is>
       </c>
-      <c r="O179" t="inlineStr">
+      <c r="Q179" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10534,27 +11614,33 @@
         <v>6149.22314453125</v>
       </c>
       <c r="J180" t="n">
-        <v>1.078305166157659</v>
+        <v>1.171395897865295</v>
       </c>
       <c r="K180" t="n">
-        <v>1.171395897865295</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>2.432625293731689</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1.374164462089539</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1.485916706412441</v>
+      </c>
+      <c r="N180" t="inlineStr">
         <is>
           <t>HD  38393</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr">
+      <c r="O180" t="inlineStr">
         <is>
           <t>GJ 216 A</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr">
+      <c r="P180" t="inlineStr">
         <is>
           <t>HIP 27072</t>
         </is>
       </c>
-      <c r="O180" t="inlineStr">
+      <c r="Q180" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10591,27 +11677,33 @@
         <v>6887.40478515625</v>
       </c>
       <c r="J181" t="n">
-        <v>1.294484293108714</v>
+        <v>1.45422089099884</v>
       </c>
       <c r="K181" t="n">
-        <v>1.45422089099884</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>5.649169445037842</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1.669570803642273</v>
+      </c>
+      <c r="M181" t="n">
+        <v>2.166873442131474</v>
+      </c>
+      <c r="N181" t="inlineStr">
         <is>
           <t>HD  40136</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
+      <c r="O181" t="inlineStr">
         <is>
           <t>GJ 225</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr">
+      <c r="P181" t="inlineStr">
         <is>
           <t>HIP 28103</t>
         </is>
       </c>
-      <c r="O181" t="inlineStr">
+      <c r="Q181" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10648,27 +11740,33 @@
         <v>6316.10205078125</v>
       </c>
       <c r="J182" t="n">
-        <v>1.125693415489384</v>
+        <v>1.285441875457764</v>
       </c>
       <c r="K182" t="n">
-        <v>1.285441875457764</v>
-      </c>
-      <c r="L182" t="inlineStr">
+        <v>3.657918453216553</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1.59719705581665</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1.802995054772731</v>
+      </c>
+      <c r="N182" t="inlineStr">
         <is>
           <t>HD 210027</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr">
+      <c r="O182" t="inlineStr">
         <is>
           <t>GJ 848</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr">
+      <c r="P182" t="inlineStr">
         <is>
           <t>HIP 109176</t>
         </is>
       </c>
-      <c r="O182" t="inlineStr">
+      <c r="Q182" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -10705,27 +11803,33 @@
         <v>6080.85498046875</v>
       </c>
       <c r="J183" t="n">
-        <v>1.059063735259086</v>
+        <v>1.333184957504272</v>
       </c>
       <c r="K183" t="n">
-        <v>1.333184957504272</v>
-      </c>
-      <c r="L183" t="inlineStr">
+        <v>4.415325164794922</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1.893325090408325</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2.010619210342432</v>
+      </c>
+      <c r="N183" t="inlineStr">
         <is>
           <t>HD  20010, HD  20010A</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr">
+      <c r="O183" t="inlineStr">
         <is>
           <t>GJ 127 A</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr">
+      <c r="P183" t="inlineStr">
         <is>
           <t>HIP 14879</t>
         </is>
       </c>
-      <c r="O183" t="inlineStr">
+      <c r="Q183" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10762,27 +11866,33 @@
         <v>5873.73974609375</v>
       </c>
       <c r="J184" t="n">
-        <v>1.001280170479831</v>
+        <v>1.056732773780823</v>
       </c>
       <c r="K184" t="n">
-        <v>1.056732773780823</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>2.230599164962769</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1.442274332046509</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1.448080349351788</v>
+      </c>
+      <c r="N184" t="inlineStr">
         <is>
           <t>HD  19373</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr">
+      <c r="O184" t="inlineStr">
         <is>
           <t>GJ 124</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr">
+      <c r="P184" t="inlineStr">
         <is>
           <t>HIP 14632</t>
         </is>
       </c>
-      <c r="O184" t="inlineStr">
+      <c r="Q184" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10819,27 +11929,33 @@
         <v>6786.98974609375</v>
       </c>
       <c r="J185" t="n">
-        <v>1.263863628714412</v>
+        <v>1.434542298316956</v>
       </c>
       <c r="K185" t="n">
-        <v>1.434542298316956</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>5.450182437896729</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1.68848991394043</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2.13996675585769</v>
+      </c>
+      <c r="N185" t="inlineStr">
         <is>
           <t>HD  90589</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr">
+      <c r="O185" t="inlineStr">
         <is>
           <t>GJ 391</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr">
+      <c r="P185" t="inlineStr">
         <is>
           <t>HIP 50954</t>
         </is>
       </c>
-      <c r="O185" t="inlineStr">
+      <c r="Q185" t="inlineStr">
         <is>
           <t>Variable*</t>
         </is>
@@ -10876,27 +11992,33 @@
         <v>6135.7890625</v>
       </c>
       <c r="J186" t="n">
-        <v>1.074516984289045</v>
+        <v>1.3208087682724</v>
       </c>
       <c r="K186" t="n">
-        <v>1.3208087682724</v>
-      </c>
-      <c r="L186" t="inlineStr">
+        <v>4.214040756225586</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1.816527128219604</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1.957390541144086</v>
+      </c>
+      <c r="N186" t="inlineStr">
         <is>
           <t>HD 126660</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr">
+      <c r="O186" t="inlineStr">
         <is>
           <t>GJ 549 A</t>
         </is>
       </c>
-      <c r="N186" t="inlineStr">
+      <c r="P186" t="inlineStr">
         <is>
           <t>HIP 70497</t>
         </is>
       </c>
-      <c r="O186" t="inlineStr">
+      <c r="Q186" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10933,27 +12055,33 @@
         <v>6532.63330078125</v>
       </c>
       <c r="J187" t="n">
-        <v>1.188273867809945</v>
+        <v>1.505081295967102</v>
       </c>
       <c r="K187" t="n">
-        <v>1.505081295967102</v>
-      </c>
-      <c r="L187" t="inlineStr">
+        <v>7.258101940155029</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2.103240728378296</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2.506150767258359</v>
+      </c>
+      <c r="N187" t="inlineStr">
         <is>
           <t>HD  71243</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr">
+      <c r="O187" t="inlineStr">
         <is>
           <t>GJ 305</t>
         </is>
       </c>
-      <c r="N187" t="inlineStr">
+      <c r="P187" t="inlineStr">
         <is>
           <t>HIP 40702</t>
         </is>
       </c>
-      <c r="O187" t="inlineStr">
+      <c r="Q187" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10990,27 +12118,33 @@
         <v>6096.42431640625</v>
       </c>
       <c r="J188" t="n">
-        <v>1.063437536798161</v>
+        <v>1.256554961204529</v>
       </c>
       <c r="K188" t="n">
-        <v>1.256554961204529</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>3.408948659896851</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1.655236005783081</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1.764930139849207</v>
+      </c>
+      <c r="N188" t="inlineStr">
         <is>
           <t>HD   9826</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr">
+      <c r="O188" t="inlineStr">
         <is>
           <t>GJ 61</t>
         </is>
       </c>
-      <c r="N188" t="inlineStr">
+      <c r="P188" t="inlineStr">
         <is>
           <t>HIP 7513</t>
         </is>
       </c>
-      <c r="O188" t="inlineStr">
+      <c r="Q188" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11047,27 +12181,33 @@
         <v>6281.21923828125</v>
       </c>
       <c r="J189" t="n">
-        <v>1.115733785273886</v>
+        <v>1.188029289245605</v>
       </c>
       <c r="K189" t="n">
-        <v>1.188029289245605</v>
-      </c>
-      <c r="L189" t="inlineStr">
+        <v>2.340813636779785</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1.291966319084167</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1.4454789645096</v>
+      </c>
+      <c r="N189" t="inlineStr">
         <is>
           <t>HD  16895</t>
         </is>
       </c>
-      <c r="M189" t="inlineStr">
+      <c r="O189" t="inlineStr">
         <is>
           <t>GJ 107 A</t>
         </is>
       </c>
-      <c r="N189" t="inlineStr">
+      <c r="P189" t="inlineStr">
         <is>
           <t>HIP 12777</t>
         </is>
       </c>
-      <c r="O189" t="inlineStr">
+      <c r="Q189" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11104,22 +12244,28 @@
         <v>5204.63623046875</v>
       </c>
       <c r="J190" t="n">
-        <v>0.8184539609672898</v>
+        <v>0.8256458044052124</v>
       </c>
       <c r="K190" t="n">
-        <v>0.8256458044052124</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>0.5142145156860352</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.8819471001625061</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.7238379293240633</v>
+      </c>
+      <c r="N190" t="inlineStr">
         <is>
           <t>HD 165341A</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr">
+      <c r="O190" t="inlineStr">
         <is>
           <t>GJ 702 A</t>
         </is>
       </c>
-      <c r="O190" t="inlineStr">
+      <c r="Q190" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -11156,27 +12302,33 @@
         <v>6149.203125</v>
       </c>
       <c r="J191" t="n">
-        <v>1.078299518249336</v>
+        <v>1.270613551139832</v>
       </c>
       <c r="K191" t="n">
-        <v>1.270613551139832</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>3.553479909896851</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1.661388874053955</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1.795909061753194</v>
+      </c>
+      <c r="N191" t="inlineStr">
         <is>
           <t>HD 222368</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr">
+      <c r="O191" t="inlineStr">
         <is>
           <t>GJ 904</t>
         </is>
       </c>
-      <c r="N191" t="inlineStr">
+      <c r="P191" t="inlineStr">
         <is>
           <t>HIP 116771</t>
         </is>
       </c>
-      <c r="O191" t="inlineStr">
+      <c r="Q191" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11213,27 +12365,33 @@
         <v>5427.318359375</v>
       </c>
       <c r="J192" t="n">
-        <v>0.8787325910720616</v>
+        <v>0.8859955668449402</v>
       </c>
       <c r="K192" t="n">
-        <v>0.8859955668449402</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>0.6464073657989502</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.9096494913101196</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.8012996707898977</v>
+      </c>
+      <c r="N192" t="inlineStr">
         <is>
           <t>HD  20794</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr">
+      <c r="O192" t="inlineStr">
         <is>
           <t>GJ 139</t>
         </is>
       </c>
-      <c r="N192" t="inlineStr">
+      <c r="P192" t="inlineStr">
         <is>
           <t>HIP 15510</t>
         </is>
       </c>
-      <c r="O192" t="inlineStr">
+      <c r="Q192" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11270,27 +12428,33 @@
         <v>5857.8095703125</v>
       </c>
       <c r="J193" t="n">
-        <v>0.9968637111589076</v>
+        <v>1.012741327285767</v>
       </c>
       <c r="K193" t="n">
-        <v>1.012741327285767</v>
-      </c>
-      <c r="L193" t="inlineStr">
+        <v>1.287983536720276</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1.101874828338623</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1.101478744652165</v>
+      </c>
+      <c r="N193" t="inlineStr">
         <is>
           <t>HD   1581</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr">
+      <c r="O193" t="inlineStr">
         <is>
           <t>GJ 17</t>
         </is>
       </c>
-      <c r="N193" t="inlineStr">
+      <c r="P193" t="inlineStr">
         <is>
           <t>HIP 1599</t>
         </is>
       </c>
-      <c r="O193" t="inlineStr">
+      <c r="Q193" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11327,27 +12491,33 @@
         <v>6313.34619140625</v>
       </c>
       <c r="J194" t="n">
-        <v>1.12490545535689</v>
+        <v>1.461627006530762</v>
       </c>
       <c r="K194" t="n">
-        <v>1.461627006530762</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>6.523843765258789</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2.135023355484009</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2.40826496024605</v>
+      </c>
+      <c r="N194" t="inlineStr">
         <is>
           <t>HD 173667</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr">
+      <c r="O194" t="inlineStr">
         <is>
           <t>GJ 9635, GJ 725.2</t>
         </is>
       </c>
-      <c r="N194" t="inlineStr">
+      <c r="P194" t="inlineStr">
         <is>
           <t>HIP 92043</t>
         </is>
       </c>
-      <c r="O194" t="inlineStr">
+      <c r="Q194" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11384,27 +12554,33 @@
         <v>6092.66357421875</v>
       </c>
       <c r="J195" t="n">
-        <v>1.062380631707257</v>
+        <v>1.12365734577179</v>
       </c>
       <c r="K195" t="n">
-        <v>1.12365734577179</v>
-      </c>
-      <c r="L195" t="inlineStr">
+        <v>1.50760293006897</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1.102028608322144</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1.173991390601177</v>
+      </c>
+      <c r="N195" t="inlineStr">
         <is>
           <t>HD 203608</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr">
+      <c r="O195" t="inlineStr">
         <is>
           <t>GJ 827</t>
         </is>
       </c>
-      <c r="N195" t="inlineStr">
+      <c r="P195" t="inlineStr">
         <is>
           <t>HIP 105858</t>
         </is>
       </c>
-      <c r="O195" t="inlineStr">
+      <c r="Q195" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11441,27 +12617,33 @@
         <v>5899.00341796875</v>
       </c>
       <c r="J196" t="n">
-        <v>1.008291833963557</v>
+        <v>1.029361605644226</v>
       </c>
       <c r="K196" t="n">
-        <v>1.029361605644226</v>
-      </c>
-      <c r="L196" t="inlineStr">
+        <v>1.436209559440613</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1.147367477416992</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.160094953731864</v>
+      </c>
+      <c r="N196" t="inlineStr">
         <is>
           <t>HD 114710</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr">
+      <c r="O196" t="inlineStr">
         <is>
           <t>GJ 502</t>
         </is>
       </c>
-      <c r="N196" t="inlineStr">
+      <c r="P196" t="inlineStr">
         <is>
           <t>HIP 64394</t>
         </is>
       </c>
-      <c r="O196" t="inlineStr">
+      <c r="Q196" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11498,27 +12680,33 @@
         <v>5761.419921875</v>
       </c>
       <c r="J197" t="n">
-        <v>0.9702159981860177</v>
+        <v>0.9773491621017456</v>
       </c>
       <c r="K197" t="n">
-        <v>0.9773491621017456</v>
-      </c>
-      <c r="L197" t="inlineStr">
+        <v>1.247153520584106</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1.120541095733643</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1.090498335266172</v>
+      </c>
+      <c r="N197" t="inlineStr">
         <is>
           <t>HD 109358</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr">
+      <c r="O197" t="inlineStr">
         <is>
           <t>GJ 475</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr">
+      <c r="P197" t="inlineStr">
         <is>
           <t>HIP 61317</t>
         </is>
       </c>
-      <c r="O197" t="inlineStr">
+      <c r="Q197" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -11555,27 +12743,33 @@
         <v>6483.94873046875</v>
       </c>
       <c r="J198" t="n">
-        <v>1.174079374215899</v>
+        <v>1.405683279037476</v>
       </c>
       <c r="K198" t="n">
-        <v>1.405683279037476</v>
-      </c>
-      <c r="L198" t="inlineStr">
+        <v>5.364315509796143</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1.835376620292664</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2.16088247784436</v>
+      </c>
+      <c r="N198" t="inlineStr">
         <is>
           <t>HD  23754</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr">
+      <c r="O198" t="inlineStr">
         <is>
           <t>GJ 155</t>
         </is>
       </c>
-      <c r="N198" t="inlineStr">
+      <c r="P198" t="inlineStr">
         <is>
           <t>HIP 17651</t>
         </is>
       </c>
-      <c r="O198" t="inlineStr">
+      <c r="Q198" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11612,27 +12806,33 @@
         <v>5905.6396484375</v>
       </c>
       <c r="J199" t="n">
-        <v>1.01013522329916</v>
+        <v>1.129953265190125</v>
       </c>
       <c r="K199" t="n">
-        <v>1.129953265190125</v>
-      </c>
-      <c r="L199" t="inlineStr">
+        <v>3.161086082458496</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1.698428153991699</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1.720360514874806</v>
+      </c>
+      <c r="N199" t="inlineStr">
         <is>
           <t>HD  22484</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr">
+      <c r="O199" t="inlineStr">
         <is>
           <t>GJ 147</t>
         </is>
       </c>
-      <c r="N199" t="inlineStr">
+      <c r="P199" t="inlineStr">
         <is>
           <t>HIP 16852</t>
         </is>
       </c>
-      <c r="O199" t="inlineStr">
+      <c r="Q199" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11669,27 +12869,33 @@
         <v>6746.5283203125</v>
       </c>
       <c r="J200" t="n">
-        <v>1.251660670982273</v>
+        <v>1.416257262229919</v>
       </c>
       <c r="K200" t="n">
-        <v>1.416257262229919</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>5.173364639282227</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1.664821743965149</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2.089623928284274</v>
+      </c>
+      <c r="N200" t="inlineStr">
         <is>
           <t>HD 109085</t>
         </is>
       </c>
-      <c r="M200" t="inlineStr">
+      <c r="O200" t="inlineStr">
         <is>
           <t>GJ 9411, GJ 471.2</t>
         </is>
       </c>
-      <c r="N200" t="inlineStr">
+      <c r="P200" t="inlineStr">
         <is>
           <t>HIP 61174</t>
         </is>
       </c>
-      <c r="O200" t="inlineStr">
+      <c r="Q200" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11726,27 +12932,33 @@
         <v>5808.17919921875</v>
       </c>
       <c r="J201" t="n">
-        <v>0.9831272328830867</v>
+        <v>1.000099539756775</v>
       </c>
       <c r="K201" t="n">
-        <v>1.000099539756775</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>1.12616503238678</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1.048060297966003</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.033204783138058</v>
+      </c>
+      <c r="N201" t="inlineStr">
         <is>
           <t>HD  39587</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr">
+      <c r="O201" t="inlineStr">
         <is>
           <t>GJ 222</t>
         </is>
       </c>
-      <c r="N201" t="inlineStr">
+      <c r="P201" t="inlineStr">
         <is>
           <t>HIP 27913</t>
         </is>
       </c>
-      <c r="O201" t="inlineStr">
+      <c r="Q201" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -11783,27 +12995,33 @@
         <v>6255.47607421875</v>
       </c>
       <c r="J202" t="n">
-        <v>1.108402854769063</v>
+        <v>1.217058777809143</v>
       </c>
       <c r="K202" t="n">
-        <v>1.217058777809143</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>2.860877990722656</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1.440137505531311</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1.600597912373545</v>
+      </c>
+      <c r="N202" t="inlineStr">
         <is>
           <t>HD  17206</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr">
+      <c r="O202" t="inlineStr">
         <is>
           <t>GJ 111.0, GJ 111</t>
         </is>
       </c>
-      <c r="N202" t="inlineStr">
+      <c r="P202" t="inlineStr">
         <is>
           <t>HIP 12843</t>
         </is>
       </c>
-      <c r="O202" t="inlineStr">
+      <c r="Q202" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11840,27 +13058,33 @@
         <v>6578.4208984375</v>
       </c>
       <c r="J203" t="n">
-        <v>1.201697042363081</v>
+        <v>1.364394903182983</v>
       </c>
       <c r="K203" t="n">
-        <v>1.364394903182983</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>4.529631614685059</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1.638489365577698</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1.97441661431359</v>
+      </c>
+      <c r="N203" t="inlineStr">
         <is>
           <t>HD 185395</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr">
+      <c r="O203" t="inlineStr">
         <is>
           <t>GJ 765 A</t>
         </is>
       </c>
-      <c r="N203" t="inlineStr">
+      <c r="P203" t="inlineStr">
         <is>
           <t>HIP 96441</t>
         </is>
       </c>
-      <c r="O203" t="inlineStr">
+      <c r="Q203" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11897,27 +13121,33 @@
         <v>6596.69482421875</v>
       </c>
       <c r="J204" t="n">
-        <v>1.207075064288546</v>
+        <v>1.310580730438232</v>
       </c>
       <c r="K204" t="n">
-        <v>1.310580730438232</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>3.524461030960083</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1.43748664855957</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1.73973670070889</v>
+      </c>
+      <c r="N204" t="inlineStr">
         <is>
           <t>HD 139664</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr">
+      <c r="O204" t="inlineStr">
         <is>
           <t>GJ 594</t>
         </is>
       </c>
-      <c r="N204" t="inlineStr">
+      <c r="P204" t="inlineStr">
         <is>
           <t>HIP 76829</t>
         </is>
       </c>
-      <c r="O204" t="inlineStr">
+      <c r="Q204" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11954,27 +13184,33 @@
         <v>5761.53369140625</v>
       </c>
       <c r="J205" t="n">
-        <v>0.9702473775098263</v>
+        <v>0.9979292154312134</v>
       </c>
       <c r="K205" t="n">
-        <v>0.9979292154312134</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>1.810982704162598</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1.350657105445862</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1.314071795780078</v>
+      </c>
+      <c r="N205" t="inlineStr">
         <is>
           <t>HD  34411</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr">
+      <c r="O205" t="inlineStr">
         <is>
           <t>GJ 197</t>
         </is>
       </c>
-      <c r="N205" t="inlineStr">
+      <c r="P205" t="inlineStr">
         <is>
           <t>HIP 24813</t>
         </is>
       </c>
-      <c r="O205" t="inlineStr">
+      <c r="Q205" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12011,27 +13247,33 @@
         <v>6038.380859375</v>
       </c>
       <c r="J206" t="n">
-        <v>1.047154617291662</v>
+        <v>1.088836669921875</v>
       </c>
       <c r="K206" t="n">
-        <v>1.088836669921875</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>1.551730990409851</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1.138213515281677</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1.195181059364278</v>
+      </c>
+      <c r="N206" t="inlineStr">
         <is>
           <t>HD  33262</t>
         </is>
       </c>
-      <c r="M206" t="inlineStr">
+      <c r="O206" t="inlineStr">
         <is>
           <t>GJ 189</t>
         </is>
       </c>
-      <c r="N206" t="inlineStr">
+      <c r="P206" t="inlineStr">
         <is>
           <t>HIP 23693</t>
         </is>
       </c>
-      <c r="O206" t="inlineStr">
+      <c r="Q206" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12068,27 +13310,33 @@
         <v>6066.2041015625</v>
       </c>
       <c r="J207" t="n">
-        <v>1.054952109863792</v>
+        <v>1.095845222473145</v>
       </c>
       <c r="K207" t="n">
-        <v>1.095845222473145</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>1.687342047691345</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1.17602801322937</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1.244101889561333</v>
+      </c>
+      <c r="N207" t="inlineStr">
         <is>
           <t>HD  90839</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr">
+      <c r="O207" t="inlineStr">
         <is>
           <t>GJ 395</t>
         </is>
       </c>
-      <c r="N207" t="inlineStr">
+      <c r="P207" t="inlineStr">
         <is>
           <t>HIP 51459</t>
         </is>
       </c>
-      <c r="O207" t="inlineStr">
+      <c r="Q207" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12125,27 +13373,33 @@
         <v>6115.55126953125</v>
       </c>
       <c r="J208" t="n">
-        <v>1.068817128530559</v>
+        <v>1.254326224327087</v>
       </c>
       <c r="K208" t="n">
-        <v>1.254326224327087</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>3.376569032669067</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1.636940479278564</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1.754388111168342</v>
+      </c>
+      <c r="N208" t="inlineStr">
         <is>
           <t>HD    693</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr">
+      <c r="O208" t="inlineStr">
         <is>
           <t>GJ 10</t>
         </is>
       </c>
-      <c r="N208" t="inlineStr">
+      <c r="P208" t="inlineStr">
         <is>
           <t>HIP 910</t>
         </is>
       </c>
-      <c r="O208" t="inlineStr">
+      <c r="Q208" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12182,27 +13436,33 @@
         <v>4353.74365234375</v>
       </c>
       <c r="J209" t="n">
-        <v>0.595001119815691</v>
+        <v>0.6795274019241333</v>
       </c>
       <c r="K209" t="n">
-        <v>0.6795274019241333</v>
-      </c>
-      <c r="L209" t="inlineStr">
+        <v>0.1506889462471008</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.6822791695594788</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.40708813943119</v>
+      </c>
+      <c r="N209" t="inlineStr">
         <is>
           <t>HD 201091</t>
         </is>
       </c>
-      <c r="M209" t="inlineStr">
+      <c r="O209" t="inlineStr">
         <is>
           <t>GJ 820 A</t>
         </is>
       </c>
-      <c r="N209" t="inlineStr">
+      <c r="P209" t="inlineStr">
         <is>
           <t>HIP 104214</t>
         </is>
       </c>
-      <c r="O209" t="inlineStr">
+      <c r="Q209" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -12239,27 +13499,33 @@
         <v>6210.11181640625</v>
       </c>
       <c r="J210" t="n">
-        <v>1.095522210557797</v>
+        <v>1.230955839157104</v>
       </c>
       <c r="K210" t="n">
-        <v>1.230955839157104</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>3.065739870071411</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1.512642741203308</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1.661673426756672</v>
+      </c>
+      <c r="N210" t="inlineStr">
         <is>
           <t>HD 114837</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr">
+      <c r="O210" t="inlineStr">
         <is>
           <t>GJ 503</t>
         </is>
       </c>
-      <c r="N210" t="inlineStr">
+      <c r="P210" t="inlineStr">
         <is>
           <t>HIP 64583</t>
         </is>
       </c>
-      <c r="O210" t="inlineStr">
+      <c r="Q210" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12296,27 +13562,33 @@
         <v>5777.9345703125</v>
       </c>
       <c r="J211" t="n">
-        <v>0.9747727455584748</v>
+        <v>1.010113954544067</v>
       </c>
       <c r="K211" t="n">
-        <v>1.010113954544067</v>
-      </c>
-      <c r="L211" t="inlineStr">
+        <v>1.921733021736145</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1.383494257926941</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1.352260436818247</v>
+      </c>
+      <c r="N211" t="inlineStr">
         <is>
           <t>HD  10307</t>
         </is>
       </c>
-      <c r="M211" t="inlineStr">
+      <c r="O211" t="inlineStr">
         <is>
           <t>GJ 67 B, GJ 67 A, GJ 67</t>
         </is>
       </c>
-      <c r="N211" t="inlineStr">
+      <c r="P211" t="inlineStr">
         <is>
           <t>HIP 7918</t>
         </is>
       </c>
-      <c r="O211" t="inlineStr">
+      <c r="Q211" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -12353,27 +13625,33 @@
         <v>5980.53857421875</v>
       </c>
       <c r="J212" t="n">
-        <v>1.030987757297375</v>
+        <v>1.101891398429871</v>
       </c>
       <c r="K212" t="n">
-        <v>1.101891398429871</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>2.001729965209961</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1.31784975528717</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1.362483772527835</v>
+      </c>
+      <c r="N212" t="inlineStr">
         <is>
           <t>HD   7570</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr">
+      <c r="O212" t="inlineStr">
         <is>
           <t>GJ 55</t>
         </is>
       </c>
-      <c r="N212" t="inlineStr">
+      <c r="P212" t="inlineStr">
         <is>
           <t>HIP 5862</t>
         </is>
       </c>
-      <c r="O212" t="inlineStr">
+      <c r="Q212" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12410,22 +13688,28 @@
         <v>4997.0126953125</v>
       </c>
       <c r="J213" t="n">
-        <v>0.7627873932009167</v>
+        <v>0.8145808577537537</v>
       </c>
       <c r="K213" t="n">
-        <v>0.8145808577537537</v>
-      </c>
-      <c r="L213" t="inlineStr">
+        <v>0.3343909978866577</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.7715179920196533</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.5901542874686381</v>
+      </c>
+      <c r="N213" t="inlineStr">
         <is>
           <t>HD 155885</t>
         </is>
       </c>
-      <c r="M213" t="inlineStr">
+      <c r="O213" t="inlineStr">
         <is>
           <t>GJ 663 B</t>
         </is>
       </c>
-      <c r="O213" t="inlineStr">
+      <c r="Q213" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12462,27 +13746,33 @@
         <v>5495.93701171875</v>
       </c>
       <c r="J214" t="n">
-        <v>0.8974181798730571</v>
+        <v>0.8752386569976807</v>
       </c>
       <c r="K214" t="n">
-        <v>0.8752386569976807</v>
-      </c>
-      <c r="L214" t="inlineStr">
+        <v>0.8473567962646484</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1.01522171497345</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.9136928054565983</v>
+      </c>
+      <c r="N214" t="inlineStr">
         <is>
           <t>HD  43834</t>
         </is>
       </c>
-      <c r="M214" t="inlineStr">
+      <c r="O214" t="inlineStr">
         <is>
           <t>GJ 231</t>
         </is>
       </c>
-      <c r="N214" t="inlineStr">
+      <c r="P214" t="inlineStr">
         <is>
           <t>HIP 29271</t>
         </is>
       </c>
-      <c r="O214" t="inlineStr">
+      <c r="Q214" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12519,22 +13809,28 @@
         <v>6421.10205078125</v>
       </c>
       <c r="J215" t="n">
-        <v>1.155866908461284</v>
+        <v>1.239753842353821</v>
       </c>
       <c r="K215" t="n">
-        <v>1.239753842353821</v>
-      </c>
-      <c r="L215" t="inlineStr">
+        <v>2.710427522659302</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1.33031177520752</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1.541925043296003</v>
+      </c>
+      <c r="N215" t="inlineStr">
         <is>
           <t>HD  64379A</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr">
+      <c r="O215" t="inlineStr">
         <is>
           <t>GJ 292 A</t>
         </is>
       </c>
-      <c r="O215" t="inlineStr">
+      <c r="Q215" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12571,27 +13867,33 @@
         <v>5925.45263671875</v>
       </c>
       <c r="J216" t="n">
-        <v>1.015642782831399</v>
+        <v>1.053006649017334</v>
       </c>
       <c r="K216" t="n">
-        <v>1.053006649017334</v>
-      </c>
-      <c r="L216" t="inlineStr">
+        <v>2.019006729125977</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1.348439812660217</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1.37316423895905</v>
+      </c>
+      <c r="N216" t="inlineStr">
         <is>
           <t>HD 165908, HD 165908A</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr">
+      <c r="O216" t="inlineStr">
         <is>
           <t>GJ 704.0, GJ 704 A, GJ 704</t>
         </is>
       </c>
-      <c r="N216" t="inlineStr">
+      <c r="P216" t="inlineStr">
         <is>
           <t>HIP 88745</t>
         </is>
       </c>
-      <c r="O216" t="inlineStr">
+      <c r="Q216" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -12628,27 +13930,33 @@
         <v>5765.099609375</v>
       </c>
       <c r="J217" t="n">
-        <v>0.9712309955987463</v>
+        <v>0.9965256452560425</v>
       </c>
       <c r="K217" t="n">
-        <v>0.9965256452560425</v>
-      </c>
-      <c r="L217" t="inlineStr">
+        <v>0.9982225298881531</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1.001507878303528</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.9753899212963537</v>
+      </c>
+      <c r="N217" t="inlineStr">
         <is>
           <t>HD  20807</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr">
+      <c r="O217" t="inlineStr">
         <is>
           <t>GJ 138</t>
         </is>
       </c>
-      <c r="N217" t="inlineStr">
+      <c r="P217" t="inlineStr">
         <is>
           <t>HIP 15371</t>
         </is>
       </c>
-      <c r="O217" t="inlineStr">
+      <c r="Q217" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -12685,22 +13993,28 @@
         <v>5844.26416015625</v>
       </c>
       <c r="J218" t="n">
-        <v>0.9931112569935249</v>
+        <v>1.020724296569824</v>
       </c>
       <c r="K218" t="n">
-        <v>1.020724296569824</v>
-      </c>
-      <c r="L218" t="inlineStr">
+        <v>1.511979103088379</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1.199373006820679</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1.194446770097923</v>
+      </c>
+      <c r="N218" t="inlineStr">
         <is>
           <t>HD 176051A</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr">
+      <c r="O218" t="inlineStr">
         <is>
           <t>GJ 738 A</t>
         </is>
       </c>
-      <c r="O218" t="inlineStr">
+      <c r="Q218" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12737,27 +14051,33 @@
         <v>5780.66015625</v>
       </c>
       <c r="J219" t="n">
-        <v>0.9755251367702963</v>
+        <v>0.982096791267395</v>
       </c>
       <c r="K219" t="n">
-        <v>0.982096791267395</v>
-      </c>
-      <c r="L219" t="inlineStr">
+        <v>1.182158231735229</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1.083894491195679</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1.060417950169186</v>
+      </c>
+      <c r="N219" t="inlineStr">
         <is>
           <t>HD 211415</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr">
+      <c r="O219" t="inlineStr">
         <is>
           <t>GJ 853.0, GJ 853 A</t>
         </is>
       </c>
-      <c r="N219" t="inlineStr">
+      <c r="P219" t="inlineStr">
         <is>
           <t>HIP 110109</t>
         </is>
       </c>
-      <c r="O219" t="inlineStr">
+      <c r="Q219" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12794,27 +14114,33 @@
         <v>5662.52392578125</v>
       </c>
       <c r="J220" t="n">
-        <v>0.9430005870890629</v>
+        <v>0.9423887729644775</v>
       </c>
       <c r="K220" t="n">
-        <v>0.9423887729644775</v>
-      </c>
-      <c r="L220" t="inlineStr">
+        <v>1.373876333236694</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1.217865586280823</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.151652251633258</v>
+      </c>
+      <c r="N220" t="inlineStr">
         <is>
           <t>HD 217014</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr">
+      <c r="O220" t="inlineStr">
         <is>
           <t>GJ 882</t>
         </is>
       </c>
-      <c r="N220" t="inlineStr">
+      <c r="P220" t="inlineStr">
         <is>
           <t>HIP 113357</t>
         </is>
       </c>
-      <c r="O220" t="inlineStr">
+      <c r="Q220" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12851,27 +14177,33 @@
         <v>5690.85791015625</v>
       </c>
       <c r="J221" t="n">
-        <v>0.9507855565346123</v>
+        <v>0.9594608545303345</v>
       </c>
       <c r="K221" t="n">
-        <v>0.9594608545303345</v>
-      </c>
-      <c r="L221" t="inlineStr">
+        <v>1.521073460578918</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1.268716216087341</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1.209644799094051</v>
+      </c>
+      <c r="N221" t="inlineStr">
         <is>
           <t>HD  53705</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr">
+      <c r="O221" t="inlineStr">
         <is>
           <t>GJ 9223 A, GJ 264.1 A</t>
         </is>
       </c>
-      <c r="N221" t="inlineStr">
+      <c r="P221" t="inlineStr">
         <is>
           <t>HIP 34065</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr">
+      <c r="Q221" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12908,27 +14240,33 @@
         <v>5106.7001953125</v>
       </c>
       <c r="J222" t="n">
-        <v>0.7921266334506848</v>
+        <v>0.822171688079834</v>
       </c>
       <c r="K222" t="n">
-        <v>0.822171688079834</v>
-      </c>
-      <c r="L222" t="inlineStr">
+        <v>0.4633771181106567</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.8696262836456299</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.6907753962459398</v>
+      </c>
+      <c r="N222" t="inlineStr">
         <is>
           <t>HD 149661</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr">
+      <c r="O222" t="inlineStr">
         <is>
           <t>GJ 631</t>
         </is>
       </c>
-      <c r="N222" t="inlineStr">
+      <c r="P222" t="inlineStr">
         <is>
           <t>HIP 81300</t>
         </is>
       </c>
-      <c r="O222" t="inlineStr">
+      <c r="Q222" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -12965,27 +14303,33 @@
         <v>5693.85791015625</v>
       </c>
       <c r="J223" t="n">
-        <v>0.9516103973903031</v>
+        <v>0.9685804843902588</v>
       </c>
       <c r="K223" t="n">
-        <v>0.9685804843902588</v>
-      </c>
-      <c r="L223" t="inlineStr">
+        <v>0.9352704882621765</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.9938063025474548</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.9483534324859537</v>
+      </c>
+      <c r="N223" t="inlineStr">
         <is>
           <t>HD   4391</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr">
+      <c r="O223" t="inlineStr">
         <is>
           <t>GJ 1021</t>
         </is>
       </c>
-      <c r="N223" t="inlineStr">
+      <c r="P223" t="inlineStr">
         <is>
           <t>HIP 3583</t>
         </is>
       </c>
-      <c r="O223" t="inlineStr">
+      <c r="Q223" t="inlineStr">
         <is>
           <t>EclBin</t>
         </is>
@@ -13022,27 +14366,33 @@
         <v>5152.90771484375</v>
       </c>
       <c r="J224" t="n">
-        <v>0.8045334523811727</v>
+        <v>0.8639876842498779</v>
       </c>
       <c r="K224" t="n">
-        <v>0.8639876842498779</v>
-      </c>
-      <c r="L224" t="inlineStr">
+        <v>0.3953031003475189</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.7888962626457214</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.6364439531277868</v>
+      </c>
+      <c r="N224" t="inlineStr">
         <is>
           <t>HD  13445</t>
         </is>
       </c>
-      <c r="M224" t="inlineStr">
+      <c r="O224" t="inlineStr">
         <is>
           <t>GJ 86 A, GJ 86</t>
         </is>
       </c>
-      <c r="N224" t="inlineStr">
+      <c r="P224" t="inlineStr">
         <is>
           <t>HIP 10138</t>
         </is>
       </c>
-      <c r="O224" t="inlineStr">
+      <c r="Q224" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13079,27 +14429,33 @@
         <v>5304.38623046875</v>
       </c>
       <c r="J225" t="n">
-        <v>0.8453865180601439</v>
+        <v>0.8310837745666504</v>
       </c>
       <c r="K225" t="n">
-        <v>0.8310837745666504</v>
-      </c>
-      <c r="L225" t="inlineStr">
+        <v>0.5007089972496033</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.8784917593002319</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.7102862606804715</v>
+      </c>
+      <c r="N225" t="inlineStr">
         <is>
           <t>HD  21175</t>
         </is>
       </c>
-      <c r="M225" t="inlineStr">
+      <c r="O225" t="inlineStr">
         <is>
           <t>GJ 3222</t>
         </is>
       </c>
-      <c r="N225" t="inlineStr">
+      <c r="P225" t="inlineStr">
         <is>
           <t>HIP 15799</t>
         </is>
       </c>
-      <c r="O225" t="inlineStr">
+      <c r="Q225" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13136,27 +14492,33 @@
         <v>5015.69873046875</v>
       </c>
       <c r="J226" t="n">
-        <v>0.7677739081170361</v>
+        <v>0.8132048845291138</v>
       </c>
       <c r="K226" t="n">
-        <v>0.8132048845291138</v>
-      </c>
-      <c r="L226" t="inlineStr">
+        <v>0.4025899171829224</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.8402727842330933</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.6469304417883951</v>
+      </c>
+      <c r="N226" t="inlineStr">
         <is>
           <t>HD  67199</t>
         </is>
       </c>
-      <c r="M226" t="inlineStr">
+      <c r="O226" t="inlineStr">
         <is>
           <t>GJ 3476</t>
         </is>
       </c>
-      <c r="N226" t="inlineStr">
+      <c r="P226" t="inlineStr">
         <is>
           <t>HIP 39342</t>
         </is>
       </c>
-      <c r="O226" t="inlineStr">
+      <c r="Q226" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13193,27 +14555,33 @@
         <v>5230.24560546875</v>
       </c>
       <c r="J227" t="n">
-        <v>0.8253574882396136</v>
+        <v>0.8663821816444397</v>
       </c>
       <c r="K227" t="n">
-        <v>0.8663821816444397</v>
-      </c>
-      <c r="L227" t="inlineStr">
+        <v>0.4552578032016754</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.821747362613678</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.6801149249500454</v>
+      </c>
+      <c r="N227" t="inlineStr">
         <is>
           <t>HD   4747</t>
         </is>
       </c>
-      <c r="M227" t="inlineStr">
+      <c r="O227" t="inlineStr">
         <is>
           <t>GJ 36</t>
         </is>
       </c>
-      <c r="N227" t="inlineStr">
+      <c r="P227" t="inlineStr">
         <is>
           <t>HIP 3850</t>
         </is>
       </c>
-      <c r="O227" t="inlineStr">
+      <c r="Q227" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -13250,27 +14618,33 @@
         <v>3760.628173828125</v>
       </c>
       <c r="J228" t="n">
-        <v>0.4507497532701543</v>
+        <v>0.605965256690979</v>
       </c>
       <c r="K228" t="n">
-        <v>0.605965256690979</v>
-      </c>
-      <c r="L228" t="inlineStr">
+        <v>0.07937894016504288</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.6635169386863708</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.3000012275862821</v>
+      </c>
+      <c r="N228" t="inlineStr">
         <is>
           <t>HD 232979</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr">
+      <c r="O228" t="inlineStr">
         <is>
           <t>GJ 172</t>
         </is>
       </c>
-      <c r="N228" t="inlineStr">
+      <c r="P228" t="inlineStr">
         <is>
           <t>HIP 21553</t>
         </is>
       </c>
-      <c r="O228" t="inlineStr">
+      <c r="Q228" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -13307,27 +14681,33 @@
         <v>3831.62158203125</v>
       </c>
       <c r="J229" t="n">
-        <v>0.4672869380509658</v>
+        <v>0.6030226945877075</v>
       </c>
       <c r="K229" t="n">
-        <v>0.6030226945877075</v>
-      </c>
-      <c r="L229" t="inlineStr">
+        <v>0.08011328428983688</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.6422748565673828</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.3009721875311198</v>
+      </c>
+      <c r="N229" t="inlineStr">
         <is>
           <t>HD 184489</t>
         </is>
       </c>
-      <c r="M229" t="inlineStr">
+      <c r="O229" t="inlineStr">
         <is>
           <t>GJ 763</t>
         </is>
       </c>
-      <c r="N229" t="inlineStr">
+      <c r="P229" t="inlineStr">
         <is>
           <t>HIP 96285</t>
         </is>
       </c>
-      <c r="O229" t="inlineStr">
+      <c r="Q229" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>

--- a/results/combined_query.xlsx
+++ b/results/combined_query.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T228"/>
+  <dimension ref="A1:U228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,10 +449,11 @@
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="23" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="12" customWidth="1" min="19" max="19"/>
-    <col width="13" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="23" customWidth="1" min="18" max="18"/>
+    <col width="33" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="13" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,20 +539,25 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Spectral Type</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>HD Number</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>GJ Number</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>HIP Number</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Object Type</t>
         </is>
@@ -614,20 +620,25 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>HD 209290</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>GJ 846</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>HIP 108782</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -690,20 +701,25 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>HD 176029</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>GJ 740</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>HIP 93101</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -766,20 +782,25 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>HD 191849</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>GJ 784</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>HIP 99701</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -842,20 +863,25 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>HD  16157</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>GJ 103</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>HIP 11964</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -918,20 +944,25 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>HD  23453</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>GJ 154</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>HIP 17609</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -992,17 +1023,22 @@
       <c r="P7" t="n">
         <v>0.2745287811827843</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>GJ 96</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>HIP 11048</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1063,17 +1099,22 @@
       <c r="P8" t="n">
         <v>0.2709043299058037</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>GJ 519</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>HIP 66459</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1134,17 +1175,22 @@
       <c r="P9" t="n">
         <v>0.2448518357469422</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>GJ 9592, GJ 678.1 A</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>HIP 85665</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1202,20 +1248,25 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>HD 232979</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>GJ 172</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>HIP 21553</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -1278,15 +1329,20 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>HD 120036B</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>GJ 1177 B</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1349,20 +1405,25 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>HD 217357</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>GJ 884</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>HIP 113576</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1420,20 +1481,25 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>HD 184489</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>GJ 763</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>HIP 96285</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1496,15 +1562,20 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>HD  99279B</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>GJ 428 B</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1567,20 +1638,25 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>HD  97101</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>GJ 414 A</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>HIP 54646</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1643,15 +1719,20 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>HD  61606B</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>GJ 282 B</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1712,17 +1793,22 @@
       <c r="P17" t="n">
         <v>0.3591357328881782</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>GJ 14</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>HIP 1368</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1783,17 +1869,22 @@
       <c r="P18" t="n">
         <v>0.3736763353507406</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>GJ 156</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>HIP 18280</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1856,15 +1947,20 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
           <t>HD 116495A</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>GJ 509 A</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -1927,20 +2023,25 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
           <t>HD 234078</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>GJ 532</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>HIP 67691</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2003,20 +2104,25 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
           <t>HD 196877</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>GJ 798.0, GJ 798</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>HIP 102186</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2077,17 +2183,22 @@
       <c r="P22" t="n">
         <v>0.3399021597235783</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>GJ 3481</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>HIP 39826</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -2148,17 +2259,22 @@
       <c r="P23" t="n">
         <v>0.3576581313676896</v>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>GJ 583</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>HIP 75201</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2221,20 +2337,25 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>HD 191391</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>GJ 782</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>HIP 99385</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2295,12 +2416,17 @@
       <c r="P25" t="n">
         <v>0.3480742737248141</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>GJ 499 A</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2363,20 +2489,25 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>HD 221503</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>GJ 898</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>HIP 116215</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2437,17 +2568,22 @@
       <c r="P27" t="n">
         <v>0.354873689067457</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>GJ 562</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>HIP 72237</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2510,15 +2646,20 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>HD 139763</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>HIP 76779</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2581,20 +2722,25 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
           <t>HD  20280</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>GJ 131</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>HIP 15095</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2657,20 +2803,25 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
           <t>HD 166348</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>GJ 707</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>HIP 89211</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2733,15 +2884,20 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
           <t>HD  35650</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>HIP 25283</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>RotV*</t>
         </is>
@@ -2804,20 +2960,25 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>HD 154363</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>GJ 653</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>HIP 83591</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2880,10 +3041,15 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
           <t>HD 152705</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -2946,20 +3112,25 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
           <t>HD  25004</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>GJ 1066</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>HIP 18450</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3017,20 +3188,25 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
           <t>HD 201091</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>GJ 820 A</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>HIP 104214</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -3093,20 +3269,25 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>HD 111261</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>GJ 1164 A</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>HIP 62472</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3169,20 +3350,25 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
           <t>HD 156026</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>GJ 664.0, GJ 664</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>HIP 84478</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -3245,20 +3431,25 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>HD     55</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>GJ 3</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>HIP 436</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3321,20 +3512,25 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>HD 219764</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>GJ 1283</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>HIP 115123</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3397,20 +3593,25 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
           <t>HD 216803</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>GJ 879</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>HIP 113283</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -3473,20 +3674,25 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
           <t>HD  24916, HD  24916A</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>GJ 157 A</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>HIP 18512</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
@@ -3549,20 +3755,25 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
           <t>HD  52919</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>GJ 1094</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>HIP 33955</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3625,20 +3836,25 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
           <t>HD 174080</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>GJ 727</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>HIP 92283</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3701,20 +3917,25 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
           <t>HD 124642</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>GJ 3833</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>HIP 69526</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3777,20 +3998,25 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>HD  35171</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>GJ 201</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>HIP 25220</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3853,20 +4079,25 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
           <t>HD  31560</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>GJ 2037</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>HIP 22907</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -3929,20 +4160,25 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
           <t>HD 209100</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>GJ 845 A, GJ 845</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>HIP 108870</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4005,20 +4241,25 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
           <t>HD 188474</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>GJ 1246</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>HIP 98130</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4081,20 +4322,25 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
           <t>HD  50281A, HD  50281</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>GJ 250 A</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>HIP 32984</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4157,20 +4403,25 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>HD  82342</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>GJ 1126</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>HIP 46626</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4233,20 +4484,25 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>HD  47752</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>GJ 241</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>HIP 32010</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4309,20 +4565,25 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
           <t>HD 130992</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>GJ 565</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>HIP 72688</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4385,20 +4646,25 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
           <t>HD 128165</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>GJ 556</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>HIP 71181</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4461,20 +4727,25 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
           <t>HD  82106</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>GJ 349</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>HIP 46580</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4537,20 +4808,25 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
           <t>HD 153557, HD 153557A</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>GJ 649.1 A, GJ 649.1</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>HIP 83020</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -4613,20 +4889,25 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
           <t>HD 153525</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>GJ 649.1 C</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>HIP 83006</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -4689,20 +4970,25 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
           <t>HD   2025</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>GJ 18.0, GJ 18</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>HIP 1936</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4765,20 +5051,25 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
           <t>HD 128311</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>GJ 3860</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>HIP 71395</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -4841,20 +5132,25 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
           <t>HD  35854</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>GJ 1079</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>HIP 25421</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -4917,15 +5213,20 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
           <t>HD  38392</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>GJ 216 B</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -4986,17 +5287,22 @@
       <c r="P61" t="n">
         <v>0.5536621937937586</v>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
         <is>
           <t>GJ 9233, GJ 273.1</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>HIP 36357</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -5059,20 +5365,25 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
           <t>HD   5133</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>GJ 42.0, GJ 42</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>HIP 4148</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5135,20 +5446,25 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
           <t>HD 200560, HD 200560A</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>GJ 9717 A, GJ 816.1 A</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>HIP 103859</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -5211,15 +5527,20 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
           <t>HD  23356</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>HIP 17420</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5282,20 +5603,25 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
           <t>HD  74576</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>GJ 320</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>HIP 42808</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5358,20 +5684,25 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
           <t>HD   4628</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>GJ 33</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>HIP 3765</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5434,20 +5765,25 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
           <t>HD 115404A, HD 115404</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>GJ 505 A</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>HIP 64797</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5510,20 +5846,25 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
           <t>HD 220339</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>GJ 9824, GJ 894.5</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>HIP 115445</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5586,20 +5927,25 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>HD 130307</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>GJ 3867</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>HIP 72312</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -5662,20 +6008,25 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
           <t>HD 189733, HD 189733A</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>GJ 4130</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>HIP 98505</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -5738,20 +6089,25 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
           <t>HD  30876</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>GJ 3317</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>HIP 22451</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5814,20 +6170,25 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
           <t>HD 205390</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>GJ 833</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>HIP 106696</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5890,15 +6251,20 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
           <t>HD  10361</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>GJ 66 A</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -5961,20 +6327,25 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
           <t>HD 217580</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>GJ 886</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>HIP 113718</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -6037,20 +6408,25 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
           <t>HD  94765</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>GJ 3633</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>HIP 53486</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6113,20 +6489,25 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
           <t>HD 190404</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>GJ 778</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>HIP 98792</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6189,15 +6570,20 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
           <t>HD 148653B</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>GJ 627 B</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
+      <c r="U77" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6260,20 +6646,25 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
           <t>HD 192310</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>GJ 785</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>HIP 99825</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
+      <c r="U78" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6336,20 +6727,25 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
           <t>HD 170657</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>GJ 716</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>HIP 90790</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
+      <c r="U79" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6412,20 +6808,25 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
           <t>HD 144628</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>GJ 613.0, GJ 613</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>HIP 79190</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
+      <c r="U80" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6488,15 +6889,20 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
           <t>HD 155886</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>GJ 663 A</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
+      <c r="U81" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6554,15 +6960,20 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
           <t>HD 155885</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="S82" t="inlineStr">
         <is>
           <t>GJ 663 B</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr">
+      <c r="U82" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6625,20 +7036,25 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
           <t>HD  52698</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>GJ 259</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="T83" t="inlineStr">
         <is>
           <t>HIP 33817</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr">
+      <c r="U83" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6696,20 +7112,25 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
           <t>HD  22049</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>GJ 144.0, GJ 144</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="T84" t="inlineStr">
         <is>
           <t>HIP 16537</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="U84" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -6772,20 +7193,25 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
           <t>HD  17925</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>GJ 117</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="T85" t="inlineStr">
         <is>
           <t>HIP 13402</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
+      <c r="U85" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -6848,15 +7274,20 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
           <t>HD 148653A</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>GJ 627 A</t>
         </is>
       </c>
-      <c r="T86" t="inlineStr">
+      <c r="U86" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6919,20 +7350,25 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
           <t>HD 109200</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>GJ 472</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="T87" t="inlineStr">
         <is>
           <t>HIP 61291</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr">
+      <c r="U87" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -6990,20 +7426,25 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
           <t>HD  67199</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>GJ 3476</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>HIP 39342</t>
         </is>
       </c>
-      <c r="T88" t="inlineStr">
+      <c r="U88" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7061,15 +7502,20 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
           <t>HD 130004</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>HIP 72146</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr">
+      <c r="U89" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7132,15 +7578,20 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
           <t>HD  10360</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>GJ 66 B</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr">
+      <c r="U90" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7203,20 +7654,25 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
           <t>HD  23484</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>GJ 152</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="T91" t="inlineStr">
         <is>
           <t>HIP 17439</t>
         </is>
       </c>
-      <c r="T91" t="inlineStr">
+      <c r="U91" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7279,20 +7735,25 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
           <t>HD  10476</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>GJ 68.0, GJ 68</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="T92" t="inlineStr">
         <is>
           <t>HIP 7981</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr">
+      <c r="U92" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7350,20 +7811,25 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
           <t>HD 149661</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>GJ 631</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr">
+      <c r="T93" t="inlineStr">
         <is>
           <t>HIP 81300</t>
         </is>
       </c>
-      <c r="T93" t="inlineStr">
+      <c r="U93" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -7426,20 +7892,25 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
           <t>HD 222335</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>GJ 9833, GJ 902.1</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr">
+      <c r="T94" t="inlineStr">
         <is>
           <t>HIP 116763</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr">
+      <c r="U94" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7502,20 +7973,25 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
           <t>HD 116442</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>GJ 3781</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="T95" t="inlineStr">
         <is>
           <t>HIP 65352</t>
         </is>
       </c>
-      <c r="T95" t="inlineStr">
+      <c r="U95" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7573,20 +8049,25 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
           <t>HD  13445</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
+      <c r="S96" t="inlineStr">
         <is>
           <t>GJ 86 A, GJ 86</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr">
+      <c r="T96" t="inlineStr">
         <is>
           <t>HIP 10138</t>
         </is>
       </c>
-      <c r="T96" t="inlineStr">
+      <c r="U96" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7649,15 +8130,20 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
           <t>HD 135599</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="T97" t="inlineStr">
         <is>
           <t>HIP 74702</t>
         </is>
       </c>
-      <c r="T97" t="inlineStr">
+      <c r="U97" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -7720,20 +8206,25 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
           <t>HD  37394</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
+      <c r="S98" t="inlineStr">
         <is>
           <t>GJ 211</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr">
+      <c r="T98" t="inlineStr">
         <is>
           <t>HIP 26779</t>
         </is>
       </c>
-      <c r="T98" t="inlineStr">
+      <c r="U98" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -7796,20 +8287,25 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
           <t>HD 156274</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr">
+      <c r="S99" t="inlineStr">
         <is>
           <t>GJ 666 A, GJ 666</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr">
+      <c r="T99" t="inlineStr">
         <is>
           <t>HIP 84720</t>
         </is>
       </c>
-      <c r="T99" t="inlineStr">
+      <c r="U99" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7872,20 +8368,25 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
           <t>HD 200968, HD 200968A</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr">
+      <c r="S100" t="inlineStr">
         <is>
           <t>GJ 819 A</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="T100" t="inlineStr">
         <is>
           <t>HIP 104239</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
+      <c r="U100" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -7948,20 +8449,25 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
           <t>HD  41593</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
+      <c r="S101" t="inlineStr">
         <is>
           <t>GJ 227</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr">
+      <c r="T101" t="inlineStr">
         <is>
           <t>HIP 28954</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr">
+      <c r="U101" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8024,20 +8530,25 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
           <t>HD  53706</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr">
+      <c r="S102" t="inlineStr">
         <is>
           <t>GJ 9223 B, GJ 264.1 B</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr">
+      <c r="T102" t="inlineStr">
         <is>
           <t>HIP 34069</t>
         </is>
       </c>
-      <c r="T102" t="inlineStr">
+      <c r="U102" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8095,15 +8606,20 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
           <t>HD  81997B</t>
         </is>
       </c>
-      <c r="R103" t="inlineStr">
+      <c r="S103" t="inlineStr">
         <is>
           <t>GJ 348 B</t>
         </is>
       </c>
-      <c r="T103" t="inlineStr">
+      <c r="U103" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8161,15 +8677,20 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
           <t>HD 165341A</t>
         </is>
       </c>
-      <c r="R104" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>GJ 702 A</t>
         </is>
       </c>
-      <c r="T104" t="inlineStr">
+      <c r="U104" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -8232,20 +8753,25 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
           <t>HD 100623</t>
         </is>
       </c>
-      <c r="R105" t="inlineStr">
+      <c r="S105" t="inlineStr">
         <is>
           <t>GJ 432 A</t>
         </is>
       </c>
-      <c r="S105" t="inlineStr">
+      <c r="T105" t="inlineStr">
         <is>
           <t>HIP 56452</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr">
+      <c r="U105" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8303,20 +8829,25 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
           <t>HD   4747</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr">
+      <c r="S106" t="inlineStr">
         <is>
           <t>GJ 36</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr">
+      <c r="T106" t="inlineStr">
         <is>
           <t>HIP 3850</t>
         </is>
       </c>
-      <c r="T106" t="inlineStr">
+      <c r="U106" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -8374,20 +8905,25 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
           <t>HD  82443</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr">
+      <c r="S107" t="inlineStr">
         <is>
           <t>GJ 9301 A, GJ 354.1 A, GJ 354.1</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr">
+      <c r="T107" t="inlineStr">
         <is>
           <t>HIP 46843</t>
         </is>
       </c>
-      <c r="T107" t="inlineStr">
+      <c r="U107" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -8450,20 +8986,25 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
           <t>HD  53143</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr">
+      <c r="S108" t="inlineStr">
         <is>
           <t>GJ 260</t>
         </is>
       </c>
-      <c r="S108" t="inlineStr">
+      <c r="T108" t="inlineStr">
         <is>
           <t>HIP 33690</t>
         </is>
       </c>
-      <c r="T108" t="inlineStr">
+      <c r="U108" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8526,20 +9067,25 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
           <t>HD 122742</t>
         </is>
       </c>
-      <c r="R109" t="inlineStr">
+      <c r="S109" t="inlineStr">
         <is>
           <t>GJ 538</t>
         </is>
       </c>
-      <c r="S109" t="inlineStr">
+      <c r="T109" t="inlineStr">
         <is>
           <t>HIP 68682</t>
         </is>
       </c>
-      <c r="T109" t="inlineStr">
+      <c r="U109" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -8597,20 +9143,25 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
           <t>HD  21175</t>
         </is>
       </c>
-      <c r="R110" t="inlineStr">
+      <c r="S110" t="inlineStr">
         <is>
           <t>GJ 3222</t>
         </is>
       </c>
-      <c r="S110" t="inlineStr">
+      <c r="T110" t="inlineStr">
         <is>
           <t>HIP 15799</t>
         </is>
       </c>
-      <c r="T110" t="inlineStr">
+      <c r="U110" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8673,20 +9224,25 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
           <t>HD  36435</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr">
+      <c r="S111" t="inlineStr">
         <is>
           <t>GJ 9180, GJ 204.1</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr">
+      <c r="T111" t="inlineStr">
         <is>
           <t>HIP 25544</t>
         </is>
       </c>
-      <c r="T111" t="inlineStr">
+      <c r="U111" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8749,20 +9305,25 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
           <t>HD  69830</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr">
+      <c r="S112" t="inlineStr">
         <is>
           <t>GJ 302</t>
         </is>
       </c>
-      <c r="S112" t="inlineStr">
+      <c r="T112" t="inlineStr">
         <is>
           <t>HIP 40693</t>
         </is>
       </c>
-      <c r="T112" t="inlineStr">
+      <c r="U112" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8825,20 +9386,25 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
           <t>HD   1237A, HD   1237</t>
         </is>
       </c>
-      <c r="R113" t="inlineStr">
+      <c r="S113" t="inlineStr">
         <is>
           <t>GJ 3021 A, GJ 3021</t>
         </is>
       </c>
-      <c r="S113" t="inlineStr">
+      <c r="T113" t="inlineStr">
         <is>
           <t>HIP 1292</t>
         </is>
       </c>
-      <c r="T113" t="inlineStr">
+      <c r="U113" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8901,20 +9467,25 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
           <t>HD   9540</t>
         </is>
       </c>
-      <c r="R114" t="inlineStr">
+      <c r="S114" t="inlineStr">
         <is>
           <t>GJ 59 A, GJ 59</t>
         </is>
       </c>
-      <c r="S114" t="inlineStr">
+      <c r="T114" t="inlineStr">
         <is>
           <t>HIP 7235</t>
         </is>
       </c>
-      <c r="T114" t="inlineStr">
+      <c r="U114" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -8977,15 +9548,20 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
           <t>HD 131156A</t>
         </is>
       </c>
-      <c r="R115" t="inlineStr">
+      <c r="S115" t="inlineStr">
         <is>
           <t>GJ 566 A</t>
         </is>
       </c>
-      <c r="T115" t="inlineStr">
+      <c r="U115" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9048,20 +9624,25 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
           <t>HD 101501</t>
         </is>
       </c>
-      <c r="R116" t="inlineStr">
+      <c r="S116" t="inlineStr">
         <is>
           <t>GJ 434</t>
         </is>
       </c>
-      <c r="S116" t="inlineStr">
+      <c r="T116" t="inlineStr">
         <is>
           <t>HIP 56997</t>
         </is>
       </c>
-      <c r="T116" t="inlineStr">
+      <c r="U116" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9119,15 +9700,20 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
           <t>HD 136923</t>
         </is>
       </c>
-      <c r="S117" t="inlineStr">
+      <c r="T117" t="inlineStr">
         <is>
           <t>HIP 75277</t>
         </is>
       </c>
-      <c r="T117" t="inlineStr">
+      <c r="U117" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9190,20 +9776,25 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
           <t>HD    166</t>
         </is>
       </c>
-      <c r="R118" t="inlineStr">
+      <c r="S118" t="inlineStr">
         <is>
           <t>GJ 5</t>
         </is>
       </c>
-      <c r="S118" t="inlineStr">
+      <c r="T118" t="inlineStr">
         <is>
           <t>HIP 544</t>
         </is>
       </c>
-      <c r="T118" t="inlineStr">
+      <c r="U118" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -9266,20 +9857,25 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
           <t>HD 154345</t>
         </is>
       </c>
-      <c r="R119" t="inlineStr">
+      <c r="S119" t="inlineStr">
         <is>
           <t>GJ 651</t>
         </is>
       </c>
-      <c r="S119" t="inlineStr">
+      <c r="T119" t="inlineStr">
         <is>
           <t>HIP 83389</t>
         </is>
       </c>
-      <c r="T119" t="inlineStr">
+      <c r="U119" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9337,20 +9933,25 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
           <t>HD  20794</t>
         </is>
       </c>
-      <c r="R120" t="inlineStr">
+      <c r="S120" t="inlineStr">
         <is>
           <t>GJ 139</t>
         </is>
       </c>
-      <c r="S120" t="inlineStr">
+      <c r="T120" t="inlineStr">
         <is>
           <t>HIP 15510</t>
         </is>
       </c>
-      <c r="T120" t="inlineStr">
+      <c r="U120" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9413,20 +10014,25 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
           <t>HD  82885</t>
         </is>
       </c>
-      <c r="R121" t="inlineStr">
+      <c r="S121" t="inlineStr">
         <is>
           <t>GJ 356 A</t>
         </is>
       </c>
-      <c r="S121" t="inlineStr">
+      <c r="T121" t="inlineStr">
         <is>
           <t>HIP 47080</t>
         </is>
       </c>
-      <c r="T121" t="inlineStr">
+      <c r="U121" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -9489,20 +10095,25 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
           <t>HD 152391</t>
         </is>
       </c>
-      <c r="R122" t="inlineStr">
+      <c r="S122" t="inlineStr">
         <is>
           <t>GJ 641</t>
         </is>
       </c>
-      <c r="S122" t="inlineStr">
+      <c r="T122" t="inlineStr">
         <is>
           <t>HIP 82588</t>
         </is>
       </c>
-      <c r="T122" t="inlineStr">
+      <c r="U122" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9565,20 +10176,25 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
           <t>HD 194640</t>
         </is>
       </c>
-      <c r="R123" t="inlineStr">
+      <c r="S123" t="inlineStr">
         <is>
           <t>GJ 790</t>
         </is>
       </c>
-      <c r="S123" t="inlineStr">
+      <c r="T123" t="inlineStr">
         <is>
           <t>HIP 100925</t>
         </is>
       </c>
-      <c r="T123" t="inlineStr">
+      <c r="U123" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9641,20 +10257,25 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
           <t>HD 102438</t>
         </is>
       </c>
-      <c r="R124" t="inlineStr">
+      <c r="S124" t="inlineStr">
         <is>
           <t>GJ 446</t>
         </is>
       </c>
-      <c r="S124" t="inlineStr">
+      <c r="T124" t="inlineStr">
         <is>
           <t>HIP 57507</t>
         </is>
       </c>
-      <c r="T124" t="inlineStr">
+      <c r="U124" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9712,20 +10333,25 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
           <t>HD  43834</t>
         </is>
       </c>
-      <c r="R125" t="inlineStr">
+      <c r="S125" t="inlineStr">
         <is>
           <t>GJ 231</t>
         </is>
       </c>
-      <c r="S125" t="inlineStr">
+      <c r="T125" t="inlineStr">
         <is>
           <t>HIP 29271</t>
         </is>
       </c>
-      <c r="T125" t="inlineStr">
+      <c r="U125" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9788,20 +10414,25 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
           <t>HD 104304</t>
         </is>
       </c>
-      <c r="R126" t="inlineStr">
+      <c r="S126" t="inlineStr">
         <is>
           <t>GJ 454</t>
         </is>
       </c>
-      <c r="S126" t="inlineStr">
+      <c r="T126" t="inlineStr">
         <is>
           <t>HIP 58576</t>
         </is>
       </c>
-      <c r="T126" t="inlineStr">
+      <c r="U126" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -9864,20 +10495,25 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
           <t>HD  43162</t>
         </is>
       </c>
-      <c r="R127" t="inlineStr">
+      <c r="S127" t="inlineStr">
         <is>
           <t>GJ 3389</t>
         </is>
       </c>
-      <c r="S127" t="inlineStr">
+      <c r="T127" t="inlineStr">
         <is>
           <t>HIP 29568</t>
         </is>
       </c>
-      <c r="T127" t="inlineStr">
+      <c r="U127" t="inlineStr">
         <is>
           <t>Low-Mass*</t>
         </is>
@@ -9940,20 +10576,25 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
           <t>HD 102365</t>
         </is>
       </c>
-      <c r="R128" t="inlineStr">
+      <c r="S128" t="inlineStr">
         <is>
           <t>GJ 442 A</t>
         </is>
       </c>
-      <c r="S128" t="inlineStr">
+      <c r="T128" t="inlineStr">
         <is>
           <t>HIP 57443</t>
         </is>
       </c>
-      <c r="T128" t="inlineStr">
+      <c r="U128" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10016,20 +10657,25 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
           <t>HD 111395</t>
         </is>
       </c>
-      <c r="R129" t="inlineStr">
+      <c r="S129" t="inlineStr">
         <is>
           <t>GJ 486.1</t>
         </is>
       </c>
-      <c r="S129" t="inlineStr">
+      <c r="T129" t="inlineStr">
         <is>
           <t>HIP 62523</t>
         </is>
       </c>
-      <c r="T129" t="inlineStr">
+      <c r="U129" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -10092,20 +10738,25 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
           <t>HD 140901</t>
         </is>
       </c>
-      <c r="R130" t="inlineStr">
+      <c r="S130" t="inlineStr">
         <is>
           <t>GJ 599 A</t>
         </is>
       </c>
-      <c r="S130" t="inlineStr">
+      <c r="T130" t="inlineStr">
         <is>
           <t>HIP 77358</t>
         </is>
       </c>
-      <c r="T130" t="inlineStr">
+      <c r="U130" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10166,22 +10817,22 @@
       <c r="P131" t="n">
         <v>0.9106175844249375</v>
       </c>
-      <c r="Q131" t="inlineStr">
+      <c r="R131" t="inlineStr">
         <is>
           <t>HD 140538A, HD 140538</t>
         </is>
       </c>
-      <c r="R131" t="inlineStr">
+      <c r="S131" t="inlineStr">
         <is>
           <t>GJ 9527 A, GJ 9527, GJ 596.1</t>
         </is>
       </c>
-      <c r="S131" t="inlineStr">
+      <c r="T131" t="inlineStr">
         <is>
           <t>HIP 77052</t>
         </is>
       </c>
-      <c r="T131" t="inlineStr">
+      <c r="U131" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10244,20 +10895,25 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
           <t>HD 126053</t>
         </is>
       </c>
-      <c r="R132" t="inlineStr">
+      <c r="S132" t="inlineStr">
         <is>
           <t>GJ 547</t>
         </is>
       </c>
-      <c r="S132" t="inlineStr">
+      <c r="T132" t="inlineStr">
         <is>
           <t>HIP 70319</t>
         </is>
       </c>
-      <c r="T132" t="inlineStr">
+      <c r="U132" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10320,20 +10976,25 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
           <t>HD 160691</t>
         </is>
       </c>
-      <c r="R133" t="inlineStr">
+      <c r="S133" t="inlineStr">
         <is>
           <t>GJ 691.0, GJ 691</t>
         </is>
       </c>
-      <c r="S133" t="inlineStr">
+      <c r="T133" t="inlineStr">
         <is>
           <t>HIP 86796</t>
         </is>
       </c>
-      <c r="T133" t="inlineStr">
+      <c r="U133" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10396,20 +11057,25 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
           <t>HD 136352</t>
         </is>
       </c>
-      <c r="R134" t="inlineStr">
+      <c r="S134" t="inlineStr">
         <is>
           <t>GJ 582</t>
         </is>
       </c>
-      <c r="S134" t="inlineStr">
+      <c r="T134" t="inlineStr">
         <is>
           <t>HIP 75181</t>
         </is>
       </c>
-      <c r="T134" t="inlineStr">
+      <c r="U134" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10472,20 +11138,25 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
           <t>HD 157214</t>
         </is>
       </c>
-      <c r="R135" t="inlineStr">
+      <c r="S135" t="inlineStr">
         <is>
           <t>GJ 672</t>
         </is>
       </c>
-      <c r="S135" t="inlineStr">
+      <c r="T135" t="inlineStr">
         <is>
           <t>HIP 84862</t>
         </is>
       </c>
-      <c r="T135" t="inlineStr">
+      <c r="U135" t="inlineStr">
         <is>
           <t>RGB*</t>
         </is>
@@ -10548,20 +11219,25 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
           <t>HD  20766</t>
         </is>
       </c>
-      <c r="R136" t="inlineStr">
+      <c r="S136" t="inlineStr">
         <is>
           <t>GJ 136</t>
         </is>
       </c>
-      <c r="S136" t="inlineStr">
+      <c r="T136" t="inlineStr">
         <is>
           <t>HIP 15330</t>
         </is>
       </c>
-      <c r="T136" t="inlineStr">
+      <c r="U136" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10624,20 +11300,25 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
           <t>HD 189567</t>
         </is>
       </c>
-      <c r="R137" t="inlineStr">
+      <c r="S137" t="inlineStr">
         <is>
           <t>GJ 776</t>
         </is>
       </c>
-      <c r="S137" t="inlineStr">
+      <c r="T137" t="inlineStr">
         <is>
           <t>HIP 98959</t>
         </is>
       </c>
-      <c r="T137" t="inlineStr">
+      <c r="U137" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10700,20 +11381,25 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
           <t>HD  42807</t>
         </is>
       </c>
-      <c r="R138" t="inlineStr">
+      <c r="S138" t="inlineStr">
         <is>
           <t>GJ 230</t>
         </is>
       </c>
-      <c r="S138" t="inlineStr">
+      <c r="T138" t="inlineStr">
         <is>
           <t>HIP 29525</t>
         </is>
       </c>
-      <c r="T138" t="inlineStr">
+      <c r="U138" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
@@ -10776,20 +11462,25 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
           <t>HD  38858</t>
         </is>
       </c>
-      <c r="R139" t="inlineStr">
+      <c r="S139" t="inlineStr">
         <is>
           <t>GJ 1085</t>
         </is>
       </c>
-      <c r="S139" t="inlineStr">
+      <c r="T139" t="inlineStr">
         <is>
           <t>HIP 27435</t>
         </is>
       </c>
-      <c r="T139" t="inlineStr">
+      <c r="U139" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10852,20 +11543,25 @@
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
           <t>HD  32923</t>
         </is>
       </c>
-      <c r="R140" t="inlineStr">
+      <c r="S140" t="inlineStr">
         <is>
           <t>GJ 188.0, GJ 188</t>
         </is>
       </c>
-      <c r="S140" t="inlineStr">
+      <c r="T140" t="inlineStr">
         <is>
           <t>HIP 23835</t>
         </is>
       </c>
-      <c r="T140" t="inlineStr">
+      <c r="U140" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -10928,20 +11624,25 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
           <t>HD  76151</t>
         </is>
       </c>
-      <c r="R141" t="inlineStr">
+      <c r="S141" t="inlineStr">
         <is>
           <t>GJ 327</t>
         </is>
       </c>
-      <c r="S141" t="inlineStr">
+      <c r="T141" t="inlineStr">
         <is>
           <t>HIP 43726</t>
         </is>
       </c>
-      <c r="T141" t="inlineStr">
+      <c r="U141" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -10999,20 +11700,25 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
           <t>HD 217014</t>
         </is>
       </c>
-      <c r="R142" t="inlineStr">
+      <c r="S142" t="inlineStr">
         <is>
           <t>GJ 882</t>
         </is>
       </c>
-      <c r="S142" t="inlineStr">
+      <c r="T142" t="inlineStr">
         <is>
           <t>HIP 113357</t>
         </is>
       </c>
-      <c r="T142" t="inlineStr">
+      <c r="U142" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11075,20 +11781,25 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
           <t>HD 146233</t>
         </is>
       </c>
-      <c r="R143" t="inlineStr">
+      <c r="S143" t="inlineStr">
         <is>
           <t>GJ 616</t>
         </is>
       </c>
-      <c r="S143" t="inlineStr">
+      <c r="T143" t="inlineStr">
         <is>
           <t>HIP 79672</t>
         </is>
       </c>
-      <c r="T143" t="inlineStr">
+      <c r="U143" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11151,20 +11862,25 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
           <t>HD 190771</t>
         </is>
       </c>
-      <c r="R144" t="inlineStr">
+      <c r="S144" t="inlineStr">
         <is>
           <t>GJ 9685, GJ 1249</t>
         </is>
       </c>
-      <c r="S144" t="inlineStr">
+      <c r="T144" t="inlineStr">
         <is>
           <t>HIP 98921</t>
         </is>
       </c>
-      <c r="T144" t="inlineStr">
+      <c r="U144" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11227,20 +11943,25 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
           <t>HD 142267</t>
         </is>
       </c>
-      <c r="R145" t="inlineStr">
+      <c r="S145" t="inlineStr">
         <is>
           <t>GJ 3924</t>
         </is>
       </c>
-      <c r="S145" t="inlineStr">
+      <c r="T145" t="inlineStr">
         <is>
           <t>HIP 77801</t>
         </is>
       </c>
-      <c r="T145" t="inlineStr">
+      <c r="U145" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -11298,20 +12019,25 @@
       </c>
       <c r="Q146" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
           <t>HD  53705</t>
         </is>
       </c>
-      <c r="R146" t="inlineStr">
+      <c r="S146" t="inlineStr">
         <is>
           <t>GJ 9223 A, GJ 264.1 A</t>
         </is>
       </c>
-      <c r="S146" t="inlineStr">
+      <c r="T146" t="inlineStr">
         <is>
           <t>HIP 34065</t>
         </is>
       </c>
-      <c r="T146" t="inlineStr">
+      <c r="U146" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11369,20 +12095,25 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
           <t>HD   4391</t>
         </is>
       </c>
-      <c r="R147" t="inlineStr">
+      <c r="S147" t="inlineStr">
         <is>
           <t>GJ 1021</t>
         </is>
       </c>
-      <c r="S147" t="inlineStr">
+      <c r="T147" t="inlineStr">
         <is>
           <t>HIP 3583</t>
         </is>
       </c>
-      <c r="T147" t="inlineStr">
+      <c r="U147" t="inlineStr">
         <is>
           <t>EclBin</t>
         </is>
@@ -11445,20 +12176,25 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
           <t>HD 143761</t>
         </is>
       </c>
-      <c r="R148" t="inlineStr">
+      <c r="S148" t="inlineStr">
         <is>
           <t>GJ 9537, GJ 606.2</t>
         </is>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="T148" t="inlineStr">
         <is>
           <t>HIP 78459</t>
         </is>
       </c>
-      <c r="T148" t="inlineStr">
+      <c r="U148" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11516,15 +12252,20 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
           <t>HD 157347</t>
         </is>
       </c>
-      <c r="S149" t="inlineStr">
+      <c r="T149" t="inlineStr">
         <is>
           <t>HIP 85042</t>
         </is>
       </c>
-      <c r="T149" t="inlineStr">
+      <c r="U149" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11587,20 +12328,25 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
           <t>HD  63077</t>
         </is>
       </c>
-      <c r="R150" t="inlineStr">
+      <c r="S150" t="inlineStr">
         <is>
           <t>GJ 288 A</t>
         </is>
       </c>
-      <c r="S150" t="inlineStr">
+      <c r="T150" t="inlineStr">
         <is>
           <t>HIP 37853</t>
         </is>
       </c>
-      <c r="T150" t="inlineStr">
+      <c r="U150" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11663,20 +12409,25 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
           <t>HD 147513</t>
         </is>
       </c>
-      <c r="R151" t="inlineStr">
+      <c r="S151" t="inlineStr">
         <is>
           <t>GJ 9559, GJ 620.1 A</t>
         </is>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="T151" t="inlineStr">
         <is>
           <t>HIP 80337</t>
         </is>
       </c>
-      <c r="T151" t="inlineStr">
+      <c r="U151" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11734,20 +12485,25 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
           <t>HD   4614, HD   4614A</t>
         </is>
       </c>
-      <c r="R152" t="inlineStr">
+      <c r="S152" t="inlineStr">
         <is>
           <t>GJ 34 A</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="T152" t="inlineStr">
         <is>
           <t>HIP 3821</t>
         </is>
       </c>
-      <c r="T152" t="inlineStr">
+      <c r="U152" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11810,20 +12566,25 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
           <t>HD 142373</t>
         </is>
       </c>
-      <c r="R153" t="inlineStr">
+      <c r="S153" t="inlineStr">
         <is>
           <t>GJ 602</t>
         </is>
       </c>
-      <c r="S153" t="inlineStr">
+      <c r="T153" t="inlineStr">
         <is>
           <t>HIP 77760</t>
         </is>
       </c>
-      <c r="T153" t="inlineStr">
+      <c r="U153" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -11886,20 +12647,25 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
           <t>HD  25680</t>
         </is>
       </c>
-      <c r="R154" t="inlineStr">
+      <c r="S154" t="inlineStr">
         <is>
           <t>GJ 160</t>
         </is>
       </c>
-      <c r="S154" t="inlineStr">
+      <c r="T154" t="inlineStr">
         <is>
           <t>HIP 19076</t>
         </is>
       </c>
-      <c r="T154" t="inlineStr">
+      <c r="U154" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -11962,20 +12728,25 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
           <t>HD  86728</t>
         </is>
       </c>
-      <c r="R155" t="inlineStr">
+      <c r="S155" t="inlineStr">
         <is>
           <t>GJ 376 A, GJ 376</t>
         </is>
       </c>
-      <c r="S155" t="inlineStr">
+      <c r="T155" t="inlineStr">
         <is>
           <t>HIP 49081</t>
         </is>
       </c>
-      <c r="T155" t="inlineStr">
+      <c r="U155" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12033,20 +12804,25 @@
       </c>
       <c r="Q156" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
           <t>HD 109358</t>
         </is>
       </c>
-      <c r="R156" t="inlineStr">
+      <c r="S156" t="inlineStr">
         <is>
           <t>GJ 475</t>
         </is>
       </c>
-      <c r="S156" t="inlineStr">
+      <c r="T156" t="inlineStr">
         <is>
           <t>HIP 61317</t>
         </is>
       </c>
-      <c r="T156" t="inlineStr">
+      <c r="U156" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -12104,20 +12880,25 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
           <t>HD  34411</t>
         </is>
       </c>
-      <c r="R157" t="inlineStr">
+      <c r="S157" t="inlineStr">
         <is>
           <t>GJ 197</t>
         </is>
       </c>
-      <c r="S157" t="inlineStr">
+      <c r="T157" t="inlineStr">
         <is>
           <t>HIP 24813</t>
         </is>
       </c>
-      <c r="T157" t="inlineStr">
+      <c r="U157" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12180,20 +12961,25 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
           <t>HD  95128</t>
         </is>
       </c>
-      <c r="R158" t="inlineStr">
+      <c r="S158" t="inlineStr">
         <is>
           <t>GJ 407</t>
         </is>
       </c>
-      <c r="S158" t="inlineStr">
+      <c r="T158" t="inlineStr">
         <is>
           <t>HIP 53721</t>
         </is>
       </c>
-      <c r="T158" t="inlineStr">
+      <c r="U158" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12251,20 +13037,25 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
           <t>HD  20807</t>
         </is>
       </c>
-      <c r="R159" t="inlineStr">
+      <c r="S159" t="inlineStr">
         <is>
           <t>GJ 138</t>
         </is>
       </c>
-      <c r="S159" t="inlineStr">
+      <c r="T159" t="inlineStr">
         <is>
           <t>HIP 15371</t>
         </is>
       </c>
-      <c r="T159" t="inlineStr">
+      <c r="U159" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -12327,20 +13118,25 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
           <t>HD 165185</t>
         </is>
       </c>
-      <c r="R160" t="inlineStr">
+      <c r="S160" t="inlineStr">
         <is>
           <t>GJ 702.1</t>
         </is>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="T160" t="inlineStr">
         <is>
           <t>HIP 88694</t>
         </is>
       </c>
-      <c r="T160" t="inlineStr">
+      <c r="U160" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12403,20 +13199,25 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
           <t>HD  55575</t>
         </is>
       </c>
-      <c r="R161" t="inlineStr">
+      <c r="S161" t="inlineStr">
         <is>
           <t>GJ 1095</t>
         </is>
       </c>
-      <c r="S161" t="inlineStr">
+      <c r="T161" t="inlineStr">
         <is>
           <t>HIP 35136</t>
         </is>
       </c>
-      <c r="T161" t="inlineStr">
+      <c r="U161" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12474,20 +13275,25 @@
       </c>
       <c r="Q162" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
           <t>HD  10307</t>
         </is>
       </c>
-      <c r="R162" t="inlineStr">
+      <c r="S162" t="inlineStr">
         <is>
           <t>GJ 67 B, GJ 67 A, GJ 67</t>
         </is>
       </c>
-      <c r="S162" t="inlineStr">
+      <c r="T162" t="inlineStr">
         <is>
           <t>HIP 7918</t>
         </is>
       </c>
-      <c r="T162" t="inlineStr">
+      <c r="U162" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -12545,20 +13351,25 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
           <t>HD 211415</t>
         </is>
       </c>
-      <c r="R163" t="inlineStr">
+      <c r="S163" t="inlineStr">
         <is>
           <t>GJ 853.0, GJ 853 A</t>
         </is>
       </c>
-      <c r="S163" t="inlineStr">
+      <c r="T163" t="inlineStr">
         <is>
           <t>HIP 110109</t>
         </is>
       </c>
-      <c r="T163" t="inlineStr">
+      <c r="U163" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12616,20 +13427,25 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
           <t>HD  39587</t>
         </is>
       </c>
-      <c r="R164" t="inlineStr">
+      <c r="S164" t="inlineStr">
         <is>
           <t>GJ 222</t>
         </is>
       </c>
-      <c r="S164" t="inlineStr">
+      <c r="T164" t="inlineStr">
         <is>
           <t>HIP 27913</t>
         </is>
       </c>
-      <c r="T164" t="inlineStr">
+      <c r="U164" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -12692,20 +13508,25 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
           <t>HD  50692</t>
         </is>
       </c>
-      <c r="R165" t="inlineStr">
+      <c r="S165" t="inlineStr">
         <is>
           <t>GJ 252</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="T165" t="inlineStr">
         <is>
           <t>HIP 33277</t>
         </is>
       </c>
-      <c r="T165" t="inlineStr">
+      <c r="U165" t="inlineStr">
         <is>
           <t>Star</t>
         </is>
@@ -12768,20 +13589,25 @@
       </c>
       <c r="Q166" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
           <t>HD 110897</t>
         </is>
       </c>
-      <c r="R166" t="inlineStr">
+      <c r="S166" t="inlineStr">
         <is>
           <t>GJ 484</t>
         </is>
       </c>
-      <c r="S166" t="inlineStr">
+      <c r="T166" t="inlineStr">
         <is>
           <t>HIP 62207</t>
         </is>
       </c>
-      <c r="T166" t="inlineStr">
+      <c r="U166" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12839,15 +13665,20 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
           <t>HD 176051A</t>
         </is>
       </c>
-      <c r="R167" t="inlineStr">
+      <c r="S167" t="inlineStr">
         <is>
           <t>GJ 738 A</t>
         </is>
       </c>
-      <c r="T167" t="inlineStr">
+      <c r="U167" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -12910,20 +13741,25 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
           <t>HD 206860</t>
         </is>
       </c>
-      <c r="R168" t="inlineStr">
+      <c r="S168" t="inlineStr">
         <is>
           <t>GJ 9751, GJ 836.7</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="T168" t="inlineStr">
         <is>
           <t>HIP 107350</t>
         </is>
       </c>
-      <c r="T168" t="inlineStr">
+      <c r="U168" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -12986,20 +13822,25 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
           <t>HD 190406</t>
         </is>
       </c>
-      <c r="R169" t="inlineStr">
+      <c r="S169" t="inlineStr">
         <is>
           <t>GJ 779</t>
         </is>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="T169" t="inlineStr">
         <is>
           <t>HIP 98819</t>
         </is>
       </c>
-      <c r="T169" t="inlineStr">
+      <c r="U169" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13062,20 +13903,25 @@
       </c>
       <c r="Q170" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
           <t>HD  39091</t>
         </is>
       </c>
-      <c r="R170" t="inlineStr">
+      <c r="S170" t="inlineStr">
         <is>
           <t>GJ 9189</t>
         </is>
       </c>
-      <c r="S170" t="inlineStr">
+      <c r="T170" t="inlineStr">
         <is>
           <t>HIP 26394</t>
         </is>
       </c>
-      <c r="T170" t="inlineStr">
+      <c r="U170" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13133,20 +13979,25 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
           <t>HD   1581</t>
         </is>
       </c>
-      <c r="R171" t="inlineStr">
+      <c r="S171" t="inlineStr">
         <is>
           <t>GJ 17</t>
         </is>
       </c>
-      <c r="S171" t="inlineStr">
+      <c r="T171" t="inlineStr">
         <is>
           <t>HIP 1599</t>
         </is>
       </c>
-      <c r="T171" t="inlineStr">
+      <c r="U171" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13204,20 +14055,25 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
           <t>HD  30495</t>
         </is>
       </c>
-      <c r="R172" t="inlineStr">
+      <c r="S172" t="inlineStr">
         <is>
           <t>GJ 177</t>
         </is>
       </c>
-      <c r="S172" t="inlineStr">
+      <c r="T172" t="inlineStr">
         <is>
           <t>HIP 22263</t>
         </is>
       </c>
-      <c r="T172" t="inlineStr">
+      <c r="U172" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -13280,20 +14136,25 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
           <t>HD 130948, HD 130948A</t>
         </is>
       </c>
-      <c r="R173" t="inlineStr">
+      <c r="S173" t="inlineStr">
         <is>
           <t>GJ 564 A, GJ 564</t>
         </is>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="T173" t="inlineStr">
         <is>
           <t>HIP 72567</t>
         </is>
       </c>
-      <c r="T173" t="inlineStr">
+      <c r="U173" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -13351,20 +14212,25 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
           <t>HD  19373</t>
         </is>
       </c>
-      <c r="R174" t="inlineStr">
+      <c r="S174" t="inlineStr">
         <is>
           <t>GJ 124</t>
         </is>
       </c>
-      <c r="S174" t="inlineStr">
+      <c r="T174" t="inlineStr">
         <is>
           <t>HIP 14632</t>
         </is>
       </c>
-      <c r="T174" t="inlineStr">
+      <c r="U174" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13427,20 +14293,25 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
           <t>HD  78366</t>
         </is>
       </c>
-      <c r="R175" t="inlineStr">
+      <c r="S175" t="inlineStr">
         <is>
           <t>GJ 334.2</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr">
+      <c r="T175" t="inlineStr">
         <is>
           <t>HIP 44897</t>
         </is>
       </c>
-      <c r="T175" t="inlineStr">
+      <c r="U175" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13503,20 +14374,25 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
           <t>HD  65907, HD  65907A</t>
         </is>
       </c>
-      <c r="R176" t="inlineStr">
+      <c r="S176" t="inlineStr">
         <is>
           <t>GJ 294 A</t>
         </is>
       </c>
-      <c r="S176" t="inlineStr">
+      <c r="T176" t="inlineStr">
         <is>
           <t>HIP 38908</t>
         </is>
       </c>
-      <c r="T176" t="inlineStr">
+      <c r="U176" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13574,20 +14450,25 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
           <t>HD 114710</t>
         </is>
       </c>
-      <c r="R177" t="inlineStr">
+      <c r="S177" t="inlineStr">
         <is>
           <t>GJ 502</t>
         </is>
       </c>
-      <c r="S177" t="inlineStr">
+      <c r="T177" t="inlineStr">
         <is>
           <t>HIP 64394</t>
         </is>
       </c>
-      <c r="T177" t="inlineStr">
+      <c r="U177" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13645,20 +14526,25 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
           <t>HD  22484</t>
         </is>
       </c>
-      <c r="R178" t="inlineStr">
+      <c r="S178" t="inlineStr">
         <is>
           <t>GJ 147</t>
         </is>
       </c>
-      <c r="S178" t="inlineStr">
+      <c r="T178" t="inlineStr">
         <is>
           <t>HIP 16852</t>
         </is>
       </c>
-      <c r="T178" t="inlineStr">
+      <c r="U178" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13716,20 +14602,25 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
           <t>HD  84737</t>
         </is>
       </c>
-      <c r="R179" t="inlineStr">
+      <c r="S179" t="inlineStr">
         <is>
           <t>GJ 368</t>
         </is>
       </c>
-      <c r="S179" t="inlineStr">
+      <c r="T179" t="inlineStr">
         <is>
           <t>HIP 48113</t>
         </is>
       </c>
-      <c r="T179" t="inlineStr">
+      <c r="U179" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13787,20 +14678,25 @@
       </c>
       <c r="Q180" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
           <t>HD 207129</t>
         </is>
       </c>
-      <c r="R180" t="inlineStr">
+      <c r="S180" t="inlineStr">
         <is>
           <t>GJ 838</t>
         </is>
       </c>
-      <c r="S180" t="inlineStr">
+      <c r="T180" t="inlineStr">
         <is>
           <t>HIP 107649</t>
         </is>
       </c>
-      <c r="T180" t="inlineStr">
+      <c r="U180" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -13858,20 +14754,25 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
           <t>HD 165908, HD 165908A</t>
         </is>
       </c>
-      <c r="R181" t="inlineStr">
+      <c r="S181" t="inlineStr">
         <is>
           <t>GJ 704.0, GJ 704 A, GJ 704</t>
         </is>
       </c>
-      <c r="S181" t="inlineStr">
+      <c r="T181" t="inlineStr">
         <is>
           <t>HIP 88745</t>
         </is>
       </c>
-      <c r="T181" t="inlineStr">
+      <c r="U181" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -13934,20 +14835,25 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
           <t>HD 115383</t>
         </is>
       </c>
-      <c r="R182" t="inlineStr">
+      <c r="S182" t="inlineStr">
         <is>
           <t>GJ 504</t>
         </is>
       </c>
-      <c r="S182" t="inlineStr">
+      <c r="T182" t="inlineStr">
         <is>
           <t>HIP 64792</t>
         </is>
       </c>
-      <c r="T182" t="inlineStr">
+      <c r="U182" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14005,20 +14911,25 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
           <t>HD 165499</t>
         </is>
       </c>
-      <c r="R183" t="inlineStr">
+      <c r="S183" t="inlineStr">
         <is>
           <t>GJ 9616, GJ 705.1</t>
         </is>
       </c>
-      <c r="S183" t="inlineStr">
+      <c r="T183" t="inlineStr">
         <is>
           <t>HIP 89042</t>
         </is>
       </c>
-      <c r="T183" t="inlineStr">
+      <c r="U183" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14081,20 +14992,25 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
           <t>HD 147584</t>
         </is>
       </c>
-      <c r="R184" t="inlineStr">
+      <c r="S184" t="inlineStr">
         <is>
           <t>GJ 624</t>
         </is>
       </c>
-      <c r="S184" t="inlineStr">
+      <c r="T184" t="inlineStr">
         <is>
           <t>HIP 80686</t>
         </is>
       </c>
-      <c r="T184" t="inlineStr">
+      <c r="U184" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -14157,20 +15073,25 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
           <t>HD  48682, HD  48682A</t>
         </is>
       </c>
-      <c r="R185" t="inlineStr">
+      <c r="S185" t="inlineStr">
         <is>
           <t>GJ 245</t>
         </is>
       </c>
-      <c r="S185" t="inlineStr">
+      <c r="T185" t="inlineStr">
         <is>
           <t>HIP 32480</t>
         </is>
       </c>
-      <c r="T185" t="inlineStr">
+      <c r="U185" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14228,20 +15149,25 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
           <t>HD   7570</t>
         </is>
       </c>
-      <c r="R186" t="inlineStr">
+      <c r="S186" t="inlineStr">
         <is>
           <t>GJ 55</t>
         </is>
       </c>
-      <c r="S186" t="inlineStr">
+      <c r="T186" t="inlineStr">
         <is>
           <t>HIP 5862</t>
         </is>
       </c>
-      <c r="T186" t="inlineStr">
+      <c r="U186" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14299,20 +15225,25 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
           <t>HD 102870</t>
         </is>
       </c>
-      <c r="R187" t="inlineStr">
+      <c r="S187" t="inlineStr">
         <is>
           <t>GJ 449</t>
         </is>
       </c>
-      <c r="S187" t="inlineStr">
+      <c r="T187" t="inlineStr">
         <is>
           <t>HIP 57757</t>
         </is>
       </c>
-      <c r="T187" t="inlineStr">
+      <c r="U187" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14375,20 +15306,25 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
           <t>HD  17051</t>
         </is>
       </c>
-      <c r="R188" t="inlineStr">
+      <c r="S188" t="inlineStr">
         <is>
           <t>GJ 108</t>
         </is>
       </c>
-      <c r="S188" t="inlineStr">
+      <c r="T188" t="inlineStr">
         <is>
           <t>HIP 12653</t>
         </is>
       </c>
-      <c r="T188" t="inlineStr">
+      <c r="U188" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14451,20 +15387,25 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
           <t>HD  10647</t>
         </is>
       </c>
-      <c r="R189" t="inlineStr">
+      <c r="S189" t="inlineStr">
         <is>
           <t>GJ 3109</t>
         </is>
       </c>
-      <c r="S189" t="inlineStr">
+      <c r="T189" t="inlineStr">
         <is>
           <t>HIP 7978</t>
         </is>
       </c>
-      <c r="T189" t="inlineStr">
+      <c r="U189" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14527,20 +15468,25 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
           <t>HD 187691</t>
         </is>
       </c>
-      <c r="R190" t="inlineStr">
+      <c r="S190" t="inlineStr">
         <is>
           <t>GJ 9671 A, GJ 768.1 A</t>
         </is>
       </c>
-      <c r="S190" t="inlineStr">
+      <c r="T190" t="inlineStr">
         <is>
           <t>HIP 97675</t>
         </is>
       </c>
-      <c r="T190" t="inlineStr">
+      <c r="U190" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14603,20 +15549,25 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
           <t>HD  84117</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr">
+      <c r="S191" t="inlineStr">
         <is>
           <t>GJ 364.0, GJ 364</t>
         </is>
       </c>
-      <c r="S191" t="inlineStr">
+      <c r="T191" t="inlineStr">
         <is>
           <t>HIP 47592</t>
         </is>
       </c>
-      <c r="T191" t="inlineStr">
+      <c r="U191" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14674,20 +15625,25 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
           <t>HD  33262</t>
         </is>
       </c>
-      <c r="R192" t="inlineStr">
+      <c r="S192" t="inlineStr">
         <is>
           <t>GJ 189</t>
         </is>
       </c>
-      <c r="S192" t="inlineStr">
+      <c r="T192" t="inlineStr">
         <is>
           <t>HIP 23693</t>
         </is>
       </c>
-      <c r="T192" t="inlineStr">
+      <c r="U192" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14750,20 +15706,25 @@
       </c>
       <c r="Q193" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
           <t>HD 125276</t>
         </is>
       </c>
-      <c r="R193" t="inlineStr">
+      <c r="S193" t="inlineStr">
         <is>
           <t>GJ 9476 A, GJ 542.1 A</t>
         </is>
       </c>
-      <c r="S193" t="inlineStr">
+      <c r="T193" t="inlineStr">
         <is>
           <t>HIP 69965</t>
         </is>
       </c>
-      <c r="T193" t="inlineStr">
+      <c r="U193" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14826,20 +15787,25 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
           <t>HD  35296</t>
         </is>
       </c>
-      <c r="R194" t="inlineStr">
+      <c r="S194" t="inlineStr">
         <is>
           <t>GJ 202</t>
         </is>
       </c>
-      <c r="S194" t="inlineStr">
+      <c r="T194" t="inlineStr">
         <is>
           <t>HIP 25278</t>
         </is>
       </c>
-      <c r="T194" t="inlineStr">
+      <c r="U194" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
@@ -14897,20 +15863,25 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
           <t>HD  90839</t>
         </is>
       </c>
-      <c r="R195" t="inlineStr">
+      <c r="S195" t="inlineStr">
         <is>
           <t>GJ 395</t>
         </is>
       </c>
-      <c r="S195" t="inlineStr">
+      <c r="T195" t="inlineStr">
         <is>
           <t>HIP 51459</t>
         </is>
       </c>
-      <c r="T195" t="inlineStr">
+      <c r="U195" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -14968,20 +15939,25 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
           <t>HD  20010, HD  20010A</t>
         </is>
       </c>
-      <c r="R196" t="inlineStr">
+      <c r="S196" t="inlineStr">
         <is>
           <t>GJ 127 A</t>
         </is>
       </c>
-      <c r="S196" t="inlineStr">
+      <c r="T196" t="inlineStr">
         <is>
           <t>HIP 14879</t>
         </is>
       </c>
-      <c r="T196" t="inlineStr">
+      <c r="U196" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15039,20 +16015,25 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
           <t>HD 203608</t>
         </is>
       </c>
-      <c r="R197" t="inlineStr">
+      <c r="S197" t="inlineStr">
         <is>
           <t>GJ 827</t>
         </is>
       </c>
-      <c r="S197" t="inlineStr">
+      <c r="T197" t="inlineStr">
         <is>
           <t>HIP 105858</t>
         </is>
       </c>
-      <c r="T197" t="inlineStr">
+      <c r="U197" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15110,20 +16091,25 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
           <t>HD   9826</t>
         </is>
       </c>
-      <c r="R198" t="inlineStr">
+      <c r="S198" t="inlineStr">
         <is>
           <t>GJ 61</t>
         </is>
       </c>
-      <c r="S198" t="inlineStr">
+      <c r="T198" t="inlineStr">
         <is>
           <t>HIP 7513</t>
         </is>
       </c>
-      <c r="T198" t="inlineStr">
+      <c r="U198" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15186,20 +16172,25 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
           <t>HD   4813</t>
         </is>
       </c>
-      <c r="R199" t="inlineStr">
+      <c r="S199" t="inlineStr">
         <is>
           <t>GJ 37</t>
         </is>
       </c>
-      <c r="S199" t="inlineStr">
+      <c r="T199" t="inlineStr">
         <is>
           <t>HIP 3909</t>
         </is>
       </c>
-      <c r="T199" t="inlineStr">
+      <c r="U199" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15257,20 +16248,25 @@
       </c>
       <c r="Q200" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
           <t>HD    693</t>
         </is>
       </c>
-      <c r="R200" t="inlineStr">
+      <c r="S200" t="inlineStr">
         <is>
           <t>GJ 10</t>
         </is>
       </c>
-      <c r="S200" t="inlineStr">
+      <c r="T200" t="inlineStr">
         <is>
           <t>HIP 910</t>
         </is>
       </c>
-      <c r="T200" t="inlineStr">
+      <c r="U200" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15328,20 +16324,25 @@
       </c>
       <c r="Q201" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
           <t>HD 126660</t>
         </is>
       </c>
-      <c r="R201" t="inlineStr">
+      <c r="S201" t="inlineStr">
         <is>
           <t>GJ 549 A</t>
         </is>
       </c>
-      <c r="S201" t="inlineStr">
+      <c r="T201" t="inlineStr">
         <is>
           <t>HIP 70497</t>
         </is>
       </c>
-      <c r="T201" t="inlineStr">
+      <c r="U201" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15399,20 +16400,25 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
           <t>HD 222368</t>
         </is>
       </c>
-      <c r="R202" t="inlineStr">
+      <c r="S202" t="inlineStr">
         <is>
           <t>GJ 904</t>
         </is>
       </c>
-      <c r="S202" t="inlineStr">
+      <c r="T202" t="inlineStr">
         <is>
           <t>HIP 116771</t>
         </is>
       </c>
-      <c r="T202" t="inlineStr">
+      <c r="U202" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15470,20 +16476,25 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
           <t>HD  38393</t>
         </is>
       </c>
-      <c r="R203" t="inlineStr">
+      <c r="S203" t="inlineStr">
         <is>
           <t>GJ 216 A</t>
         </is>
       </c>
-      <c r="S203" t="inlineStr">
+      <c r="T203" t="inlineStr">
         <is>
           <t>HIP 27072</t>
         </is>
       </c>
-      <c r="T203" t="inlineStr">
+      <c r="U203" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15541,20 +16552,25 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
           <t>HD  30652</t>
         </is>
       </c>
-      <c r="R204" t="inlineStr">
+      <c r="S204" t="inlineStr">
         <is>
           <t>GJ 178</t>
         </is>
       </c>
-      <c r="S204" t="inlineStr">
+      <c r="T204" t="inlineStr">
         <is>
           <t>HIP 22449</t>
         </is>
       </c>
-      <c r="T204" t="inlineStr">
+      <c r="U204" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15617,20 +16633,25 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
           <t>HD  25457</t>
         </is>
       </c>
-      <c r="R205" t="inlineStr">
+      <c r="S205" t="inlineStr">
         <is>
           <t>GJ 159</t>
         </is>
       </c>
-      <c r="S205" t="inlineStr">
+      <c r="T205" t="inlineStr">
         <is>
           <t>HIP 18859</t>
         </is>
       </c>
-      <c r="T205" t="inlineStr">
+      <c r="U205" t="inlineStr">
         <is>
           <t>TTauri*</t>
         </is>
@@ -15693,20 +16714,25 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
           <t>HD 142860</t>
         </is>
       </c>
-      <c r="R206" t="inlineStr">
+      <c r="S206" t="inlineStr">
         <is>
           <t>GJ 603</t>
         </is>
       </c>
-      <c r="S206" t="inlineStr">
+      <c r="T206" t="inlineStr">
         <is>
           <t>HIP 78072</t>
         </is>
       </c>
-      <c r="T206" t="inlineStr">
+      <c r="U206" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15769,20 +16795,25 @@
       </c>
       <c r="Q207" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
           <t>HD  69897</t>
         </is>
       </c>
-      <c r="R207" t="inlineStr">
+      <c r="S207" t="inlineStr">
         <is>
           <t>GJ 303</t>
         </is>
       </c>
-      <c r="S207" t="inlineStr">
+      <c r="T207" t="inlineStr">
         <is>
           <t>HIP 40843</t>
         </is>
       </c>
-      <c r="T207" t="inlineStr">
+      <c r="U207" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15840,20 +16871,25 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
           <t>HD 114837</t>
         </is>
       </c>
-      <c r="R208" t="inlineStr">
+      <c r="S208" t="inlineStr">
         <is>
           <t>GJ 503</t>
         </is>
       </c>
-      <c r="S208" t="inlineStr">
+      <c r="T208" t="inlineStr">
         <is>
           <t>HIP 64583</t>
         </is>
       </c>
-      <c r="T208" t="inlineStr">
+      <c r="U208" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15911,20 +16947,25 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
           <t>HD  17206</t>
         </is>
       </c>
-      <c r="R209" t="inlineStr">
+      <c r="S209" t="inlineStr">
         <is>
           <t>GJ 111.0, GJ 111</t>
         </is>
       </c>
-      <c r="S209" t="inlineStr">
+      <c r="T209" t="inlineStr">
         <is>
           <t>HIP 12843</t>
         </is>
       </c>
-      <c r="T209" t="inlineStr">
+      <c r="U209" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -15987,20 +17028,25 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
           <t>HD 160915</t>
         </is>
       </c>
-      <c r="R210" t="inlineStr">
+      <c r="S210" t="inlineStr">
         <is>
           <t>GJ 692</t>
         </is>
       </c>
-      <c r="S210" t="inlineStr">
+      <c r="T210" t="inlineStr">
         <is>
           <t>HIP 86736</t>
         </is>
       </c>
-      <c r="T210" t="inlineStr">
+      <c r="U210" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -16063,20 +17109,25 @@
       </c>
       <c r="Q211" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
           <t>HD 210302</t>
         </is>
       </c>
-      <c r="R211" t="inlineStr">
+      <c r="S211" t="inlineStr">
         <is>
           <t>GJ 9770, GJ 849.1</t>
         </is>
       </c>
-      <c r="S211" t="inlineStr">
+      <c r="T211" t="inlineStr">
         <is>
           <t>HIP 109422</t>
         </is>
       </c>
-      <c r="T211" t="inlineStr">
+      <c r="U211" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -16134,20 +17185,25 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
           <t>HD  16895</t>
         </is>
       </c>
-      <c r="R212" t="inlineStr">
+      <c r="S212" t="inlineStr">
         <is>
           <t>GJ 107 A</t>
         </is>
       </c>
-      <c r="S212" t="inlineStr">
+      <c r="T212" t="inlineStr">
         <is>
           <t>HIP 12777</t>
         </is>
       </c>
-      <c r="T212" t="inlineStr">
+      <c r="U212" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -16205,20 +17261,25 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
           <t>HD 173667</t>
         </is>
       </c>
-      <c r="R213" t="inlineStr">
+      <c r="S213" t="inlineStr">
         <is>
           <t>GJ 9635, GJ 725.2</t>
         </is>
       </c>
-      <c r="S213" t="inlineStr">
+      <c r="T213" t="inlineStr">
         <is>
           <t>HIP 92043</t>
         </is>
       </c>
-      <c r="T213" t="inlineStr">
+      <c r="U213" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -16276,20 +17337,25 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
           <t>HD 210027</t>
         </is>
       </c>
-      <c r="R214" t="inlineStr">
+      <c r="S214" t="inlineStr">
         <is>
           <t>GJ 848</t>
         </is>
       </c>
-      <c r="S214" t="inlineStr">
+      <c r="T214" t="inlineStr">
         <is>
           <t>HIP 109176</t>
         </is>
       </c>
-      <c r="T214" t="inlineStr">
+      <c r="U214" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -16352,20 +17418,25 @@
       </c>
       <c r="Q215" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
           <t>HD 120136</t>
         </is>
       </c>
-      <c r="R215" t="inlineStr">
+      <c r="S215" t="inlineStr">
         <is>
           <t>GJ 527 A, GJ 527</t>
         </is>
       </c>
-      <c r="S215" t="inlineStr">
+      <c r="T215" t="inlineStr">
         <is>
           <t>HIP 67275</t>
         </is>
       </c>
-      <c r="T215" t="inlineStr">
+      <c r="U215" t="inlineStr">
         <is>
           <t>RotV*</t>
         </is>
@@ -16428,20 +17499,25 @@
       </c>
       <c r="Q216" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
           <t>HD  81997</t>
         </is>
       </c>
-      <c r="R216" t="inlineStr">
+      <c r="S216" t="inlineStr">
         <is>
           <t>GJ 348 A</t>
         </is>
       </c>
-      <c r="S216" t="inlineStr">
+      <c r="T216" t="inlineStr">
         <is>
           <t>HIP 46509</t>
         </is>
       </c>
-      <c r="T216" t="inlineStr">
+      <c r="U216" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -16499,15 +17575,20 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
           <t>HD  64379A</t>
         </is>
       </c>
-      <c r="R217" t="inlineStr">
+      <c r="S217" t="inlineStr">
         <is>
           <t>GJ 292 A</t>
         </is>
       </c>
-      <c r="T217" t="inlineStr">
+      <c r="U217" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -16570,20 +17651,25 @@
       </c>
       <c r="Q218" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
           <t>HD  43386</t>
         </is>
       </c>
-      <c r="R218" t="inlineStr">
+      <c r="S218" t="inlineStr">
         <is>
           <t>GJ 9207</t>
         </is>
       </c>
-      <c r="S218" t="inlineStr">
+      <c r="T218" t="inlineStr">
         <is>
           <t>HIP 29800</t>
         </is>
       </c>
-      <c r="T218" t="inlineStr">
+      <c r="U218" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -16646,20 +17732,25 @@
       </c>
       <c r="Q219" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
           <t>HD 134083</t>
         </is>
       </c>
-      <c r="R219" t="inlineStr">
+      <c r="S219" t="inlineStr">
         <is>
           <t>GJ 578</t>
         </is>
       </c>
-      <c r="S219" t="inlineStr">
+      <c r="T219" t="inlineStr">
         <is>
           <t>HIP 73996</t>
         </is>
       </c>
-      <c r="T219" t="inlineStr">
+      <c r="U219" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -16717,20 +17808,25 @@
       </c>
       <c r="Q220" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
           <t>HD  23754</t>
         </is>
       </c>
-      <c r="R220" t="inlineStr">
+      <c r="S220" t="inlineStr">
         <is>
           <t>GJ 155</t>
         </is>
       </c>
-      <c r="S220" t="inlineStr">
+      <c r="T220" t="inlineStr">
         <is>
           <t>HIP 17651</t>
         </is>
       </c>
-      <c r="T220" t="inlineStr">
+      <c r="U220" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -16788,20 +17884,25 @@
       </c>
       <c r="Q221" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
           <t>HD  68456</t>
         </is>
       </c>
-      <c r="R221" t="inlineStr">
+      <c r="S221" t="inlineStr">
         <is>
           <t>GJ 9254, GJ 297.1</t>
         </is>
       </c>
-      <c r="S221" t="inlineStr">
+      <c r="T221" t="inlineStr">
         <is>
           <t>HIP 39903</t>
         </is>
       </c>
-      <c r="T221" t="inlineStr">
+      <c r="U221" t="inlineStr">
         <is>
           <t>SB*</t>
         </is>
@@ -16859,20 +17960,25 @@
       </c>
       <c r="Q222" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
           <t>HD  71243</t>
         </is>
       </c>
-      <c r="R222" t="inlineStr">
+      <c r="S222" t="inlineStr">
         <is>
           <t>GJ 305</t>
         </is>
       </c>
-      <c r="S222" t="inlineStr">
+      <c r="T222" t="inlineStr">
         <is>
           <t>HIP 40702</t>
         </is>
       </c>
-      <c r="T222" t="inlineStr">
+      <c r="U222" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -16930,20 +18036,25 @@
       </c>
       <c r="Q223" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
           <t>HD 185395</t>
         </is>
       </c>
-      <c r="R223" t="inlineStr">
+      <c r="S223" t="inlineStr">
         <is>
           <t>GJ 765 A</t>
         </is>
       </c>
-      <c r="S223" t="inlineStr">
+      <c r="T223" t="inlineStr">
         <is>
           <t>HIP 96441</t>
         </is>
       </c>
-      <c r="T223" t="inlineStr">
+      <c r="U223" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -17001,20 +18112,25 @@
       </c>
       <c r="Q224" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
           <t>HD 139664</t>
         </is>
       </c>
-      <c r="R224" t="inlineStr">
+      <c r="S224" t="inlineStr">
         <is>
           <t>GJ 594</t>
         </is>
       </c>
-      <c r="S224" t="inlineStr">
+      <c r="T224" t="inlineStr">
         <is>
           <t>HIP 76829</t>
         </is>
       </c>
-      <c r="T224" t="inlineStr">
+      <c r="U224" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -17072,20 +18188,25 @@
       </c>
       <c r="Q225" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
           <t>HD 110379J, HD 110379</t>
         </is>
       </c>
-      <c r="R225" t="inlineStr">
+      <c r="S225" t="inlineStr">
         <is>
           <t>GJ 482.0, GJ 482 A</t>
         </is>
       </c>
-      <c r="S225" t="inlineStr">
+      <c r="T225" t="inlineStr">
         <is>
           <t>HIP 61941</t>
         </is>
       </c>
-      <c r="T225" t="inlineStr">
+      <c r="U225" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -17143,20 +18264,25 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
           <t>HD 109085</t>
         </is>
       </c>
-      <c r="R226" t="inlineStr">
+      <c r="S226" t="inlineStr">
         <is>
           <t>GJ 9411, GJ 471.2</t>
         </is>
       </c>
-      <c r="S226" t="inlineStr">
+      <c r="T226" t="inlineStr">
         <is>
           <t>HIP 61174</t>
         </is>
       </c>
-      <c r="T226" t="inlineStr">
+      <c r="U226" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
@@ -17214,20 +18340,25 @@
       </c>
       <c r="Q227" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
           <t>HD  90589</t>
         </is>
       </c>
-      <c r="R227" t="inlineStr">
+      <c r="S227" t="inlineStr">
         <is>
           <t>GJ 391</t>
         </is>
       </c>
-      <c r="S227" t="inlineStr">
+      <c r="T227" t="inlineStr">
         <is>
           <t>HIP 50954</t>
         </is>
       </c>
-      <c r="T227" t="inlineStr">
+      <c r="U227" t="inlineStr">
         <is>
           <t>Variable*</t>
         </is>
@@ -17285,20 +18416,25 @@
       </c>
       <c r="Q228" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
           <t>HD  40136</t>
         </is>
       </c>
-      <c r="R228" t="inlineStr">
+      <c r="S228" t="inlineStr">
         <is>
           <t>GJ 225</t>
         </is>
       </c>
-      <c r="S228" t="inlineStr">
+      <c r="T228" t="inlineStr">
         <is>
           <t>HIP 28103</t>
         </is>
       </c>
-      <c r="T228" t="inlineStr">
+      <c r="U228" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
